--- a/manpower_log/HC03.xlsx
+++ b/manpower_log/HC03.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\manpower_log\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6818BF7-A875-456A-9D3B-E473903F6DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="10187"/>
+    <workbookView xWindow="4692" yWindow="468" windowWidth="16764" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HC03" sheetId="3" r:id="rId1"/>
@@ -851,14 +857,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -869,43 +869,43 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="0" tint="-0.0499893185216834"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Algerian"/>
-      <charset val="134"/>
+      <family val="5"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -913,154 +913,10 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1081,7 +937,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,198 +961,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1475,257 +1145,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1752,15 +1177,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1802,59 +1218,103 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1876,6 +1336,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2133,187 +1596,187 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L237"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.77777777777778" customWidth="1"/>
-    <col min="2" max="2" width="34.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="9.33333333333333" customWidth="1"/>
-    <col min="4" max="4" width="21.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="12.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="2" max="2" width="34.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="7.11111111111111" customWidth="1"/>
-    <col min="8" max="8" width="8.11111111111111" customWidth="1"/>
-    <col min="9" max="9" width="19.7777777777778" customWidth="1"/>
-    <col min="11" max="11" width="10.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" customWidth="1"/>
+    <col min="9" max="9" width="19.77734375" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:10">
-      <c r="A3" s="4">
+    <row r="3" spans="1:12" ht="15" customHeight="1">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>3327</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="I3" s="10" t="s">
+      <c r="E3" s="3"/>
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:10">
-      <c r="A4" s="4">
+    <row r="4" spans="1:12" ht="15" customHeight="1">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>3187</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="I4" s="10" t="s">
+      <c r="E4" s="3"/>
+      <c r="I4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:10">
-      <c r="A5" s="4">
+    <row r="5" spans="1:12" ht="15" customHeight="1">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>3059</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="I5" s="10" t="s">
+      <c r="E5" s="3"/>
+      <c r="I5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:10">
-      <c r="A6" s="4">
+    <row r="6" spans="1:12" ht="15" customHeight="1">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>3739</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="I6" s="10" t="s">
+      <c r="E6" s="3"/>
+      <c r="I6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:10">
-      <c r="A7" s="4">
+    <row r="7" spans="1:12" ht="15" customHeight="1">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>3869</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="I7" s="10" t="s">
+      <c r="E7" s="3"/>
+      <c r="I7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:12">
-      <c r="A8" s="4">
+    <row r="8" spans="1:12" ht="15" customHeight="1">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>3870</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="I8" s="10" t="s">
+      <c r="E8" s="3"/>
+      <c r="I8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <f>SUM(J2:J7)</f>
         <v>22</v>
       </c>
@@ -2321,3629 +1784,3629 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:7">
-      <c r="A9" s="4">
+    <row r="9" spans="1:12" ht="15" customHeight="1">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>3004</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="3"/>
       <c r="G9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="4">
+    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>4510</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:12">
-      <c r="A11" s="4">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>2287</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="I11" s="11" t="s">
+      <c r="E11" s="3"/>
+      <c r="I11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="13"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:12">
-      <c r="A12" s="4">
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>3289</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15" t="s">
+      <c r="E12" s="3"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:12">
-      <c r="A13" s="4">
+    <row r="13" spans="1:12" ht="15" customHeight="1">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>3275</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="I13" s="16" t="s">
+      <c r="E13" s="3"/>
+      <c r="I13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="13">
         <f>SUM(K13:L13)</f>
         <v>35</v>
       </c>
-      <c r="K13" s="18">
-        <v>35</v>
-      </c>
-      <c r="L13" s="18">
+      <c r="K13" s="14">
+        <v>35</v>
+      </c>
+      <c r="L13" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:12">
-      <c r="A14" s="4">
+    <row r="14" spans="1:12" ht="15" customHeight="1">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>2569</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="I14" s="16" t="s">
+      <c r="E14" s="3"/>
+      <c r="I14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="13">
         <f>SUM(K14:L14)</f>
         <v>2</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="15">
         <v>2</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:12">
-      <c r="A15" s="4">
+    <row r="15" spans="1:12" ht="15" customHeight="1">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>1599</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="I15" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="17">
+      <c r="E15" s="3"/>
+      <c r="I15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="13">
         <v>57</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="15">
         <v>57</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:12">
-      <c r="A16" s="4">
+    <row r="16" spans="1:12" ht="15" customHeight="1">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>3782</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="I16" s="16" t="s">
+      <c r="E16" s="3"/>
+      <c r="I16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="13">
         <v>22</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="15">
         <v>22</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:12">
-      <c r="A17" s="4">
+    <row r="17" spans="1:12" ht="15" customHeight="1">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>2940</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="I17" s="16" t="s">
+      <c r="E17" s="3"/>
+      <c r="I17" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="13">
         <v>45</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="15">
         <v>45</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:12">
-      <c r="A18" s="4">
+    <row r="18" spans="1:12" ht="15" customHeight="1">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>3779</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="I18" s="16" t="s">
+      <c r="E18" s="3"/>
+      <c r="I18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="13">
         <v>39</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="15">
         <v>39</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:12">
-      <c r="A19" s="4">
+    <row r="19" spans="1:12" ht="15" customHeight="1">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>3842</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="I19" s="16" t="s">
+      <c r="E19" s="3"/>
+      <c r="I19" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="13">
         <f>SUM(K19:L19)</f>
         <v>1</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="15">
         <v>1</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:12">
-      <c r="A20" s="4">
+    <row r="20" spans="1:12" ht="15" customHeight="1">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>4240</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="I20" s="16" t="s">
+      <c r="E20" s="3"/>
+      <c r="I20" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="13">
         <f>SUM(K20:L20)</f>
         <v>1</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="15">
         <v>1</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:12">
-      <c r="A21" s="4">
+    <row r="21" spans="1:12" ht="15" customHeight="1">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>4584</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="13">
         <v>0</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="15">
         <v>0</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L21" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:12">
-      <c r="A22" s="4">
+    <row r="22" spans="1:12" ht="15" customHeight="1">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>2981</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="I22" s="19" t="s">
+      <c r="E22" s="3"/>
+      <c r="I22" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="13">
         <v>7</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="15">
         <v>7</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L22" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:12">
-      <c r="A23" s="4">
+    <row r="23" spans="1:12" ht="15" customHeight="1">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>3378</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="I23" s="21" t="s">
+      <c r="E23" s="3"/>
+      <c r="I23" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="13">
         <f>SUM(K23:L23)</f>
         <v>2</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K23" s="17">
         <v>2</v>
       </c>
-      <c r="L23" s="21">
+      <c r="L23" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:12">
-      <c r="A24" s="4">
+    <row r="24" spans="1:12" ht="15" customHeight="1">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>4444</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="I24" s="21" t="s">
+      <c r="E24" s="3"/>
+      <c r="I24" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="13">
         <v>1</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="17">
         <v>1</v>
       </c>
-      <c r="L24" s="21">
+      <c r="L24" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:12">
-      <c r="A25" s="4">
+    <row r="25" spans="1:12" ht="15" customHeight="1">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>3069</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:12">
-      <c r="A26" s="7">
+      <c r="E25" s="3"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1">
+      <c r="A26" s="6">
         <v>1</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>3182</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="I26" s="23" t="s">
+      <c r="E26" s="7"/>
+      <c r="I26" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="20">
         <f>SUM(J13:J25)</f>
         <v>212</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="19">
         <f>SUM(K13:K25)</f>
         <v>212</v>
       </c>
-      <c r="L26" s="23">
+      <c r="L26" s="19">
         <f>SUM(L13:L25)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:5">
-      <c r="A27" s="7">
+    <row r="27" spans="1:12" ht="15" customHeight="1">
+      <c r="A27" s="6">
         <v>2</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>3181</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" customHeight="1" spans="1:5">
-      <c r="A28" s="7">
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1">
+      <c r="A28" s="6">
         <v>3</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>3307</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:5">
-      <c r="A29" s="7">
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1">
+      <c r="A29" s="6">
         <v>4</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>3308</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" customHeight="1" spans="1:5">
-      <c r="A30" s="7">
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" customHeight="1">
+      <c r="A30" s="6">
         <v>5</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>3304</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" customHeight="1" spans="1:5">
-      <c r="A31" s="7">
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:12" ht="15" customHeight="1">
+      <c r="A31" s="6">
         <v>6</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>3305</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:5">
-      <c r="A32" s="7">
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:12" ht="15" customHeight="1">
+      <c r="A32" s="6">
         <v>7</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>3306</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" customHeight="1" spans="1:5">
-      <c r="A33" s="7">
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1">
+      <c r="A33" s="6">
         <v>8</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>3303</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" customHeight="1" spans="1:5">
-      <c r="A34" s="7">
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1">
+      <c r="A34" s="6">
         <v>9</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>3088</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" customHeight="1" spans="1:5">
-      <c r="A35" s="7">
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1">
+      <c r="A35" s="6">
         <v>10</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>3183</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" customHeight="1" spans="1:5">
-      <c r="A36" s="7">
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1">
+      <c r="A36" s="6">
         <v>11</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>2369</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" customHeight="1" spans="1:5">
-      <c r="A37" s="7">
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" customHeight="1">
+      <c r="A37" s="6">
         <v>12</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <v>4151</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" customHeight="1" spans="1:5">
-      <c r="A38" s="7">
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" customHeight="1">
+      <c r="A38" s="6">
         <v>13</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="7">
         <v>2219</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" customHeight="1" spans="1:5">
-      <c r="A39" s="7">
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" ht="15" customHeight="1">
+      <c r="A39" s="6">
         <v>14</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <v>2875</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" customHeight="1" spans="1:5">
-      <c r="A40" s="7">
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1">
+      <c r="A40" s="6">
         <v>15</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="7">
         <v>2878</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" customHeight="1" spans="1:5">
-      <c r="A41" s="7">
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1">
+      <c r="A41" s="6">
         <v>16</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="7">
         <v>2335</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" customHeight="1" spans="1:5">
-      <c r="A42" s="7">
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1">
+      <c r="A42" s="6">
         <v>17</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="8">
         <v>4262</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" customHeight="1" spans="1:5">
-      <c r="A43" s="7">
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1">
+      <c r="A43" s="6">
         <v>18</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <v>4263</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" customHeight="1" spans="1:5">
-      <c r="A44" s="7">
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1">
+      <c r="A44" s="6">
         <v>19</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="8">
         <v>4264</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="8"/>
-    </row>
-    <row r="45" customHeight="1" spans="1:5">
-      <c r="A45" s="7">
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:5" ht="15" customHeight="1">
+      <c r="A45" s="6">
         <v>20</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="8">
         <v>4265</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="8"/>
-    </row>
-    <row r="46" customHeight="1" spans="1:5">
-      <c r="A46" s="7">
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" ht="15" customHeight="1">
+      <c r="A46" s="6">
         <v>21</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <v>4266</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="8"/>
-    </row>
-    <row r="47" customHeight="1" spans="1:5">
-      <c r="A47" s="7">
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:5" ht="15" customHeight="1">
+      <c r="A47" s="6">
         <v>22</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="8">
         <v>4267</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E47" s="8"/>
-    </row>
-    <row r="48" customHeight="1" spans="1:5">
-      <c r="A48" s="7">
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1">
+      <c r="A48" s="6">
         <v>23</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="8">
         <v>4268</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="8"/>
-    </row>
-    <row r="49" customHeight="1" spans="1:5">
-      <c r="A49" s="7">
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1">
+      <c r="A49" s="6">
         <v>24</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="8">
         <v>4269</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E49" s="8"/>
-    </row>
-    <row r="50" customHeight="1" spans="1:5">
-      <c r="A50" s="7">
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1">
+      <c r="A50" s="6">
         <v>25</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="8">
         <v>4270</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E50" s="8"/>
-    </row>
-    <row r="51" customHeight="1" spans="1:5">
-      <c r="A51" s="7">
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5" ht="15" customHeight="1">
+      <c r="A51" s="6">
         <v>26</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="8">
         <v>4271</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E51" s="8"/>
-    </row>
-    <row r="52" customHeight="1" spans="1:5">
-      <c r="A52" s="7">
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="1:5" ht="15" customHeight="1">
+      <c r="A52" s="6">
         <v>27</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="8">
         <v>4272</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="8"/>
-    </row>
-    <row r="53" customHeight="1" spans="1:5">
-      <c r="A53" s="7">
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5" ht="15" customHeight="1">
+      <c r="A53" s="6">
         <v>28</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="8">
         <v>4273</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E53" s="8"/>
-    </row>
-    <row r="54" customHeight="1" spans="1:5">
-      <c r="A54" s="7">
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="1:5" ht="15" customHeight="1">
+      <c r="A54" s="6">
         <v>29</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="8">
         <v>4274</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="8"/>
-    </row>
-    <row r="55" customHeight="1" spans="1:5">
-      <c r="A55" s="7">
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="1:5" ht="15" customHeight="1">
+      <c r="A55" s="6">
         <v>30</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="8">
         <v>4275</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="8"/>
-    </row>
-    <row r="56" customHeight="1" spans="1:5">
-      <c r="A56" s="7">
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="1:5" ht="15" customHeight="1">
+      <c r="A56" s="6">
         <v>31</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="8">
         <v>4276</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E56" s="8"/>
-    </row>
-    <row r="57" customHeight="1" spans="1:5">
-      <c r="A57" s="7">
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="1:5" ht="15" customHeight="1">
+      <c r="A57" s="6">
         <v>32</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="8">
         <v>4277</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E57" s="8"/>
-    </row>
-    <row r="58" customHeight="1" spans="1:5">
-      <c r="A58" s="7">
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="1:5" ht="15" customHeight="1">
+      <c r="A58" s="6">
         <v>33</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="7">
         <v>2286</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E58" s="8"/>
-    </row>
-    <row r="59" customHeight="1" spans="1:5">
-      <c r="A59" s="7">
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="1:5" ht="15" customHeight="1">
+      <c r="A59" s="6">
         <v>34</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="7">
         <v>2314</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E59" s="8"/>
-    </row>
-    <row r="60" customHeight="1" spans="1:5">
-      <c r="A60" s="7">
-        <v>35</v>
-      </c>
-      <c r="B60" s="8" t="s">
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="1:5" ht="15" customHeight="1">
+      <c r="A60" s="6">
+        <v>35</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="7">
         <v>2953</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E60" s="8"/>
-    </row>
-    <row r="61" customHeight="1" spans="1:5">
-      <c r="A61" s="7">
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:5" ht="15" customHeight="1">
+      <c r="A61" s="6">
         <v>36</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="7">
         <v>1917</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E61" s="8"/>
-    </row>
-    <row r="62" customHeight="1" spans="1:5">
-      <c r="A62" s="7">
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" spans="1:5" ht="15" customHeight="1">
+      <c r="A62" s="6">
         <v>37</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="7">
         <v>2173</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E62" s="8"/>
-    </row>
-    <row r="63" customHeight="1" spans="1:5">
-      <c r="A63" s="7">
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="1:5" ht="15" customHeight="1">
+      <c r="A63" s="6">
         <v>38</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="7">
         <v>2794</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E63" s="8"/>
-    </row>
-    <row r="64" customHeight="1" spans="1:5">
-      <c r="A64" s="7">
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="1:5" ht="15" customHeight="1">
+      <c r="A64" s="6">
         <v>39</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="7">
         <v>2905</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E64" s="8"/>
-    </row>
-    <row r="65" customHeight="1" spans="1:5">
-      <c r="A65" s="7">
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" spans="1:5" ht="15" customHeight="1">
+      <c r="A65" s="6">
         <v>40</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="7">
         <v>2950</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E65" s="8"/>
-    </row>
-    <row r="66" customHeight="1" spans="1:5">
-      <c r="A66" s="7">
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" spans="1:5" ht="15" customHeight="1">
+      <c r="A66" s="6">
         <v>41</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="7">
         <v>2808</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E66" s="8"/>
-    </row>
-    <row r="67" customHeight="1" spans="1:5">
-      <c r="A67" s="7">
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67" spans="1:5" ht="15" customHeight="1">
+      <c r="A67" s="6">
         <v>42</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="7">
         <v>2790</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E67" s="8"/>
-    </row>
-    <row r="68" customHeight="1" spans="1:5">
-      <c r="A68" s="7">
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" spans="1:5" ht="15" customHeight="1">
+      <c r="A68" s="6">
         <v>43</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="7">
         <v>4170</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E68" s="8"/>
-    </row>
-    <row r="69" customHeight="1" spans="1:5">
-      <c r="A69" s="7">
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" spans="1:5" ht="15" customHeight="1">
+      <c r="A69" s="6">
         <v>44</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="7">
         <v>4159</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E69" s="8"/>
-    </row>
-    <row r="70" customHeight="1" spans="1:5">
-      <c r="A70" s="7">
+      <c r="E69" s="7"/>
+    </row>
+    <row r="70" spans="1:5" ht="15" customHeight="1">
+      <c r="A70" s="6">
         <v>45</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="7">
         <v>4155</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="8"/>
-    </row>
-    <row r="71" customHeight="1" spans="1:5">
-      <c r="A71" s="7">
+      <c r="E70" s="7"/>
+    </row>
+    <row r="71" spans="1:5" ht="15" customHeight="1">
+      <c r="A71" s="6">
         <v>46</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="7">
         <v>4171</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E71" s="8"/>
-    </row>
-    <row r="72" customHeight="1" spans="1:5">
-      <c r="A72" s="7">
+      <c r="E71" s="7"/>
+    </row>
+    <row r="72" spans="1:5" ht="15" customHeight="1">
+      <c r="A72" s="6">
         <v>47</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="7">
         <v>4161</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E72" s="8"/>
-    </row>
-    <row r="73" customHeight="1" spans="1:5">
-      <c r="A73" s="7">
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" spans="1:5" ht="15" customHeight="1">
+      <c r="A73" s="6">
         <v>48</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="7">
         <v>4168</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E73" s="8"/>
-    </row>
-    <row r="74" customHeight="1" spans="1:5">
-      <c r="A74" s="7">
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" spans="1:5" ht="15" customHeight="1">
+      <c r="A74" s="6">
         <v>49</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="7">
         <v>4172</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E74" s="8"/>
-    </row>
-    <row r="75" customHeight="1" spans="1:5">
-      <c r="A75" s="7">
+      <c r="E74" s="7"/>
+    </row>
+    <row r="75" spans="1:5" ht="15" customHeight="1">
+      <c r="A75" s="6">
         <v>50</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="7">
         <v>4154</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="8"/>
-    </row>
-    <row r="76" customHeight="1" spans="1:5">
-      <c r="A76" s="7">
+      <c r="E75" s="7"/>
+    </row>
+    <row r="76" spans="1:5" ht="15" customHeight="1">
+      <c r="A76" s="6">
         <v>51</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="8">
         <v>4208</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E76" s="8"/>
-    </row>
-    <row r="77" customHeight="1" spans="1:5">
-      <c r="A77" s="7">
+      <c r="E76" s="7"/>
+    </row>
+    <row r="77" spans="1:5" ht="15" customHeight="1">
+      <c r="A77" s="6">
         <v>52</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="8">
         <v>4204</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E77" s="8"/>
-    </row>
-    <row r="78" customHeight="1" spans="1:5">
-      <c r="A78" s="7">
+      <c r="E77" s="7"/>
+    </row>
+    <row r="78" spans="1:5" ht="15" customHeight="1">
+      <c r="A78" s="6">
         <v>53</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="8">
         <v>3076</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D78" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E78" s="8"/>
-    </row>
-    <row r="79" customHeight="1" spans="1:5">
-      <c r="A79" s="7">
+      <c r="E78" s="7"/>
+    </row>
+    <row r="79" spans="1:5" ht="15" customHeight="1">
+      <c r="A79" s="6">
         <v>54</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="8">
         <v>4555</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E79" s="8"/>
-    </row>
-    <row r="80" customHeight="1" spans="1:5">
-      <c r="A80" s="7">
+      <c r="E79" s="7"/>
+    </row>
+    <row r="80" spans="1:5" ht="15" customHeight="1">
+      <c r="A80" s="6">
         <v>55</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="8">
         <v>4556</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E80" s="8"/>
-    </row>
-    <row r="81" customHeight="1" spans="1:5">
-      <c r="A81" s="7">
+      <c r="E80" s="7"/>
+    </row>
+    <row r="81" spans="1:5" ht="15" customHeight="1">
+      <c r="A81" s="6">
         <v>56</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="8">
         <v>4560</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E81" s="8"/>
-    </row>
-    <row r="82" customHeight="1" spans="1:5">
-      <c r="A82" s="7">
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" spans="1:5" ht="15" customHeight="1">
+      <c r="A82" s="6">
         <v>57</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C82" s="9">
+      <c r="C82" s="8">
         <v>4563</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E82" s="8"/>
-    </row>
-    <row r="83" customHeight="1" spans="1:5">
-      <c r="A83" s="7">
+      <c r="E82" s="7"/>
+    </row>
+    <row r="83" spans="1:5" ht="15" customHeight="1">
+      <c r="A83" s="6">
         <v>58</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="8">
         <v>4342</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E83" s="8"/>
-    </row>
-    <row r="84" customHeight="1" spans="1:5">
-      <c r="A84" s="7">
+      <c r="E83" s="7"/>
+    </row>
+    <row r="84" spans="1:5" ht="15" customHeight="1">
+      <c r="A84" s="6">
         <v>59</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C84" s="9">
+      <c r="C84" s="8">
         <v>4343</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E84" s="8"/>
-    </row>
-    <row r="85" customHeight="1" spans="1:5">
-      <c r="A85" s="7">
+      <c r="E84" s="7"/>
+    </row>
+    <row r="85" spans="1:5" ht="15" customHeight="1">
+      <c r="A85" s="6">
         <v>60</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C85" s="8">
         <v>4345</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E85" s="8"/>
-    </row>
-    <row r="86" customHeight="1" spans="1:5">
-      <c r="A86" s="7">
+      <c r="E85" s="7"/>
+    </row>
+    <row r="86" spans="1:5" ht="15" customHeight="1">
+      <c r="A86" s="6">
         <v>61</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C86" s="9">
+      <c r="C86" s="8">
         <v>2125</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E86" s="8"/>
-    </row>
-    <row r="87" customHeight="1" spans="1:5">
-      <c r="A87" s="7">
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" spans="1:5" ht="15" customHeight="1">
+      <c r="A87" s="6">
         <v>62</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C87" s="9">
+      <c r="C87" s="8">
         <v>4571</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E87" s="8"/>
-    </row>
-    <row r="88" customHeight="1" spans="1:5">
-      <c r="A88" s="7">
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" spans="1:5" ht="15" customHeight="1">
+      <c r="A88" s="6">
         <v>63</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C88" s="9">
+      <c r="C88" s="8">
         <v>3257</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E88" s="8"/>
-    </row>
-    <row r="89" customHeight="1" spans="1:5">
-      <c r="A89" s="7">
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" spans="1:5" ht="15" customHeight="1">
+      <c r="A89" s="6">
         <v>64</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="9">
+      <c r="C89" s="8">
         <v>4550</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E89" s="8"/>
-    </row>
-    <row r="90" customHeight="1" spans="1:5">
-      <c r="A90" s="7">
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" spans="1:5" ht="15" customHeight="1">
+      <c r="A90" s="6">
         <v>65</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C90" s="9">
+      <c r="C90" s="8">
         <v>4551</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E90" s="8"/>
-    </row>
-    <row r="91" customHeight="1" spans="1:5">
-      <c r="A91" s="7">
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" spans="1:5" ht="15" customHeight="1">
+      <c r="A91" s="6">
         <v>66</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C91" s="9">
+      <c r="C91" s="8">
         <v>4565</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E91" s="8"/>
-    </row>
-    <row r="92" customHeight="1" spans="1:5">
-      <c r="A92" s="7">
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92" spans="1:5" ht="15" customHeight="1">
+      <c r="A92" s="6">
         <v>67</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C92" s="9">
+      <c r="C92" s="8">
         <v>2937</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E92" s="8"/>
-    </row>
-    <row r="93" customHeight="1" spans="1:5">
-      <c r="A93" s="7">
+      <c r="E92" s="7"/>
+    </row>
+    <row r="93" spans="1:5" ht="15" customHeight="1">
+      <c r="A93" s="6">
         <v>68</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C93" s="8">
         <v>4776</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D93" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E93" s="8"/>
-    </row>
-    <row r="94" customHeight="1" spans="1:5">
-      <c r="A94" s="7">
+      <c r="E93" s="7"/>
+    </row>
+    <row r="94" spans="1:5" ht="15" customHeight="1">
+      <c r="A94" s="6">
         <v>69</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C94" s="8">
         <v>4781</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D94" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E94" s="8"/>
-    </row>
-    <row r="95" customHeight="1" spans="1:5">
-      <c r="A95" s="7">
+      <c r="E94" s="7"/>
+    </row>
+    <row r="95" spans="1:5" ht="15" customHeight="1">
+      <c r="A95" s="6">
         <v>70</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C95" s="9">
+      <c r="C95" s="8">
         <v>4784</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="D95" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E95" s="8"/>
-    </row>
-    <row r="96" customHeight="1" spans="1:5">
-      <c r="A96" s="7">
+      <c r="E95" s="7"/>
+    </row>
+    <row r="96" spans="1:5" ht="15" customHeight="1">
+      <c r="A96" s="6">
         <v>71</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C96" s="9">
+      <c r="C96" s="8">
         <v>4791</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D96" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E96" s="8"/>
-    </row>
-    <row r="97" customHeight="1" spans="1:5">
-      <c r="A97" s="7">
+      <c r="E96" s="7"/>
+    </row>
+    <row r="97" spans="1:5" ht="15" customHeight="1">
+      <c r="A97" s="6">
         <v>72</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C97" s="9">
+      <c r="C97" s="8">
         <v>4792</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E97" s="8"/>
-    </row>
-    <row r="98" customHeight="1" spans="1:5">
-      <c r="A98" s="7">
+      <c r="E97" s="7"/>
+    </row>
+    <row r="98" spans="1:5" ht="15" customHeight="1">
+      <c r="A98" s="6">
         <v>73</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C98" s="9">
+      <c r="C98" s="8">
         <v>4793</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E98" s="8"/>
-    </row>
-    <row r="99" customHeight="1" spans="1:5">
-      <c r="A99" s="7">
+      <c r="E98" s="7"/>
+    </row>
+    <row r="99" spans="1:5" ht="15" customHeight="1">
+      <c r="A99" s="6">
         <v>74</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C99" s="9">
+      <c r="C99" s="8">
         <v>4794</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E99" s="8"/>
-    </row>
-    <row r="100" customHeight="1" spans="1:5">
-      <c r="A100" s="7">
+      <c r="E99" s="7"/>
+    </row>
+    <row r="100" spans="1:5" ht="15" customHeight="1">
+      <c r="A100" s="6">
         <v>75</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C100" s="9">
+      <c r="C100" s="8">
         <v>2922</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E100" s="8"/>
-    </row>
-    <row r="101" customHeight="1" spans="1:5">
-      <c r="A101" s="7">
+      <c r="E100" s="7"/>
+    </row>
+    <row r="101" spans="1:5" ht="15" customHeight="1">
+      <c r="A101" s="6">
         <v>76</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C101" s="8">
+      <c r="C101" s="7">
         <v>2921</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E101" s="8"/>
-    </row>
-    <row r="102" customHeight="1" spans="1:5">
-      <c r="A102" s="7">
+      <c r="E101" s="7"/>
+    </row>
+    <row r="102" spans="1:5" ht="15" customHeight="1">
+      <c r="A102" s="6">
         <v>77</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C102" s="8">
+      <c r="C102" s="7">
         <v>2738</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D102" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E102" s="8"/>
-    </row>
-    <row r="103" customHeight="1" spans="1:5">
-      <c r="A103" s="7">
+      <c r="E102" s="7"/>
+    </row>
+    <row r="103" spans="1:5" ht="15" customHeight="1">
+      <c r="A103" s="6">
         <v>78</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C103" s="8">
+      <c r="C103" s="7">
         <v>2109</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E103" s="8"/>
-    </row>
-    <row r="104" customHeight="1" spans="1:5">
-      <c r="A104" s="7">
+      <c r="E103" s="7"/>
+    </row>
+    <row r="104" spans="1:5" ht="15" customHeight="1">
+      <c r="A104" s="6">
         <v>79</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C104" s="8">
+      <c r="C104" s="7">
         <v>2002</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D104" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E104" s="8"/>
-    </row>
-    <row r="105" customHeight="1" spans="1:5">
-      <c r="A105" s="7">
+      <c r="E104" s="7"/>
+    </row>
+    <row r="105" spans="1:5" ht="15" customHeight="1">
+      <c r="A105" s="6">
         <v>80</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C105" s="8">
+      <c r="C105" s="7">
         <v>2996</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D105" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E105" s="8"/>
-    </row>
-    <row r="106" customHeight="1" spans="1:5">
-      <c r="A106" s="7">
+      <c r="E105" s="7"/>
+    </row>
+    <row r="106" spans="1:5" ht="15" customHeight="1">
+      <c r="A106" s="6">
         <v>81</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C106" s="8">
+      <c r="C106" s="7">
         <v>3089</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E106" s="8"/>
-    </row>
-    <row r="107" customHeight="1" spans="1:5">
-      <c r="A107" s="7">
+      <c r="E106" s="7"/>
+    </row>
+    <row r="107" spans="1:5" ht="15" customHeight="1">
+      <c r="A107" s="6">
         <v>82</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C107" s="8">
+      <c r="C107" s="7">
         <v>3325</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="D107" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E107" s="8"/>
-    </row>
-    <row r="108" customHeight="1" spans="1:5">
-      <c r="A108" s="7">
+      <c r="E107" s="7"/>
+    </row>
+    <row r="108" spans="1:5" ht="15" customHeight="1">
+      <c r="A108" s="6">
         <v>83</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C108" s="8">
+      <c r="C108" s="7">
         <v>2162</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D108" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E108" s="8"/>
-    </row>
-    <row r="109" customHeight="1" spans="1:5">
-      <c r="A109" s="7">
+      <c r="E108" s="7"/>
+    </row>
+    <row r="109" spans="1:5" ht="15" customHeight="1">
+      <c r="A109" s="6">
         <v>84</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C109" s="8">
+      <c r="C109" s="7">
         <v>2215</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D109" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E109" s="8"/>
-    </row>
-    <row r="110" customHeight="1" spans="1:5">
-      <c r="A110" s="7">
+      <c r="E109" s="7"/>
+    </row>
+    <row r="110" spans="1:5" ht="15" customHeight="1">
+      <c r="A110" s="6">
         <v>85</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C110" s="8">
+      <c r="C110" s="7">
         <v>3090</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E110" s="8"/>
-    </row>
-    <row r="111" customHeight="1" spans="1:5">
-      <c r="A111" s="7">
+      <c r="E110" s="7"/>
+    </row>
+    <row r="111" spans="1:5" ht="15" customHeight="1">
+      <c r="A111" s="6">
         <v>86</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C111" s="8">
+      <c r="C111" s="7">
         <v>2552</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E111" s="8"/>
-    </row>
-    <row r="112" customHeight="1" spans="1:5">
-      <c r="A112" s="7">
+      <c r="E111" s="7"/>
+    </row>
+    <row r="112" spans="1:5" ht="15" customHeight="1">
+      <c r="A112" s="6">
         <v>87</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C112" s="8">
+      <c r="C112" s="7">
         <v>2017</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="D112" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E112" s="8"/>
-    </row>
-    <row r="113" customHeight="1" spans="1:5">
-      <c r="A113" s="7">
+      <c r="E112" s="7"/>
+    </row>
+    <row r="113" spans="1:5" ht="15" customHeight="1">
+      <c r="A113" s="6">
         <v>88</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C113" s="8">
+      <c r="C113" s="7">
         <v>2197</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="D113" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E113" s="8"/>
-    </row>
-    <row r="114" customHeight="1" spans="1:5">
-      <c r="A114" s="7">
+      <c r="E113" s="7"/>
+    </row>
+    <row r="114" spans="1:5" ht="15" customHeight="1">
+      <c r="A114" s="6">
         <v>89</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C114" s="8">
+      <c r="C114" s="7">
         <v>1922</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="D114" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E114" s="8"/>
-    </row>
-    <row r="115" customHeight="1" spans="1:5">
-      <c r="A115" s="7">
+      <c r="E114" s="7"/>
+    </row>
+    <row r="115" spans="1:5" ht="15" customHeight="1">
+      <c r="A115" s="6">
         <v>90</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C115" s="8">
+      <c r="C115" s="7">
         <v>2294</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D115" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E115" s="8"/>
-    </row>
-    <row r="116" customHeight="1" spans="1:5">
-      <c r="A116" s="7">
+      <c r="E115" s="7"/>
+    </row>
+    <row r="116" spans="1:5" ht="15" customHeight="1">
+      <c r="A116" s="6">
         <v>91</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C116" s="8">
+      <c r="C116" s="7">
         <v>2158</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D116" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E116" s="8"/>
-    </row>
-    <row r="117" customHeight="1" spans="1:5">
-      <c r="A117" s="7">
+      <c r="E116" s="7"/>
+    </row>
+    <row r="117" spans="1:5" ht="15" customHeight="1">
+      <c r="A117" s="6">
         <v>92</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C117" s="8">
+      <c r="C117" s="7">
         <v>4153</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D117" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E117" s="8"/>
-    </row>
-    <row r="118" customHeight="1" spans="1:5">
-      <c r="A118" s="7">
+      <c r="E117" s="7"/>
+    </row>
+    <row r="118" spans="1:5" ht="15" customHeight="1">
+      <c r="A118" s="6">
         <v>93</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C118" s="8">
+      <c r="C118" s="7">
         <v>4152</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D118" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E118" s="8"/>
-    </row>
-    <row r="119" customHeight="1" spans="1:5">
-      <c r="A119" s="7">
+      <c r="E118" s="7"/>
+    </row>
+    <row r="119" spans="1:5" ht="15" customHeight="1">
+      <c r="A119" s="6">
         <v>94</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C119" s="8">
+      <c r="C119" s="7">
         <v>2302</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="D119" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E119" s="8"/>
-    </row>
-    <row r="120" customHeight="1" spans="1:5">
-      <c r="A120" s="7">
+      <c r="E119" s="7"/>
+    </row>
+    <row r="120" spans="1:5" ht="15" customHeight="1">
+      <c r="A120" s="6">
         <v>95</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C120" s="8">
+      <c r="C120" s="7">
         <v>2303</v>
       </c>
-      <c r="D120" s="8" t="s">
+      <c r="D120" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E120" s="8"/>
-    </row>
-    <row r="121" customHeight="1" spans="1:5">
-      <c r="A121" s="7">
+      <c r="E120" s="7"/>
+    </row>
+    <row r="121" spans="1:5" ht="15" customHeight="1">
+      <c r="A121" s="6">
         <v>96</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="B121" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C121" s="8">
+      <c r="C121" s="7">
         <v>2814</v>
       </c>
-      <c r="D121" s="8" t="s">
+      <c r="D121" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E121" s="8"/>
-    </row>
-    <row r="122" customHeight="1" spans="1:5">
-      <c r="A122" s="7">
+      <c r="E121" s="7"/>
+    </row>
+    <row r="122" spans="1:5" ht="15" customHeight="1">
+      <c r="A122" s="6">
         <v>97</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C122" s="8">
+      <c r="C122" s="7">
         <v>3163</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="D122" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E122" s="8"/>
-    </row>
-    <row r="123" customHeight="1" spans="1:5">
-      <c r="A123" s="7">
+      <c r="E122" s="7"/>
+    </row>
+    <row r="123" spans="1:5" ht="15" customHeight="1">
+      <c r="A123" s="6">
         <v>98</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C123" s="8">
+      <c r="C123" s="7">
         <v>3196</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="D123" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E123" s="8"/>
-    </row>
-    <row r="124" customHeight="1" spans="1:5">
-      <c r="A124" s="7">
+      <c r="E123" s="7"/>
+    </row>
+    <row r="124" spans="1:5" ht="15" customHeight="1">
+      <c r="A124" s="6">
         <v>99</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C124" s="8">
+      <c r="C124" s="7">
         <v>3197</v>
       </c>
-      <c r="D124" s="8" t="s">
+      <c r="D124" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E124" s="8"/>
-    </row>
-    <row r="125" customHeight="1" spans="1:5">
-      <c r="A125" s="7">
+      <c r="E124" s="7"/>
+    </row>
+    <row r="125" spans="1:5" ht="15" customHeight="1">
+      <c r="A125" s="6">
         <v>100</v>
       </c>
-      <c r="B125" s="8" t="s">
+      <c r="B125" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C125" s="8">
+      <c r="C125" s="7">
         <v>3198</v>
       </c>
-      <c r="D125" s="8" t="s">
+      <c r="D125" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E125" s="8"/>
-    </row>
-    <row r="126" customHeight="1" spans="1:5">
-      <c r="A126" s="7">
+      <c r="E125" s="7"/>
+    </row>
+    <row r="126" spans="1:5" ht="15" customHeight="1">
+      <c r="A126" s="6">
         <v>101</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C126" s="8">
+      <c r="C126" s="7">
         <v>2791</v>
       </c>
-      <c r="D126" s="8" t="s">
+      <c r="D126" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E126" s="8"/>
-    </row>
-    <row r="127" customHeight="1" spans="1:5">
-      <c r="A127" s="7">
+      <c r="E126" s="7"/>
+    </row>
+    <row r="127" spans="1:5" ht="15" customHeight="1">
+      <c r="A127" s="6">
         <v>102</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B127" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C127" s="8">
+      <c r="C127" s="7">
         <v>2792</v>
       </c>
-      <c r="D127" s="8" t="s">
+      <c r="D127" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E127" s="8"/>
-    </row>
-    <row r="128" customHeight="1" spans="1:5">
-      <c r="A128" s="7">
+      <c r="E127" s="7"/>
+    </row>
+    <row r="128" spans="1:5" ht="15" customHeight="1">
+      <c r="A128" s="6">
         <v>103</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="B128" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C128" s="8">
+      <c r="C128" s="7">
         <v>2795</v>
       </c>
-      <c r="D128" s="8" t="s">
+      <c r="D128" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E128" s="8"/>
-    </row>
-    <row r="129" customHeight="1" spans="1:5">
-      <c r="A129" s="7">
+      <c r="E128" s="7"/>
+    </row>
+    <row r="129" spans="1:5" ht="15" customHeight="1">
+      <c r="A129" s="6">
         <v>104</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C129" s="8">
+      <c r="C129" s="7">
         <v>2798</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="D129" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E129" s="8"/>
-    </row>
-    <row r="130" customHeight="1" spans="1:5">
-      <c r="A130" s="7">
+      <c r="E129" s="7"/>
+    </row>
+    <row r="130" spans="1:5" ht="15" customHeight="1">
+      <c r="A130" s="6">
         <v>105</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B130" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C130" s="8">
+      <c r="C130" s="7">
         <v>3104</v>
       </c>
-      <c r="D130" s="8" t="s">
+      <c r="D130" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E130" s="8"/>
-    </row>
-    <row r="131" customHeight="1" spans="1:5">
-      <c r="A131" s="7">
+      <c r="E130" s="7"/>
+    </row>
+    <row r="131" spans="1:5" ht="15" customHeight="1">
+      <c r="A131" s="6">
         <v>106</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C131" s="8">
+      <c r="C131" s="7">
         <v>3555</v>
       </c>
-      <c r="D131" s="8" t="s">
+      <c r="D131" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E131" s="8"/>
-    </row>
-    <row r="132" customHeight="1" spans="1:5">
-      <c r="A132" s="7">
+      <c r="E131" s="7"/>
+    </row>
+    <row r="132" spans="1:5" ht="15" customHeight="1">
+      <c r="A132" s="6">
         <v>107</v>
       </c>
-      <c r="B132" s="8" t="s">
+      <c r="B132" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C132" s="8">
+      <c r="C132" s="7">
         <v>3162</v>
       </c>
-      <c r="D132" s="8" t="s">
+      <c r="D132" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E132" s="8"/>
-    </row>
-    <row r="133" customHeight="1" spans="1:5">
-      <c r="A133" s="7">
+      <c r="E132" s="7"/>
+    </row>
+    <row r="133" spans="1:5" ht="15" customHeight="1">
+      <c r="A133" s="6">
         <v>108</v>
       </c>
-      <c r="B133" s="8" t="s">
+      <c r="B133" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C133" s="8">
+      <c r="C133" s="7">
         <v>3283</v>
       </c>
-      <c r="D133" s="8" t="s">
+      <c r="D133" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E133" s="8"/>
-    </row>
-    <row r="134" customHeight="1" spans="1:5">
-      <c r="A134" s="7">
+      <c r="E133" s="7"/>
+    </row>
+    <row r="134" spans="1:5" ht="15" customHeight="1">
+      <c r="A134" s="6">
         <v>109</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="B134" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C134" s="8">
+      <c r="C134" s="7">
         <v>3157</v>
       </c>
-      <c r="D134" s="8" t="s">
+      <c r="D134" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E134" s="8"/>
-    </row>
-    <row r="135" customHeight="1" spans="1:5">
-      <c r="A135" s="7">
+      <c r="E134" s="7"/>
+    </row>
+    <row r="135" spans="1:5" ht="15" customHeight="1">
+      <c r="A135" s="6">
         <v>110</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="B135" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C135" s="8">
+      <c r="C135" s="7">
         <v>2815</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="D135" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E135" s="8"/>
-    </row>
-    <row r="136" customHeight="1" spans="1:5">
-      <c r="A136" s="7">
+      <c r="E135" s="7"/>
+    </row>
+    <row r="136" spans="1:5" ht="15" customHeight="1">
+      <c r="A136" s="6">
         <v>111</v>
       </c>
-      <c r="B136" s="8" t="s">
+      <c r="B136" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C136" s="8">
+      <c r="C136" s="7">
         <v>3281</v>
       </c>
-      <c r="D136" s="8" t="s">
+      <c r="D136" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E136" s="8"/>
-    </row>
-    <row r="137" customHeight="1" spans="1:5">
-      <c r="A137" s="7">
+      <c r="E136" s="7"/>
+    </row>
+    <row r="137" spans="1:5" ht="15" customHeight="1">
+      <c r="A137" s="6">
         <v>112</v>
       </c>
-      <c r="B137" s="8" t="s">
+      <c r="B137" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C137" s="8">
+      <c r="C137" s="7">
         <v>2325</v>
       </c>
-      <c r="D137" s="8" t="s">
+      <c r="D137" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E137" s="8"/>
-    </row>
-    <row r="138" customHeight="1" spans="1:5">
-      <c r="A138" s="7">
+      <c r="E137" s="7"/>
+    </row>
+    <row r="138" spans="1:5" ht="15" customHeight="1">
+      <c r="A138" s="6">
         <v>113</v>
       </c>
-      <c r="B138" s="8" t="s">
+      <c r="B138" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C138" s="8">
+      <c r="C138" s="7">
         <v>3010</v>
       </c>
-      <c r="D138" s="8" t="s">
+      <c r="D138" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E138" s="8"/>
-    </row>
-    <row r="139" customHeight="1" spans="1:5">
-      <c r="A139" s="7">
+      <c r="E138" s="7"/>
+    </row>
+    <row r="139" spans="1:5" ht="15" customHeight="1">
+      <c r="A139" s="6">
         <v>114</v>
       </c>
-      <c r="B139" s="8" t="s">
+      <c r="B139" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C139" s="8">
+      <c r="C139" s="7">
         <v>3013</v>
       </c>
-      <c r="D139" s="8" t="s">
+      <c r="D139" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E139" s="8"/>
-    </row>
-    <row r="140" customHeight="1" spans="1:5">
-      <c r="A140" s="7">
+      <c r="E139" s="7"/>
+    </row>
+    <row r="140" spans="1:5" ht="15" customHeight="1">
+      <c r="A140" s="6">
         <v>115</v>
       </c>
-      <c r="B140" s="8" t="s">
+      <c r="B140" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C140" s="8">
+      <c r="C140" s="7">
         <v>3193</v>
       </c>
-      <c r="D140" s="8" t="s">
+      <c r="D140" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E140" s="8"/>
-    </row>
-    <row r="141" customHeight="1" spans="1:5">
-      <c r="A141" s="7">
+      <c r="E140" s="7"/>
+    </row>
+    <row r="141" spans="1:5" ht="15" customHeight="1">
+      <c r="A141" s="6">
         <v>116</v>
       </c>
-      <c r="B141" s="8" t="s">
+      <c r="B141" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C141" s="8">
+      <c r="C141" s="7">
         <v>3200</v>
       </c>
-      <c r="D141" s="8" t="s">
+      <c r="D141" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E141" s="8"/>
-    </row>
-    <row r="142" customHeight="1" spans="1:5">
-      <c r="A142" s="7">
+      <c r="E141" s="7"/>
+    </row>
+    <row r="142" spans="1:5" ht="15" customHeight="1">
+      <c r="A142" s="6">
         <v>117</v>
       </c>
-      <c r="B142" s="8" t="s">
+      <c r="B142" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C142" s="8">
+      <c r="C142" s="7">
         <v>2822</v>
       </c>
-      <c r="D142" s="8" t="s">
+      <c r="D142" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E142" s="8"/>
-    </row>
-    <row r="143" customHeight="1" spans="1:5">
-      <c r="A143" s="7">
+      <c r="E142" s="7"/>
+    </row>
+    <row r="143" spans="1:5" ht="15" customHeight="1">
+      <c r="A143" s="6">
         <v>118</v>
       </c>
-      <c r="B143" s="8" t="s">
+      <c r="B143" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C143" s="8">
+      <c r="C143" s="7">
         <v>3234</v>
       </c>
-      <c r="D143" s="8" t="s">
+      <c r="D143" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E143" s="8"/>
-    </row>
-    <row r="144" customHeight="1" spans="1:5">
-      <c r="A144" s="7">
+      <c r="E143" s="7"/>
+    </row>
+    <row r="144" spans="1:5" ht="15" customHeight="1">
+      <c r="A144" s="6">
         <v>119</v>
       </c>
-      <c r="B144" s="8" t="s">
+      <c r="B144" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C144" s="8">
+      <c r="C144" s="7">
         <v>3989</v>
       </c>
-      <c r="D144" s="8" t="s">
+      <c r="D144" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E144" s="8"/>
-    </row>
-    <row r="145" customHeight="1" spans="1:5">
-      <c r="A145" s="7">
+      <c r="E144" s="7"/>
+    </row>
+    <row r="145" spans="1:5" ht="15" customHeight="1">
+      <c r="A145" s="6">
         <v>120</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="B145" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C145" s="8">
+      <c r="C145" s="7">
         <v>4119</v>
       </c>
-      <c r="D145" s="8" t="s">
+      <c r="D145" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E145" s="8"/>
-    </row>
-    <row r="146" customHeight="1" spans="1:5">
-      <c r="A146" s="7">
+      <c r="E145" s="7"/>
+    </row>
+    <row r="146" spans="1:5" ht="15" customHeight="1">
+      <c r="A146" s="6">
         <v>121</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="B146" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C146" s="8">
+      <c r="C146" s="7">
         <v>4130</v>
       </c>
-      <c r="D146" s="8" t="s">
+      <c r="D146" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E146" s="8"/>
-    </row>
-    <row r="147" customHeight="1" spans="1:5">
-      <c r="A147" s="7">
+      <c r="E146" s="7"/>
+    </row>
+    <row r="147" spans="1:5" ht="15" customHeight="1">
+      <c r="A147" s="6">
         <v>122</v>
       </c>
-      <c r="B147" s="8" t="s">
+      <c r="B147" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C147" s="8">
+      <c r="C147" s="7">
         <v>4134</v>
       </c>
-      <c r="D147" s="8" t="s">
+      <c r="D147" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E147" s="8"/>
-    </row>
-    <row r="148" customHeight="1" spans="1:5">
-      <c r="A148" s="7">
+      <c r="E147" s="7"/>
+    </row>
+    <row r="148" spans="1:5" ht="15" customHeight="1">
+      <c r="A148" s="6">
         <v>123</v>
       </c>
-      <c r="B148" s="8" t="s">
+      <c r="B148" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C148" s="8">
+      <c r="C148" s="7">
         <v>4122</v>
       </c>
-      <c r="D148" s="8" t="s">
+      <c r="D148" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E148" s="8"/>
-    </row>
-    <row r="149" customHeight="1" spans="1:5">
-      <c r="A149" s="7">
+      <c r="E148" s="7"/>
+    </row>
+    <row r="149" spans="1:5" ht="15" customHeight="1">
+      <c r="A149" s="6">
         <v>124</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="B149" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C149" s="8">
+      <c r="C149" s="7">
         <v>4135</v>
       </c>
-      <c r="D149" s="8" t="s">
+      <c r="D149" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E149" s="8"/>
-    </row>
-    <row r="150" customHeight="1" spans="1:5">
-      <c r="A150" s="7">
+      <c r="E149" s="7"/>
+    </row>
+    <row r="150" spans="1:5" ht="15" customHeight="1">
+      <c r="A150" s="6">
         <v>125</v>
       </c>
-      <c r="B150" s="8" t="s">
+      <c r="B150" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C150" s="8">
+      <c r="C150" s="7">
         <v>4120</v>
       </c>
-      <c r="D150" s="8" t="s">
+      <c r="D150" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E150" s="8"/>
-    </row>
-    <row r="151" customHeight="1" spans="1:5">
-      <c r="A151" s="7">
+      <c r="E150" s="7"/>
+    </row>
+    <row r="151" spans="1:5" ht="15" customHeight="1">
+      <c r="A151" s="6">
         <v>126</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="B151" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C151" s="8">
+      <c r="C151" s="7">
         <v>4136</v>
       </c>
-      <c r="D151" s="8" t="s">
+      <c r="D151" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E151" s="8"/>
-    </row>
-    <row r="152" customHeight="1" spans="1:5">
-      <c r="A152" s="7">
+      <c r="E151" s="7"/>
+    </row>
+    <row r="152" spans="1:5" ht="15" customHeight="1">
+      <c r="A152" s="6">
         <v>127</v>
       </c>
-      <c r="B152" s="8" t="s">
+      <c r="B152" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C152" s="8">
+      <c r="C152" s="7">
         <v>4132</v>
       </c>
-      <c r="D152" s="8" t="s">
+      <c r="D152" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E152" s="8"/>
-    </row>
-    <row r="153" customHeight="1" spans="1:5">
-      <c r="A153" s="7">
+      <c r="E152" s="7"/>
+    </row>
+    <row r="153" spans="1:5" ht="15" customHeight="1">
+      <c r="A153" s="6">
         <v>128</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B153" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C153" s="8">
+      <c r="C153" s="7">
         <v>4131</v>
       </c>
-      <c r="D153" s="8" t="s">
+      <c r="D153" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E153" s="8"/>
-    </row>
-    <row r="154" customHeight="1" spans="1:5">
-      <c r="A154" s="7">
+      <c r="E153" s="7"/>
+    </row>
+    <row r="154" spans="1:5" ht="15" customHeight="1">
+      <c r="A154" s="6">
         <v>129</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B154" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C154" s="8">
+      <c r="C154" s="7">
         <v>4123</v>
       </c>
-      <c r="D154" s="8" t="s">
+      <c r="D154" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E154" s="8"/>
-    </row>
-    <row r="155" customHeight="1" spans="1:5">
-      <c r="A155" s="7">
+      <c r="E154" s="7"/>
+    </row>
+    <row r="155" spans="1:5" ht="15" customHeight="1">
+      <c r="A155" s="6">
         <v>130</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="B155" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C155" s="8">
+      <c r="C155" s="7">
         <v>2806</v>
       </c>
-      <c r="D155" s="8" t="s">
+      <c r="D155" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E155" s="8"/>
-    </row>
-    <row r="156" customHeight="1" spans="1:5">
-      <c r="A156" s="7">
+      <c r="E155" s="7"/>
+    </row>
+    <row r="156" spans="1:5" ht="15" customHeight="1">
+      <c r="A156" s="6">
         <v>131</v>
       </c>
-      <c r="B156" s="8" t="s">
+      <c r="B156" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C156" s="8">
+      <c r="C156" s="7">
         <v>2809</v>
       </c>
-      <c r="D156" s="8" t="s">
+      <c r="D156" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E156" s="8"/>
-    </row>
-    <row r="157" customHeight="1" spans="1:5">
-      <c r="A157" s="7">
+      <c r="E156" s="7"/>
+    </row>
+    <row r="157" spans="1:5" ht="15" customHeight="1">
+      <c r="A157" s="6">
         <v>132</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C157" s="8">
+      <c r="C157" s="7">
         <v>2810</v>
       </c>
-      <c r="D157" s="8" t="s">
+      <c r="D157" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E157" s="8"/>
-    </row>
-    <row r="158" customHeight="1" spans="1:5">
-      <c r="A158" s="7">
+      <c r="E157" s="7"/>
+    </row>
+    <row r="158" spans="1:5" ht="15" customHeight="1">
+      <c r="A158" s="6">
         <v>133</v>
       </c>
-      <c r="B158" s="8" t="s">
+      <c r="B158" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C158" s="8">
+      <c r="C158" s="7">
         <v>2917</v>
       </c>
-      <c r="D158" s="8" t="s">
+      <c r="D158" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E158" s="8"/>
-    </row>
-    <row r="159" customHeight="1" spans="1:5">
-      <c r="A159" s="7">
+      <c r="E158" s="7"/>
+    </row>
+    <row r="159" spans="1:5" ht="15" customHeight="1">
+      <c r="A159" s="6">
         <v>134</v>
       </c>
-      <c r="B159" s="8" t="s">
+      <c r="B159" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C159" s="8">
+      <c r="C159" s="7">
         <v>2918</v>
       </c>
-      <c r="D159" s="8" t="s">
+      <c r="D159" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E159" s="8"/>
-    </row>
-    <row r="160" customHeight="1" spans="1:5">
-      <c r="A160" s="7">
+      <c r="E159" s="7"/>
+    </row>
+    <row r="160" spans="1:5" ht="15" customHeight="1">
+      <c r="A160" s="6">
         <v>135</v>
       </c>
-      <c r="B160" s="8" t="s">
+      <c r="B160" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C160" s="8">
+      <c r="C160" s="7">
         <v>2919</v>
       </c>
-      <c r="D160" s="8" t="s">
+      <c r="D160" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E160" s="8"/>
-    </row>
-    <row r="161" customHeight="1" spans="1:5">
-      <c r="A161" s="7">
+      <c r="E160" s="7"/>
+    </row>
+    <row r="161" spans="1:5" ht="15" customHeight="1">
+      <c r="A161" s="6">
         <v>136</v>
       </c>
-      <c r="B161" s="8" t="s">
+      <c r="B161" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C161" s="8">
+      <c r="C161" s="7">
         <v>2995</v>
       </c>
-      <c r="D161" s="8" t="s">
+      <c r="D161" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E161" s="8"/>
-    </row>
-    <row r="162" customHeight="1" spans="1:5">
-      <c r="A162" s="7">
+      <c r="E161" s="7"/>
+    </row>
+    <row r="162" spans="1:5" ht="15" customHeight="1">
+      <c r="A162" s="6">
         <v>137</v>
       </c>
-      <c r="B162" s="8" t="s">
+      <c r="B162" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C162" s="8">
+      <c r="C162" s="7">
         <v>3165</v>
       </c>
-      <c r="D162" s="8" t="s">
+      <c r="D162" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E162" s="8"/>
-    </row>
-    <row r="163" customHeight="1" spans="1:5">
-      <c r="A163" s="7">
+      <c r="E162" s="7"/>
+    </row>
+    <row r="163" spans="1:5" ht="15" customHeight="1">
+      <c r="A163" s="6">
         <v>138</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="B163" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C163" s="8">
+      <c r="C163" s="7">
         <v>3167</v>
       </c>
-      <c r="D163" s="8" t="s">
+      <c r="D163" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E163" s="8"/>
-    </row>
-    <row r="164" customHeight="1" spans="1:5">
-      <c r="A164" s="7">
+      <c r="E163" s="7"/>
+    </row>
+    <row r="164" spans="1:5" ht="15" customHeight="1">
+      <c r="A164" s="6">
         <v>139</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C164" s="8">
+      <c r="C164" s="7">
         <v>3189</v>
       </c>
-      <c r="D164" s="8" t="s">
+      <c r="D164" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E164" s="8"/>
-    </row>
-    <row r="165" customHeight="1" spans="1:5">
-      <c r="A165" s="7">
+      <c r="E164" s="7"/>
+    </row>
+    <row r="165" spans="1:5" ht="15" customHeight="1">
+      <c r="A165" s="6">
         <v>140</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B165" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C165" s="8">
+      <c r="C165" s="7">
         <v>3192</v>
       </c>
-      <c r="D165" s="8" t="s">
+      <c r="D165" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E165" s="8"/>
-    </row>
-    <row r="166" customHeight="1" spans="1:5">
-      <c r="A166" s="7">
+      <c r="E165" s="7"/>
+    </row>
+    <row r="166" spans="1:5" ht="15" customHeight="1">
+      <c r="A166" s="6">
         <v>141</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="B166" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C166" s="8">
+      <c r="C166" s="7">
         <v>4775</v>
       </c>
-      <c r="D166" s="8" t="s">
+      <c r="D166" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E166" s="8"/>
-    </row>
-    <row r="167" customHeight="1" spans="1:5">
-      <c r="A167" s="7">
+      <c r="E166" s="7"/>
+    </row>
+    <row r="167" spans="1:5" ht="15" customHeight="1">
+      <c r="A167" s="6">
         <v>142</v>
       </c>
-      <c r="B167" s="8" t="s">
+      <c r="B167" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C167" s="8">
+      <c r="C167" s="7">
         <v>3040</v>
       </c>
-      <c r="D167" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E167" s="8"/>
-    </row>
-    <row r="168" customHeight="1" spans="1:5">
-      <c r="A168" s="7">
+      <c r="D167" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E167" s="7"/>
+    </row>
+    <row r="168" spans="1:5" ht="15" customHeight="1">
+      <c r="A168" s="6">
         <v>143</v>
       </c>
-      <c r="B168" s="8" t="s">
+      <c r="B168" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C168" s="8">
+      <c r="C168" s="7">
         <v>3833</v>
       </c>
-      <c r="D168" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E168" s="8"/>
-    </row>
-    <row r="169" customHeight="1" spans="1:5">
-      <c r="A169" s="7">
+      <c r="D168" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E168" s="7"/>
+    </row>
+    <row r="169" spans="1:5" ht="15" customHeight="1">
+      <c r="A169" s="6">
         <v>144</v>
       </c>
-      <c r="B169" s="8" t="s">
+      <c r="B169" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C169" s="8">
+      <c r="C169" s="7">
         <v>4003</v>
       </c>
-      <c r="D169" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E169" s="8"/>
-    </row>
-    <row r="170" customHeight="1" spans="1:5">
-      <c r="A170" s="7">
+      <c r="D169" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E169" s="7"/>
+    </row>
+    <row r="170" spans="1:5" ht="15" customHeight="1">
+      <c r="A170" s="6">
         <v>145</v>
       </c>
-      <c r="B170" s="8" t="s">
+      <c r="B170" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C170" s="8">
+      <c r="C170" s="7">
         <v>4004</v>
       </c>
-      <c r="D170" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E170" s="8"/>
-    </row>
-    <row r="171" customHeight="1" spans="1:5">
-      <c r="A171" s="7">
+      <c r="D170" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E170" s="7"/>
+    </row>
+    <row r="171" spans="1:5" ht="15" customHeight="1">
+      <c r="A171" s="6">
         <v>146</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B171" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C171" s="8">
+      <c r="C171" s="7">
         <v>4005</v>
       </c>
-      <c r="D171" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E171" s="8"/>
-    </row>
-    <row r="172" customHeight="1" spans="1:5">
-      <c r="A172" s="7">
+      <c r="D171" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E171" s="7"/>
+    </row>
+    <row r="172" spans="1:5" ht="15" customHeight="1">
+      <c r="A172" s="6">
         <v>147</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="B172" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C172" s="8">
+      <c r="C172" s="7">
         <v>4007</v>
       </c>
-      <c r="D172" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E172" s="8"/>
-    </row>
-    <row r="173" customHeight="1" spans="1:5">
-      <c r="A173" s="7">
+      <c r="D172" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E172" s="7"/>
+    </row>
+    <row r="173" spans="1:5" ht="15" customHeight="1">
+      <c r="A173" s="6">
         <v>148</v>
       </c>
-      <c r="B173" s="8" t="s">
+      <c r="B173" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C173" s="8">
+      <c r="C173" s="7">
         <v>4073</v>
       </c>
-      <c r="D173" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E173" s="8"/>
-    </row>
-    <row r="174" customHeight="1" spans="1:5">
-      <c r="A174" s="7">
+      <c r="D173" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E173" s="7"/>
+    </row>
+    <row r="174" spans="1:5" ht="15" customHeight="1">
+      <c r="A174" s="6">
         <v>149</v>
       </c>
-      <c r="B174" s="8" t="s">
+      <c r="B174" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C174" s="8">
+      <c r="C174" s="7">
         <v>4072</v>
       </c>
-      <c r="D174" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E174" s="8"/>
-    </row>
-    <row r="175" customHeight="1" spans="1:5">
-      <c r="A175" s="7">
+      <c r="D174" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E174" s="7"/>
+    </row>
+    <row r="175" spans="1:5" ht="15" customHeight="1">
+      <c r="A175" s="6">
         <v>150</v>
       </c>
-      <c r="B175" s="8" t="s">
+      <c r="B175" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C175" s="8">
+      <c r="C175" s="7">
         <v>4071</v>
       </c>
-      <c r="D175" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E175" s="8"/>
-    </row>
-    <row r="176" customHeight="1" spans="1:5">
-      <c r="A176" s="7">
+      <c r="D175" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E175" s="7"/>
+    </row>
+    <row r="176" spans="1:5" ht="15" customHeight="1">
+      <c r="A176" s="6">
         <v>151</v>
       </c>
-      <c r="B176" s="8" t="s">
+      <c r="B176" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C176" s="8">
+      <c r="C176" s="7">
         <v>4080</v>
       </c>
-      <c r="D176" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E176" s="8"/>
-    </row>
-    <row r="177" customHeight="1" spans="1:5">
-      <c r="A177" s="7">
+      <c r="D176" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E176" s="7"/>
+    </row>
+    <row r="177" spans="1:5" ht="15" customHeight="1">
+      <c r="A177" s="6">
         <v>152</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="B177" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C177" s="8">
+      <c r="C177" s="7">
         <v>4066</v>
       </c>
-      <c r="D177" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E177" s="8"/>
-    </row>
-    <row r="178" customHeight="1" spans="1:5">
-      <c r="A178" s="7">
+      <c r="D177" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E177" s="7"/>
+    </row>
+    <row r="178" spans="1:5" ht="15" customHeight="1">
+      <c r="A178" s="6">
         <v>153</v>
       </c>
-      <c r="B178" s="8" t="s">
+      <c r="B178" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C178" s="8">
+      <c r="C178" s="7">
         <v>4070</v>
       </c>
-      <c r="D178" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E178" s="8"/>
-    </row>
-    <row r="179" customHeight="1" spans="1:5">
-      <c r="A179" s="7">
+      <c r="D178" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E178" s="7"/>
+    </row>
+    <row r="179" spans="1:5" ht="15" customHeight="1">
+      <c r="A179" s="6">
         <v>154</v>
       </c>
-      <c r="B179" s="8" t="s">
+      <c r="B179" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C179" s="8">
+      <c r="C179" s="7">
         <v>4065</v>
       </c>
-      <c r="D179" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E179" s="8"/>
-    </row>
-    <row r="180" customHeight="1" spans="1:5">
-      <c r="A180" s="7">
+      <c r="D179" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E179" s="7"/>
+    </row>
+    <row r="180" spans="1:5" ht="15" customHeight="1">
+      <c r="A180" s="6">
         <v>155</v>
       </c>
-      <c r="B180" s="8" t="s">
+      <c r="B180" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C180" s="8">
+      <c r="C180" s="7">
         <v>4068</v>
       </c>
-      <c r="D180" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E180" s="8"/>
-    </row>
-    <row r="181" customHeight="1" spans="1:5">
-      <c r="A181" s="7">
+      <c r="D180" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E180" s="7"/>
+    </row>
+    <row r="181" spans="1:5" ht="15" customHeight="1">
+      <c r="A181" s="6">
         <v>156</v>
       </c>
-      <c r="B181" s="8" t="s">
+      <c r="B181" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C181" s="8">
+      <c r="C181" s="7">
         <v>4067</v>
       </c>
-      <c r="D181" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E181" s="8"/>
-    </row>
-    <row r="182" customHeight="1" spans="1:5">
-      <c r="A182" s="7">
+      <c r="D181" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E181" s="7"/>
+    </row>
+    <row r="182" spans="1:5" ht="15" customHeight="1">
+      <c r="A182" s="6">
         <v>157</v>
       </c>
-      <c r="B182" s="8" t="s">
+      <c r="B182" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C182" s="8">
+      <c r="C182" s="7">
         <v>4061</v>
       </c>
-      <c r="D182" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E182" s="8"/>
-    </row>
-    <row r="183" customHeight="1" spans="1:5">
-      <c r="A183" s="7">
+      <c r="D182" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E182" s="7"/>
+    </row>
+    <row r="183" spans="1:5" ht="15" customHeight="1">
+      <c r="A183" s="6">
         <v>158</v>
       </c>
-      <c r="B183" s="8" t="s">
+      <c r="B183" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C183" s="8">
+      <c r="C183" s="7">
         <v>4081</v>
       </c>
-      <c r="D183" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E183" s="8"/>
-    </row>
-    <row r="184" customHeight="1" spans="1:5">
-      <c r="A184" s="7">
+      <c r="D183" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E183" s="7"/>
+    </row>
+    <row r="184" spans="1:5" ht="15" customHeight="1">
+      <c r="A184" s="6">
         <v>159</v>
       </c>
-      <c r="B184" s="8" t="s">
+      <c r="B184" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C184" s="8">
+      <c r="C184" s="7">
         <v>4075</v>
       </c>
-      <c r="D184" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E184" s="8"/>
-    </row>
-    <row r="185" customHeight="1" spans="1:5">
-      <c r="A185" s="7">
+      <c r="D184" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E184" s="7"/>
+    </row>
+    <row r="185" spans="1:5" ht="15" customHeight="1">
+      <c r="A185" s="6">
         <v>160</v>
       </c>
-      <c r="B185" s="8" t="s">
+      <c r="B185" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C185" s="8">
+      <c r="C185" s="7">
         <v>4082</v>
       </c>
-      <c r="D185" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E185" s="8"/>
-    </row>
-    <row r="186" customHeight="1" spans="1:5">
-      <c r="A186" s="7">
+      <c r="D185" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E185" s="7"/>
+    </row>
+    <row r="186" spans="1:5" ht="15" customHeight="1">
+      <c r="A186" s="6">
         <v>161</v>
       </c>
-      <c r="B186" s="8" t="s">
+      <c r="B186" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C186" s="8">
+      <c r="C186" s="7">
         <v>4063</v>
       </c>
-      <c r="D186" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E186" s="8"/>
-    </row>
-    <row r="187" customHeight="1" spans="1:5">
-      <c r="A187" s="7">
+      <c r="D186" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E186" s="7"/>
+    </row>
+    <row r="187" spans="1:5" ht="15" customHeight="1">
+      <c r="A187" s="6">
         <v>162</v>
       </c>
-      <c r="B187" s="8" t="s">
+      <c r="B187" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C187" s="8">
+      <c r="C187" s="7">
         <v>4212</v>
       </c>
-      <c r="D187" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E187" s="8"/>
-    </row>
-    <row r="188" customHeight="1" spans="1:5">
-      <c r="A188" s="7">
+      <c r="D187" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E187" s="7"/>
+    </row>
+    <row r="188" spans="1:5" ht="15" customHeight="1">
+      <c r="A188" s="6">
         <v>163</v>
       </c>
-      <c r="B188" s="8" t="s">
+      <c r="B188" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C188" s="8">
+      <c r="C188" s="7">
         <v>4495</v>
       </c>
-      <c r="D188" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E188" s="8"/>
-    </row>
-    <row r="189" customHeight="1" spans="1:5">
-      <c r="A189" s="7">
+      <c r="D188" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E188" s="7"/>
+    </row>
+    <row r="189" spans="1:5" ht="15" customHeight="1">
+      <c r="A189" s="6">
         <v>164</v>
       </c>
-      <c r="B189" s="8" t="s">
+      <c r="B189" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C189" s="8">
+      <c r="C189" s="7">
         <v>4496</v>
       </c>
-      <c r="D189" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E189" s="8"/>
-    </row>
-    <row r="190" customHeight="1" spans="1:5">
-      <c r="A190" s="7">
+      <c r="D189" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E189" s="7"/>
+    </row>
+    <row r="190" spans="1:5" ht="15" customHeight="1">
+      <c r="A190" s="6">
         <v>165</v>
       </c>
-      <c r="B190" s="8" t="s">
+      <c r="B190" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C190" s="8">
+      <c r="C190" s="7">
         <v>4537</v>
       </c>
-      <c r="D190" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E190" s="8"/>
-    </row>
-    <row r="191" customHeight="1" spans="1:5">
-      <c r="A191" s="7">
+      <c r="D190" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E190" s="7"/>
+    </row>
+    <row r="191" spans="1:5" ht="15" customHeight="1">
+      <c r="A191" s="6">
         <v>166</v>
       </c>
-      <c r="B191" s="8" t="s">
+      <c r="B191" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C191" s="8">
+      <c r="C191" s="7">
         <v>4052</v>
       </c>
-      <c r="D191" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E191" s="8"/>
-    </row>
-    <row r="192" customHeight="1" spans="1:5">
-      <c r="A192" s="7">
+      <c r="D191" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E191" s="7"/>
+    </row>
+    <row r="192" spans="1:5" ht="15" customHeight="1">
+      <c r="A192" s="6">
         <v>167</v>
       </c>
-      <c r="B192" s="8" t="s">
+      <c r="B192" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C192" s="8">
+      <c r="C192" s="7">
         <v>4062</v>
       </c>
-      <c r="D192" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E192" s="8"/>
-    </row>
-    <row r="193" customHeight="1" spans="1:5">
-      <c r="A193" s="7">
+      <c r="D192" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E192" s="7"/>
+    </row>
+    <row r="193" spans="1:5" ht="15" customHeight="1">
+      <c r="A193" s="6">
         <v>168</v>
       </c>
-      <c r="B193" s="8" t="s">
+      <c r="B193" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C193" s="8">
+      <c r="C193" s="7">
         <v>3834</v>
       </c>
-      <c r="D193" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E193" s="8"/>
-    </row>
-    <row r="194" customHeight="1" spans="1:5">
-      <c r="A194" s="7">
+      <c r="D193" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E193" s="7"/>
+    </row>
+    <row r="194" spans="1:5" ht="15" customHeight="1">
+      <c r="A194" s="6">
         <v>169</v>
       </c>
-      <c r="B194" s="8" t="s">
+      <c r="B194" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C194" s="8">
+      <c r="C194" s="7">
         <v>4050</v>
       </c>
-      <c r="D194" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E194" s="8"/>
-    </row>
-    <row r="195" customHeight="1" spans="1:5">
-      <c r="A195" s="7">
+      <c r="D194" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E194" s="7"/>
+    </row>
+    <row r="195" spans="1:5" ht="15" customHeight="1">
+      <c r="A195" s="6">
         <v>170</v>
       </c>
-      <c r="B195" s="8" t="s">
+      <c r="B195" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C195" s="8">
+      <c r="C195" s="7">
         <v>3043</v>
       </c>
-      <c r="D195" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E195" s="8"/>
-    </row>
-    <row r="196" customHeight="1" spans="1:5">
-      <c r="A196" s="7">
+      <c r="D195" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E195" s="7"/>
+    </row>
+    <row r="196" spans="1:5" ht="15" customHeight="1">
+      <c r="A196" s="6">
         <v>171</v>
       </c>
-      <c r="B196" s="8" t="s">
+      <c r="B196" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C196" s="8">
+      <c r="C196" s="7">
         <v>4703</v>
       </c>
-      <c r="D196" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E196" s="8"/>
-    </row>
-    <row r="197" customHeight="1" spans="1:5">
-      <c r="A197" s="7">
+      <c r="D196" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E196" s="7"/>
+    </row>
+    <row r="197" spans="1:5" ht="15" customHeight="1">
+      <c r="A197" s="6">
         <v>172</v>
       </c>
-      <c r="B197" s="8" t="s">
+      <c r="B197" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C197" s="8">
+      <c r="C197" s="7">
         <v>2885</v>
       </c>
-      <c r="D197" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E197" s="8"/>
-    </row>
-    <row r="198" customHeight="1" spans="1:5">
-      <c r="A198" s="7">
+      <c r="D197" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E197" s="7"/>
+    </row>
+    <row r="198" spans="1:5" ht="15" customHeight="1">
+      <c r="A198" s="6">
         <v>173</v>
       </c>
-      <c r="B198" s="8" t="s">
+      <c r="B198" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C198" s="8">
+      <c r="C198" s="7">
         <v>2920</v>
       </c>
-      <c r="D198" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E198" s="8"/>
-    </row>
-    <row r="199" customHeight="1" spans="1:5">
-      <c r="A199" s="7">
+      <c r="D198" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E198" s="7"/>
+    </row>
+    <row r="199" spans="1:5" ht="15" customHeight="1">
+      <c r="A199" s="6">
         <v>174</v>
       </c>
-      <c r="B199" s="8" t="s">
+      <c r="B199" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C199" s="8">
+      <c r="C199" s="7">
         <v>2820</v>
       </c>
-      <c r="D199" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E199" s="8"/>
-    </row>
-    <row r="200" customHeight="1" spans="1:5">
-      <c r="A200" s="7">
+      <c r="D199" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E199" s="7"/>
+    </row>
+    <row r="200" spans="1:5" ht="15" customHeight="1">
+      <c r="A200" s="6">
         <v>175</v>
       </c>
-      <c r="B200" s="8" t="s">
+      <c r="B200" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C200" s="8">
+      <c r="C200" s="7">
         <v>3276</v>
       </c>
-      <c r="D200" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E200" s="8"/>
-    </row>
-    <row r="201" customHeight="1" spans="1:5">
-      <c r="A201" s="7">
+      <c r="D200" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E200" s="7"/>
+    </row>
+    <row r="201" spans="1:5" ht="15" customHeight="1">
+      <c r="A201" s="6">
         <v>176</v>
       </c>
-      <c r="B201" s="8" t="s">
+      <c r="B201" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C201" s="8">
+      <c r="C201" s="7">
         <v>2947</v>
       </c>
-      <c r="D201" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E201" s="8"/>
-    </row>
-    <row r="202" customHeight="1" spans="1:5">
-      <c r="A202" s="7">
+      <c r="D201" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E201" s="7"/>
+    </row>
+    <row r="202" spans="1:5" ht="15" customHeight="1">
+      <c r="A202" s="6">
         <v>177</v>
       </c>
-      <c r="B202" s="8" t="s">
+      <c r="B202" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C202" s="8">
+      <c r="C202" s="7">
         <v>2936</v>
       </c>
-      <c r="D202" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E202" s="8"/>
-    </row>
-    <row r="203" customHeight="1" spans="1:5">
-      <c r="A203" s="7">
+      <c r="D202" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E202" s="7"/>
+    </row>
+    <row r="203" spans="1:5" ht="15" customHeight="1">
+      <c r="A203" s="6">
         <v>178</v>
       </c>
-      <c r="B203" s="8" t="s">
+      <c r="B203" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C203" s="8">
+      <c r="C203" s="7">
         <v>3277</v>
       </c>
-      <c r="D203" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E203" s="8"/>
-    </row>
-    <row r="204" customHeight="1" spans="1:5">
-      <c r="A204" s="7">
+      <c r="D203" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E203" s="7"/>
+    </row>
+    <row r="204" spans="1:5" ht="15" customHeight="1">
+      <c r="A204" s="6">
         <v>179</v>
       </c>
-      <c r="B204" s="8" t="s">
+      <c r="B204" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C204" s="8">
+      <c r="C204" s="7">
         <v>4137</v>
       </c>
-      <c r="D204" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E204" s="8"/>
-    </row>
-    <row r="205" customHeight="1" spans="1:5">
-      <c r="A205" s="7">
+      <c r="D204" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E204" s="7"/>
+    </row>
+    <row r="205" spans="1:5" ht="15" customHeight="1">
+      <c r="A205" s="6">
         <v>180</v>
       </c>
-      <c r="B205" s="8" t="s">
+      <c r="B205" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C205" s="8">
+      <c r="C205" s="7">
         <v>4141</v>
       </c>
-      <c r="D205" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E205" s="8"/>
-    </row>
-    <row r="206" customHeight="1" spans="1:5">
-      <c r="A206" s="7">
+      <c r="D205" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E205" s="7"/>
+    </row>
+    <row r="206" spans="1:5" ht="15" customHeight="1">
+      <c r="A206" s="6">
         <v>181</v>
       </c>
-      <c r="B206" s="8" t="s">
+      <c r="B206" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C206" s="8">
+      <c r="C206" s="7">
         <v>4139</v>
       </c>
-      <c r="D206" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E206" s="8"/>
-    </row>
-    <row r="207" customHeight="1" spans="1:5">
-      <c r="A207" s="7">
+      <c r="D206" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E206" s="7"/>
+    </row>
+    <row r="207" spans="1:5" ht="15" customHeight="1">
+      <c r="A207" s="6">
         <v>182</v>
       </c>
-      <c r="B207" s="8" t="s">
+      <c r="B207" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C207" s="8">
+      <c r="C207" s="7">
         <v>2326</v>
       </c>
-      <c r="D207" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E207" s="8"/>
-    </row>
-    <row r="208" customHeight="1" spans="1:5">
-      <c r="A208" s="7">
+      <c r="D207" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E207" s="7"/>
+    </row>
+    <row r="208" spans="1:5" ht="15" customHeight="1">
+      <c r="A208" s="6">
         <v>183</v>
       </c>
-      <c r="B208" s="8" t="s">
+      <c r="B208" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C208" s="8">
+      <c r="C208" s="7">
         <v>2080</v>
       </c>
-      <c r="D208" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E208" s="8"/>
-    </row>
-    <row r="209" customHeight="1" spans="1:5">
-      <c r="A209" s="7">
+      <c r="D208" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E208" s="7"/>
+    </row>
+    <row r="209" spans="1:5" ht="15" customHeight="1">
+      <c r="A209" s="6">
         <v>184</v>
       </c>
-      <c r="B209" s="8" t="s">
+      <c r="B209" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C209" s="8">
+      <c r="C209" s="7">
         <v>3003</v>
       </c>
-      <c r="D209" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E209" s="8"/>
-    </row>
-    <row r="210" customHeight="1" spans="1:5">
-      <c r="A210" s="7">
+      <c r="D209" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E209" s="7"/>
+    </row>
+    <row r="210" spans="1:5" ht="15" customHeight="1">
+      <c r="A210" s="6">
         <v>185</v>
       </c>
-      <c r="B210" s="8" t="s">
+      <c r="B210" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C210" s="8">
+      <c r="C210" s="7">
         <v>2817</v>
       </c>
-      <c r="D210" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E210" s="8"/>
-    </row>
-    <row r="211" customHeight="1" spans="1:5">
-      <c r="A211" s="7">
+      <c r="D210" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E210" s="7"/>
+    </row>
+    <row r="211" spans="1:5" ht="15" customHeight="1">
+      <c r="A211" s="6">
         <v>186</v>
       </c>
-      <c r="B211" s="8" t="s">
+      <c r="B211" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C211" s="8">
+      <c r="C211" s="7">
         <v>2818</v>
       </c>
-      <c r="D211" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E211" s="8"/>
-    </row>
-    <row r="212" customHeight="1" spans="1:5">
-      <c r="A212" s="7">
+      <c r="D211" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E211" s="7"/>
+    </row>
+    <row r="212" spans="1:5" ht="15" customHeight="1">
+      <c r="A212" s="6">
         <v>187</v>
       </c>
-      <c r="B212" s="8" t="s">
+      <c r="B212" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C212" s="8">
+      <c r="C212" s="7">
         <v>2962</v>
       </c>
-      <c r="D212" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E212" s="8"/>
-    </row>
-    <row r="213" customHeight="1" spans="1:5">
-      <c r="A213" s="7">
+      <c r="D212" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E212" s="7"/>
+    </row>
+    <row r="213" spans="1:5" ht="15" customHeight="1">
+      <c r="A213" s="6">
         <v>188</v>
       </c>
-      <c r="B213" s="8" t="s">
+      <c r="B213" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C213" s="8">
+      <c r="C213" s="7">
         <v>3677</v>
       </c>
-      <c r="D213" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E213" s="8"/>
-    </row>
-    <row r="214" customHeight="1" spans="1:5">
-      <c r="A214" s="7">
+      <c r="D213" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E213" s="7"/>
+    </row>
+    <row r="214" spans="1:5" ht="15" customHeight="1">
+      <c r="A214" s="6">
         <v>189</v>
       </c>
-      <c r="B214" s="8" t="s">
+      <c r="B214" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C214" s="8">
+      <c r="C214" s="7">
         <v>3679</v>
       </c>
-      <c r="D214" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E214" s="8"/>
-    </row>
-    <row r="215" customHeight="1" spans="1:5">
-      <c r="A215" s="7">
+      <c r="D214" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E214" s="7"/>
+    </row>
+    <row r="215" spans="1:5" ht="15" customHeight="1">
+      <c r="A215" s="6">
         <v>190</v>
       </c>
-      <c r="B215" s="8" t="s">
+      <c r="B215" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C215" s="8">
+      <c r="C215" s="7">
         <v>3363</v>
       </c>
-      <c r="D215" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E215" s="8"/>
-    </row>
-    <row r="216" customHeight="1" spans="1:5">
-      <c r="A216" s="7">
+      <c r="D215" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E215" s="7"/>
+    </row>
+    <row r="216" spans="1:5" ht="15" customHeight="1">
+      <c r="A216" s="6">
         <v>191</v>
       </c>
-      <c r="B216" s="8" t="s">
+      <c r="B216" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C216" s="8">
+      <c r="C216" s="7">
         <v>3388</v>
       </c>
-      <c r="D216" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E216" s="8"/>
-    </row>
-    <row r="217" customHeight="1" spans="1:5">
-      <c r="A217" s="7">
+      <c r="D216" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E216" s="7"/>
+    </row>
+    <row r="217" spans="1:5" ht="15" customHeight="1">
+      <c r="A217" s="6">
         <v>192</v>
       </c>
-      <c r="B217" s="8" t="s">
+      <c r="B217" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C217" s="8">
+      <c r="C217" s="7">
         <v>3390</v>
       </c>
-      <c r="D217" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E217" s="8"/>
-    </row>
-    <row r="218" customHeight="1" spans="1:5">
-      <c r="A218" s="7">
+      <c r="D217" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E217" s="7"/>
+    </row>
+    <row r="218" spans="1:5" ht="15" customHeight="1">
+      <c r="A218" s="6">
         <v>193</v>
       </c>
-      <c r="B218" s="8" t="s">
+      <c r="B218" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C218" s="8">
+      <c r="C218" s="7">
         <v>3505</v>
       </c>
-      <c r="D218" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E218" s="8"/>
-    </row>
-    <row r="219" customHeight="1" spans="1:5">
-      <c r="A219" s="7">
+      <c r="D218" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E218" s="7"/>
+    </row>
+    <row r="219" spans="1:5" ht="15" customHeight="1">
+      <c r="A219" s="6">
         <v>194</v>
       </c>
-      <c r="B219" s="8" t="s">
+      <c r="B219" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C219" s="8">
+      <c r="C219" s="7">
         <v>3506</v>
       </c>
-      <c r="D219" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E219" s="8"/>
-    </row>
-    <row r="220" customHeight="1" spans="1:5">
-      <c r="A220" s="7">
+      <c r="D219" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E219" s="7"/>
+    </row>
+    <row r="220" spans="1:5" ht="15" customHeight="1">
+      <c r="A220" s="6">
         <v>195</v>
       </c>
-      <c r="B220" s="8" t="s">
+      <c r="B220" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="C220" s="8">
+      <c r="C220" s="7">
         <v>2978</v>
       </c>
-      <c r="D220" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E220" s="8"/>
-    </row>
-    <row r="221" customHeight="1" spans="1:5">
-      <c r="A221" s="7">
+      <c r="D220" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E220" s="7"/>
+    </row>
+    <row r="221" spans="1:5" ht="15" customHeight="1">
+      <c r="A221" s="6">
         <v>196</v>
       </c>
-      <c r="B221" s="8" t="s">
+      <c r="B221" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="C221" s="8">
+      <c r="C221" s="7">
         <v>2979</v>
       </c>
-      <c r="D221" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E221" s="8"/>
-    </row>
-    <row r="222" customHeight="1" spans="1:5">
-      <c r="A222" s="7">
+      <c r="D221" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E221" s="7"/>
+    </row>
+    <row r="222" spans="1:5" ht="15" customHeight="1">
+      <c r="A222" s="6">
         <v>197</v>
       </c>
-      <c r="B222" s="8" t="s">
+      <c r="B222" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C222" s="8">
+      <c r="C222" s="7">
         <v>2601</v>
       </c>
-      <c r="D222" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E222" s="8"/>
-    </row>
-    <row r="223" customHeight="1" spans="1:5">
-      <c r="A223" s="7">
+      <c r="D222" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E222" s="7"/>
+    </row>
+    <row r="223" spans="1:5" ht="15" customHeight="1">
+      <c r="A223" s="6">
         <v>198</v>
       </c>
-      <c r="B223" s="8" t="s">
+      <c r="B223" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C223" s="8">
+      <c r="C223" s="7">
         <v>2223</v>
       </c>
-      <c r="D223" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E223" s="8"/>
-    </row>
-    <row r="224" customHeight="1" spans="1:5">
-      <c r="A224" s="7">
+      <c r="D223" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E223" s="7"/>
+    </row>
+    <row r="224" spans="1:5" ht="15" customHeight="1">
+      <c r="A224" s="6">
         <v>199</v>
       </c>
-      <c r="B224" s="8" t="s">
+      <c r="B224" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C224" s="25">
+      <c r="C224" s="21">
         <v>1957</v>
       </c>
-      <c r="D224" s="8" t="s">
+      <c r="D224" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="E224" s="8"/>
-    </row>
-    <row r="225" customHeight="1" spans="1:5">
-      <c r="A225" s="7">
+      <c r="E224" s="7"/>
+    </row>
+    <row r="225" spans="1:5" ht="15" customHeight="1">
+      <c r="A225" s="6">
         <v>200</v>
       </c>
-      <c r="B225" s="8" t="s">
+      <c r="B225" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C225" s="25">
+      <c r="C225" s="21">
         <v>2208</v>
       </c>
-      <c r="D225" s="8" t="s">
+      <c r="D225" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="E225" s="8"/>
-    </row>
-    <row r="226" customHeight="1" spans="1:5">
-      <c r="A226" s="7">
+      <c r="E225" s="7"/>
+    </row>
+    <row r="226" spans="1:5" ht="15" customHeight="1">
+      <c r="A226" s="6">
         <v>201</v>
       </c>
-      <c r="B226" s="8" t="s">
+      <c r="B226" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="C226" s="26">
+      <c r="C226" s="22">
         <v>2143</v>
       </c>
-      <c r="D226" s="8" t="s">
+      <c r="D226" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="E226" s="8"/>
-    </row>
-    <row r="227" customHeight="1" spans="1:5">
-      <c r="A227" s="7">
+      <c r="E226" s="7"/>
+    </row>
+    <row r="227" spans="1:5" ht="15" customHeight="1">
+      <c r="A227" s="6">
         <v>202</v>
       </c>
-      <c r="B227" s="27" t="s">
+      <c r="B227" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="C227" s="27">
+      <c r="C227" s="23">
         <v>2664</v>
       </c>
-      <c r="D227" s="27" t="s">
+      <c r="D227" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E227" s="8"/>
-    </row>
-    <row r="228" customHeight="1" spans="1:5">
-      <c r="A228" s="7">
+      <c r="E227" s="7"/>
+    </row>
+    <row r="228" spans="1:5" ht="15" customHeight="1">
+      <c r="A228" s="6">
         <v>203</v>
       </c>
-      <c r="B228" s="27" t="s">
+      <c r="B228" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="C228" s="27">
+      <c r="C228" s="23">
         <v>2097</v>
       </c>
-      <c r="D228" s="27" t="s">
+      <c r="D228" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="E228" s="8"/>
-    </row>
-    <row r="229" customHeight="1" spans="1:5">
-      <c r="A229" s="7">
+      <c r="E228" s="7"/>
+    </row>
+    <row r="229" spans="1:5" ht="15" customHeight="1">
+      <c r="A229" s="6">
         <v>204</v>
       </c>
-      <c r="B229" s="27" t="s">
+      <c r="B229" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="C229" s="27">
+      <c r="C229" s="23">
         <v>2147</v>
       </c>
-      <c r="D229" s="27" t="s">
+      <c r="D229" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="E229" s="8"/>
-    </row>
-    <row r="230" customHeight="1" spans="1:5">
-      <c r="A230" s="7">
+      <c r="E229" s="7"/>
+    </row>
+    <row r="230" spans="1:5" ht="15" customHeight="1">
+      <c r="A230" s="6">
         <v>205</v>
       </c>
-      <c r="B230" s="27" t="s">
+      <c r="B230" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="C230" s="27">
+      <c r="C230" s="23">
         <v>2358</v>
       </c>
-      <c r="D230" s="27" t="s">
+      <c r="D230" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="E230" s="8"/>
-    </row>
-    <row r="231" customHeight="1" spans="1:5">
-      <c r="A231" s="7">
+      <c r="E230" s="7"/>
+    </row>
+    <row r="231" spans="1:5" ht="15" customHeight="1">
+      <c r="A231" s="6">
         <v>206</v>
       </c>
-      <c r="B231" s="8" t="s">
+      <c r="B231" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C231" s="8">
+      <c r="C231" s="7">
         <v>2965</v>
       </c>
-      <c r="D231" s="8" t="s">
+      <c r="D231" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E231" s="8"/>
-    </row>
-    <row r="232" customHeight="1" spans="1:5">
-      <c r="A232" s="7">
+      <c r="E231" s="7"/>
+    </row>
+    <row r="232" spans="1:5" ht="15" customHeight="1">
+      <c r="A232" s="6">
         <v>207</v>
       </c>
-      <c r="B232" s="8" t="s">
+      <c r="B232" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C232" s="8">
+      <c r="C232" s="7">
         <v>3239</v>
       </c>
-      <c r="D232" s="8" t="s">
+      <c r="D232" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E232" s="8"/>
-    </row>
-    <row r="233" customHeight="1" spans="1:5">
-      <c r="A233" s="7">
+      <c r="E232" s="7"/>
+    </row>
+    <row r="233" spans="1:5" ht="15" customHeight="1">
+      <c r="A233" s="6">
         <v>208</v>
       </c>
-      <c r="B233" s="8" t="s">
+      <c r="B233" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C233" s="8">
+      <c r="C233" s="7">
         <v>2833</v>
       </c>
-      <c r="D233" s="8" t="s">
+      <c r="D233" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E233" s="8"/>
-    </row>
-    <row r="234" customHeight="1" spans="1:5">
-      <c r="A234" s="7">
+      <c r="E233" s="7"/>
+    </row>
+    <row r="234" spans="1:5" ht="15" customHeight="1">
+      <c r="A234" s="6">
         <v>209</v>
       </c>
-      <c r="B234" s="8" t="s">
+      <c r="B234" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="C234" s="8">
+      <c r="C234" s="7">
         <v>3066</v>
       </c>
-      <c r="D234" s="8" t="s">
+      <c r="D234" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E234" s="8"/>
-    </row>
-    <row r="235" customHeight="1" spans="1:5">
-      <c r="A235" s="7">
+      <c r="E234" s="7"/>
+    </row>
+    <row r="235" spans="1:5" ht="15" customHeight="1">
+      <c r="A235" s="6">
         <v>210</v>
       </c>
-      <c r="B235" s="8" t="s">
+      <c r="B235" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C235" s="8">
+      <c r="C235" s="7">
         <v>3265</v>
       </c>
-      <c r="D235" s="8" t="s">
+      <c r="D235" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E235" s="8"/>
-    </row>
-    <row r="236" customHeight="1" spans="1:5">
-      <c r="A236" s="7">
+      <c r="E235" s="7"/>
+    </row>
+    <row r="236" spans="1:5" ht="15" customHeight="1">
+      <c r="A236" s="6">
         <v>211</v>
       </c>
-      <c r="B236" s="8" t="s">
+      <c r="B236" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C236" s="8">
+      <c r="C236" s="7">
         <v>3048</v>
       </c>
-      <c r="D236" s="8" t="s">
+      <c r="D236" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E236" s="8"/>
-    </row>
-    <row r="237" customHeight="1" spans="1:5">
-      <c r="A237" s="7">
+      <c r="E236" s="7"/>
+    </row>
+    <row r="237" spans="1:5" ht="15" customHeight="1">
+      <c r="A237" s="6">
         <v>212</v>
       </c>
-      <c r="B237" s="8" t="s">
+      <c r="B237" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C237" s="8">
+      <c r="C237" s="7">
         <v>3491</v>
       </c>
-      <c r="D237" s="8" t="s">
+      <c r="D237" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E237" s="8"/>
+      <c r="E237" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5951,23 +5414,23 @@
     <mergeCell ref="I11:L11"/>
   </mergeCells>
   <conditionalFormatting sqref="C191">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>$A191</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C183:C184">
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$A183</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C178 C194">
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule type="expression" dxfId="1" priority="9">
       <formula>$A178</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="10">
@@ -5977,6 +5440,5 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/manpower_log/HC03.xlsx
+++ b/manpower_log/HC03.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\manpower_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6818BF7-A875-456A-9D3B-E473903F6DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5274F048-AC4F-4F93-B487-332CCB6A3CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4692" yWindow="468" windowWidth="16764" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HC03" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'HC03'!$D$1:$D$332</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'HC03'!$D$1:$D$331</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="271">
   <si>
     <t>HC03</t>
   </si>
@@ -471,9 +469,6 @@
   </si>
   <si>
     <t>Tirpa Tamang</t>
-  </si>
-  <si>
-    <t>Asad Ali</t>
   </si>
   <si>
     <t>Shabul Islam</t>
@@ -1602,10 +1597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L237"/>
+  <dimension ref="A1:L236"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -1964,10 +1959,10 @@
         <v>38</v>
       </c>
       <c r="J16" s="13">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K16" s="15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L16" s="15">
         <v>0</v>
@@ -2232,11 +2227,11 @@
       </c>
       <c r="J26" s="20">
         <f>SUM(J13:J25)</f>
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K26" s="19">
         <f>SUM(K13:K25)</f>
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L26" s="19">
         <f>SUM(L13:L25)</f>
@@ -3535,13 +3530,13 @@
     </row>
     <row r="113" spans="1:5" ht="15" customHeight="1">
       <c r="A113" s="6">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>145</v>
       </c>
       <c r="C113" s="7">
-        <v>2197</v>
+        <v>1922</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>38</v>
@@ -3550,13 +3545,13 @@
     </row>
     <row r="114" spans="1:5" ht="15" customHeight="1">
       <c r="A114" s="6">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>146</v>
       </c>
       <c r="C114" s="7">
-        <v>1922</v>
+        <v>2294</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>38</v>
@@ -3565,13 +3560,13 @@
     </row>
     <row r="115" spans="1:5" ht="15" customHeight="1">
       <c r="A115" s="6">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>147</v>
       </c>
       <c r="C115" s="7">
-        <v>2294</v>
+        <v>2158</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>38</v>
@@ -3580,13 +3575,13 @@
     </row>
     <row r="116" spans="1:5" ht="15" customHeight="1">
       <c r="A116" s="6">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>148</v>
       </c>
       <c r="C116" s="7">
-        <v>2158</v>
+        <v>4153</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>38</v>
@@ -3595,13 +3590,13 @@
     </row>
     <row r="117" spans="1:5" ht="15" customHeight="1">
       <c r="A117" s="6">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>149</v>
       </c>
       <c r="C117" s="7">
-        <v>4153</v>
+        <v>4152</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>38</v>
@@ -3610,13 +3605,13 @@
     </row>
     <row r="118" spans="1:5" ht="15" customHeight="1">
       <c r="A118" s="6">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>150</v>
       </c>
       <c r="C118" s="7">
-        <v>4152</v>
+        <v>2302</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>38</v>
@@ -3625,13 +3620,13 @@
     </row>
     <row r="119" spans="1:5" ht="15" customHeight="1">
       <c r="A119" s="6">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>151</v>
       </c>
       <c r="C119" s="7">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>38</v>
@@ -3640,13 +3635,13 @@
     </row>
     <row r="120" spans="1:5" ht="15" customHeight="1">
       <c r="A120" s="6">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>152</v>
       </c>
       <c r="C120" s="7">
-        <v>2303</v>
+        <v>2814</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>38</v>
@@ -3655,703 +3650,703 @@
     </row>
     <row r="121" spans="1:5" ht="15" customHeight="1">
       <c r="A121" s="6">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>153</v>
       </c>
       <c r="C121" s="7">
-        <v>2814</v>
+        <v>3163</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="E121" s="7"/>
     </row>
     <row r="122" spans="1:5" ht="15" customHeight="1">
       <c r="A122" s="6">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B122" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C122" s="7">
+        <v>3196</v>
+      </c>
+      <c r="D122" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="C122" s="7">
-        <v>3163</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="E122" s="7"/>
     </row>
     <row r="123" spans="1:5" ht="15" customHeight="1">
       <c r="A123" s="6">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>156</v>
       </c>
       <c r="C123" s="7">
-        <v>3196</v>
+        <v>3197</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E123" s="7"/>
     </row>
     <row r="124" spans="1:5" ht="15" customHeight="1">
       <c r="A124" s="6">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>157</v>
       </c>
       <c r="C124" s="7">
-        <v>3197</v>
+        <v>3198</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E124" s="7"/>
     </row>
     <row r="125" spans="1:5" ht="15" customHeight="1">
       <c r="A125" s="6">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C125" s="7">
-        <v>3198</v>
+        <v>2791</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E125" s="7"/>
     </row>
     <row r="126" spans="1:5" ht="15" customHeight="1">
       <c r="A126" s="6">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>159</v>
       </c>
       <c r="C126" s="7">
-        <v>2791</v>
+        <v>2792</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E126" s="7"/>
     </row>
     <row r="127" spans="1:5" ht="15" customHeight="1">
       <c r="A127" s="6">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C127" s="7">
-        <v>2792</v>
+        <v>2795</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E127" s="7"/>
     </row>
     <row r="128" spans="1:5" ht="15" customHeight="1">
       <c r="A128" s="6">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>161</v>
       </c>
       <c r="C128" s="7">
-        <v>2795</v>
+        <v>2798</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E128" s="7"/>
     </row>
     <row r="129" spans="1:5" ht="15" customHeight="1">
       <c r="A129" s="6">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>162</v>
       </c>
       <c r="C129" s="7">
-        <v>2798</v>
+        <v>3104</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E129" s="7"/>
     </row>
     <row r="130" spans="1:5" ht="15" customHeight="1">
       <c r="A130" s="6">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>163</v>
       </c>
       <c r="C130" s="7">
-        <v>3104</v>
+        <v>3555</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E130" s="7"/>
     </row>
     <row r="131" spans="1:5" ht="15" customHeight="1">
       <c r="A131" s="6">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>164</v>
       </c>
       <c r="C131" s="7">
-        <v>3555</v>
+        <v>3162</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E131" s="7"/>
     </row>
     <row r="132" spans="1:5" ht="15" customHeight="1">
       <c r="A132" s="6">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>165</v>
       </c>
       <c r="C132" s="7">
-        <v>3162</v>
+        <v>3283</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E132" s="7"/>
     </row>
     <row r="133" spans="1:5" ht="15" customHeight="1">
       <c r="A133" s="6">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C133" s="7">
-        <v>3283</v>
+        <v>3157</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E133" s="7"/>
     </row>
     <row r="134" spans="1:5" ht="15" customHeight="1">
       <c r="A134" s="6">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>167</v>
       </c>
       <c r="C134" s="7">
-        <v>3157</v>
+        <v>2815</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E134" s="7"/>
     </row>
     <row r="135" spans="1:5" ht="15" customHeight="1">
       <c r="A135" s="6">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C135" s="7">
-        <v>2815</v>
+        <v>3281</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E135" s="7"/>
     </row>
     <row r="136" spans="1:5" ht="15" customHeight="1">
       <c r="A136" s="6">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>169</v>
       </c>
       <c r="C136" s="7">
-        <v>3281</v>
+        <v>2325</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E136" s="7"/>
     </row>
     <row r="137" spans="1:5" ht="15" customHeight="1">
       <c r="A137" s="6">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>170</v>
       </c>
       <c r="C137" s="7">
-        <v>2325</v>
+        <v>3010</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E137" s="7"/>
     </row>
     <row r="138" spans="1:5" ht="15" customHeight="1">
       <c r="A138" s="6">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>171</v>
       </c>
       <c r="C138" s="7">
-        <v>3010</v>
+        <v>3013</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E138" s="7"/>
     </row>
     <row r="139" spans="1:5" ht="15" customHeight="1">
       <c r="A139" s="6">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>172</v>
       </c>
       <c r="C139" s="7">
-        <v>3013</v>
+        <v>3193</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E139" s="7"/>
     </row>
     <row r="140" spans="1:5" ht="15" customHeight="1">
       <c r="A140" s="6">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>173</v>
       </c>
       <c r="C140" s="7">
-        <v>3193</v>
+        <v>3200</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E140" s="7"/>
     </row>
     <row r="141" spans="1:5" ht="15" customHeight="1">
       <c r="A141" s="6">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>174</v>
       </c>
       <c r="C141" s="7">
-        <v>3200</v>
+        <v>2822</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E141" s="7"/>
     </row>
     <row r="142" spans="1:5" ht="15" customHeight="1">
       <c r="A142" s="6">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B142" s="7" t="s">
         <v>175</v>
       </c>
       <c r="C142" s="7">
-        <v>2822</v>
+        <v>3234</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E142" s="7"/>
     </row>
     <row r="143" spans="1:5" ht="15" customHeight="1">
       <c r="A143" s="6">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>176</v>
       </c>
       <c r="C143" s="7">
-        <v>3234</v>
+        <v>3989</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E143" s="7"/>
     </row>
     <row r="144" spans="1:5" ht="15" customHeight="1">
       <c r="A144" s="6">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>177</v>
       </c>
       <c r="C144" s="7">
-        <v>3989</v>
+        <v>4119</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E144" s="7"/>
     </row>
     <row r="145" spans="1:5" ht="15" customHeight="1">
       <c r="A145" s="6">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>178</v>
       </c>
       <c r="C145" s="7">
-        <v>4119</v>
+        <v>4130</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E145" s="7"/>
     </row>
     <row r="146" spans="1:5" ht="15" customHeight="1">
       <c r="A146" s="6">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>179</v>
       </c>
       <c r="C146" s="7">
-        <v>4130</v>
+        <v>4134</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E146" s="7"/>
     </row>
     <row r="147" spans="1:5" ht="15" customHeight="1">
       <c r="A147" s="6">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>180</v>
       </c>
       <c r="C147" s="7">
-        <v>4134</v>
+        <v>4122</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E147" s="7"/>
     </row>
     <row r="148" spans="1:5" ht="15" customHeight="1">
       <c r="A148" s="6">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>181</v>
       </c>
       <c r="C148" s="7">
-        <v>4122</v>
+        <v>4135</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E148" s="7"/>
     </row>
     <row r="149" spans="1:5" ht="15" customHeight="1">
       <c r="A149" s="6">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>182</v>
       </c>
       <c r="C149" s="7">
-        <v>4135</v>
+        <v>4120</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E149" s="7"/>
     </row>
     <row r="150" spans="1:5" ht="15" customHeight="1">
       <c r="A150" s="6">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>183</v>
       </c>
       <c r="C150" s="7">
-        <v>4120</v>
+        <v>4136</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E150" s="7"/>
     </row>
     <row r="151" spans="1:5" ht="15" customHeight="1">
       <c r="A151" s="6">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B151" s="7" t="s">
         <v>184</v>
       </c>
       <c r="C151" s="7">
-        <v>4136</v>
+        <v>4132</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E151" s="7"/>
     </row>
     <row r="152" spans="1:5" ht="15" customHeight="1">
       <c r="A152" s="6">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>185</v>
       </c>
       <c r="C152" s="7">
-        <v>4132</v>
+        <v>4131</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E152" s="7"/>
     </row>
     <row r="153" spans="1:5" ht="15" customHeight="1">
       <c r="A153" s="6">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>186</v>
       </c>
       <c r="C153" s="7">
-        <v>4131</v>
+        <v>4123</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E153" s="7"/>
     </row>
     <row r="154" spans="1:5" ht="15" customHeight="1">
       <c r="A154" s="6">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>187</v>
       </c>
       <c r="C154" s="7">
-        <v>4123</v>
+        <v>2806</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E154" s="7"/>
     </row>
     <row r="155" spans="1:5" ht="15" customHeight="1">
       <c r="A155" s="6">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B155" s="7" t="s">
         <v>188</v>
       </c>
       <c r="C155" s="7">
-        <v>2806</v>
+        <v>2809</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E155" s="7"/>
     </row>
     <row r="156" spans="1:5" ht="15" customHeight="1">
       <c r="A156" s="6">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>189</v>
       </c>
       <c r="C156" s="7">
-        <v>2809</v>
+        <v>2810</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E156" s="7"/>
     </row>
     <row r="157" spans="1:5" ht="15" customHeight="1">
       <c r="A157" s="6">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>190</v>
       </c>
       <c r="C157" s="7">
-        <v>2810</v>
+        <v>2917</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E157" s="7"/>
     </row>
     <row r="158" spans="1:5" ht="15" customHeight="1">
       <c r="A158" s="6">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B158" s="7" t="s">
         <v>191</v>
       </c>
       <c r="C158" s="7">
-        <v>2917</v>
+        <v>2918</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E158" s="7"/>
     </row>
     <row r="159" spans="1:5" ht="15" customHeight="1">
       <c r="A159" s="6">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>192</v>
       </c>
       <c r="C159" s="7">
-        <v>2918</v>
+        <v>2919</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E159" s="7"/>
     </row>
     <row r="160" spans="1:5" ht="15" customHeight="1">
       <c r="A160" s="6">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>193</v>
       </c>
       <c r="C160" s="7">
-        <v>2919</v>
+        <v>2995</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E160" s="7"/>
     </row>
     <row r="161" spans="1:5" ht="15" customHeight="1">
       <c r="A161" s="6">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B161" s="7" t="s">
         <v>194</v>
       </c>
       <c r="C161" s="7">
-        <v>2995</v>
+        <v>3165</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E161" s="7"/>
     </row>
     <row r="162" spans="1:5" ht="15" customHeight="1">
       <c r="A162" s="6">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B162" s="7" t="s">
         <v>195</v>
       </c>
       <c r="C162" s="7">
-        <v>3165</v>
+        <v>3167</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E162" s="7"/>
     </row>
     <row r="163" spans="1:5" ht="15" customHeight="1">
       <c r="A163" s="6">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>196</v>
       </c>
       <c r="C163" s="7">
-        <v>3167</v>
+        <v>3189</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E163" s="7"/>
     </row>
     <row r="164" spans="1:5" ht="15" customHeight="1">
       <c r="A164" s="6">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>197</v>
       </c>
       <c r="C164" s="7">
-        <v>3189</v>
+        <v>3192</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E164" s="7"/>
     </row>
     <row r="165" spans="1:5" ht="15" customHeight="1">
       <c r="A165" s="6">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B165" s="7" t="s">
         <v>198</v>
       </c>
       <c r="C165" s="7">
-        <v>3192</v>
+        <v>4775</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E165" s="7"/>
     </row>
     <row r="166" spans="1:5" ht="15" customHeight="1">
       <c r="A166" s="6">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B166" s="7" t="s">
         <v>199</v>
       </c>
       <c r="C166" s="7">
-        <v>4775</v>
+        <v>3040</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="E166" s="7"/>
     </row>
     <row r="167" spans="1:5" ht="15" customHeight="1">
       <c r="A167" s="6">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>200</v>
       </c>
       <c r="C167" s="7">
-        <v>3040</v>
+        <v>3833</v>
       </c>
       <c r="D167" s="7" t="s">
         <v>35</v>
@@ -4360,13 +4355,13 @@
     </row>
     <row r="168" spans="1:5" ht="15" customHeight="1">
       <c r="A168" s="6">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B168" s="7" t="s">
         <v>201</v>
       </c>
       <c r="C168" s="7">
-        <v>3833</v>
+        <v>4003</v>
       </c>
       <c r="D168" s="7" t="s">
         <v>35</v>
@@ -4375,13 +4370,13 @@
     </row>
     <row r="169" spans="1:5" ht="15" customHeight="1">
       <c r="A169" s="6">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B169" s="7" t="s">
         <v>202</v>
       </c>
       <c r="C169" s="7">
-        <v>4003</v>
+        <v>4004</v>
       </c>
       <c r="D169" s="7" t="s">
         <v>35</v>
@@ -4390,13 +4385,13 @@
     </row>
     <row r="170" spans="1:5" ht="15" customHeight="1">
       <c r="A170" s="6">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B170" s="7" t="s">
         <v>203</v>
       </c>
       <c r="C170" s="7">
-        <v>4004</v>
+        <v>4005</v>
       </c>
       <c r="D170" s="7" t="s">
         <v>35</v>
@@ -4405,13 +4400,13 @@
     </row>
     <row r="171" spans="1:5" ht="15" customHeight="1">
       <c r="A171" s="6">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B171" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C171" s="7">
-        <v>4005</v>
+        <v>4007</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>35</v>
@@ -4420,13 +4415,13 @@
     </row>
     <row r="172" spans="1:5" ht="15" customHeight="1">
       <c r="A172" s="6">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>205</v>
       </c>
       <c r="C172" s="7">
-        <v>4007</v>
+        <v>4073</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>35</v>
@@ -4435,13 +4430,13 @@
     </row>
     <row r="173" spans="1:5" ht="15" customHeight="1">
       <c r="A173" s="6">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>206</v>
       </c>
       <c r="C173" s="7">
-        <v>4073</v>
+        <v>4072</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>35</v>
@@ -4450,13 +4445,13 @@
     </row>
     <row r="174" spans="1:5" ht="15" customHeight="1">
       <c r="A174" s="6">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B174" s="7" t="s">
         <v>207</v>
       </c>
       <c r="C174" s="7">
-        <v>4072</v>
+        <v>4071</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>35</v>
@@ -4465,13 +4460,13 @@
     </row>
     <row r="175" spans="1:5" ht="15" customHeight="1">
       <c r="A175" s="6">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B175" s="7" t="s">
         <v>208</v>
       </c>
       <c r="C175" s="7">
-        <v>4071</v>
+        <v>4080</v>
       </c>
       <c r="D175" s="7" t="s">
         <v>35</v>
@@ -4480,13 +4475,13 @@
     </row>
     <row r="176" spans="1:5" ht="15" customHeight="1">
       <c r="A176" s="6">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B176" s="7" t="s">
         <v>209</v>
       </c>
       <c r="C176" s="7">
-        <v>4080</v>
+        <v>4066</v>
       </c>
       <c r="D176" s="7" t="s">
         <v>35</v>
@@ -4495,13 +4490,13 @@
     </row>
     <row r="177" spans="1:5" ht="15" customHeight="1">
       <c r="A177" s="6">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>210</v>
       </c>
       <c r="C177" s="7">
-        <v>4066</v>
+        <v>4070</v>
       </c>
       <c r="D177" s="7" t="s">
         <v>35</v>
@@ -4510,13 +4505,13 @@
     </row>
     <row r="178" spans="1:5" ht="15" customHeight="1">
       <c r="A178" s="6">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>211</v>
       </c>
       <c r="C178" s="7">
-        <v>4070</v>
+        <v>4065</v>
       </c>
       <c r="D178" s="7" t="s">
         <v>35</v>
@@ -4525,13 +4520,13 @@
     </row>
     <row r="179" spans="1:5" ht="15" customHeight="1">
       <c r="A179" s="6">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>212</v>
       </c>
       <c r="C179" s="7">
-        <v>4065</v>
+        <v>4068</v>
       </c>
       <c r="D179" s="7" t="s">
         <v>35</v>
@@ -4540,13 +4535,13 @@
     </row>
     <row r="180" spans="1:5" ht="15" customHeight="1">
       <c r="A180" s="6">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B180" s="7" t="s">
         <v>213</v>
       </c>
       <c r="C180" s="7">
-        <v>4068</v>
+        <v>4067</v>
       </c>
       <c r="D180" s="7" t="s">
         <v>35</v>
@@ -4555,13 +4550,13 @@
     </row>
     <row r="181" spans="1:5" ht="15" customHeight="1">
       <c r="A181" s="6">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B181" s="7" t="s">
         <v>214</v>
       </c>
       <c r="C181" s="7">
-        <v>4067</v>
+        <v>4061</v>
       </c>
       <c r="D181" s="7" t="s">
         <v>35</v>
@@ -4570,13 +4565,13 @@
     </row>
     <row r="182" spans="1:5" ht="15" customHeight="1">
       <c r="A182" s="6">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>215</v>
       </c>
       <c r="C182" s="7">
-        <v>4061</v>
+        <v>4081</v>
       </c>
       <c r="D182" s="7" t="s">
         <v>35</v>
@@ -4585,13 +4580,13 @@
     </row>
     <row r="183" spans="1:5" ht="15" customHeight="1">
       <c r="A183" s="6">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B183" s="7" t="s">
         <v>216</v>
       </c>
       <c r="C183" s="7">
-        <v>4081</v>
+        <v>4075</v>
       </c>
       <c r="D183" s="7" t="s">
         <v>35</v>
@@ -4600,13 +4595,13 @@
     </row>
     <row r="184" spans="1:5" ht="15" customHeight="1">
       <c r="A184" s="6">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>217</v>
       </c>
       <c r="C184" s="7">
-        <v>4075</v>
+        <v>4082</v>
       </c>
       <c r="D184" s="7" t="s">
         <v>35</v>
@@ -4615,13 +4610,13 @@
     </row>
     <row r="185" spans="1:5" ht="15" customHeight="1">
       <c r="A185" s="6">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>218</v>
       </c>
       <c r="C185" s="7">
-        <v>4082</v>
+        <v>4063</v>
       </c>
       <c r="D185" s="7" t="s">
         <v>35</v>
@@ -4630,13 +4625,13 @@
     </row>
     <row r="186" spans="1:5" ht="15" customHeight="1">
       <c r="A186" s="6">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>219</v>
       </c>
       <c r="C186" s="7">
-        <v>4063</v>
+        <v>4212</v>
       </c>
       <c r="D186" s="7" t="s">
         <v>35</v>
@@ -4645,13 +4640,13 @@
     </row>
     <row r="187" spans="1:5" ht="15" customHeight="1">
       <c r="A187" s="6">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>220</v>
       </c>
       <c r="C187" s="7">
-        <v>4212</v>
+        <v>4495</v>
       </c>
       <c r="D187" s="7" t="s">
         <v>35</v>
@@ -4660,13 +4655,13 @@
     </row>
     <row r="188" spans="1:5" ht="15" customHeight="1">
       <c r="A188" s="6">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>221</v>
       </c>
       <c r="C188" s="7">
-        <v>4495</v>
+        <v>4496</v>
       </c>
       <c r="D188" s="7" t="s">
         <v>35</v>
@@ -4675,13 +4670,13 @@
     </row>
     <row r="189" spans="1:5" ht="15" customHeight="1">
       <c r="A189" s="6">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>222</v>
       </c>
       <c r="C189" s="7">
-        <v>4496</v>
+        <v>4537</v>
       </c>
       <c r="D189" s="7" t="s">
         <v>35</v>
@@ -4690,13 +4685,13 @@
     </row>
     <row r="190" spans="1:5" ht="15" customHeight="1">
       <c r="A190" s="6">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>223</v>
       </c>
       <c r="C190" s="7">
-        <v>4537</v>
+        <v>4052</v>
       </c>
       <c r="D190" s="7" t="s">
         <v>35</v>
@@ -4705,13 +4700,13 @@
     </row>
     <row r="191" spans="1:5" ht="15" customHeight="1">
       <c r="A191" s="6">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>224</v>
       </c>
       <c r="C191" s="7">
-        <v>4052</v>
+        <v>4062</v>
       </c>
       <c r="D191" s="7" t="s">
         <v>35</v>
@@ -4720,13 +4715,13 @@
     </row>
     <row r="192" spans="1:5" ht="15" customHeight="1">
       <c r="A192" s="6">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B192" s="7" t="s">
         <v>225</v>
       </c>
       <c r="C192" s="7">
-        <v>4062</v>
+        <v>3834</v>
       </c>
       <c r="D192" s="7" t="s">
         <v>35</v>
@@ -4735,13 +4730,13 @@
     </row>
     <row r="193" spans="1:5" ht="15" customHeight="1">
       <c r="A193" s="6">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B193" s="7" t="s">
         <v>226</v>
       </c>
       <c r="C193" s="7">
-        <v>3834</v>
+        <v>4050</v>
       </c>
       <c r="D193" s="7" t="s">
         <v>35</v>
@@ -4750,13 +4745,13 @@
     </row>
     <row r="194" spans="1:5" ht="15" customHeight="1">
       <c r="A194" s="6">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>227</v>
       </c>
       <c r="C194" s="7">
-        <v>4050</v>
+        <v>3043</v>
       </c>
       <c r="D194" s="7" t="s">
         <v>35</v>
@@ -4765,13 +4760,13 @@
     </row>
     <row r="195" spans="1:5" ht="15" customHeight="1">
       <c r="A195" s="6">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B195" s="7" t="s">
         <v>228</v>
       </c>
       <c r="C195" s="7">
-        <v>3043</v>
+        <v>4703</v>
       </c>
       <c r="D195" s="7" t="s">
         <v>35</v>
@@ -4780,13 +4775,13 @@
     </row>
     <row r="196" spans="1:5" ht="15" customHeight="1">
       <c r="A196" s="6">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B196" s="7" t="s">
         <v>229</v>
       </c>
       <c r="C196" s="7">
-        <v>4703</v>
+        <v>2885</v>
       </c>
       <c r="D196" s="7" t="s">
         <v>35</v>
@@ -4795,13 +4790,13 @@
     </row>
     <row r="197" spans="1:5" ht="15" customHeight="1">
       <c r="A197" s="6">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B197" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C197" s="7">
-        <v>2885</v>
+        <v>2920</v>
       </c>
       <c r="D197" s="7" t="s">
         <v>35</v>
@@ -4810,13 +4805,13 @@
     </row>
     <row r="198" spans="1:5" ht="15" customHeight="1">
       <c r="A198" s="6">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B198" s="7" t="s">
         <v>231</v>
       </c>
       <c r="C198" s="7">
-        <v>2920</v>
+        <v>2820</v>
       </c>
       <c r="D198" s="7" t="s">
         <v>35</v>
@@ -4825,13 +4820,13 @@
     </row>
     <row r="199" spans="1:5" ht="15" customHeight="1">
       <c r="A199" s="6">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>232</v>
       </c>
       <c r="C199" s="7">
-        <v>2820</v>
+        <v>3276</v>
       </c>
       <c r="D199" s="7" t="s">
         <v>35</v>
@@ -4840,13 +4835,13 @@
     </row>
     <row r="200" spans="1:5" ht="15" customHeight="1">
       <c r="A200" s="6">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>233</v>
       </c>
       <c r="C200" s="7">
-        <v>3276</v>
+        <v>2947</v>
       </c>
       <c r="D200" s="7" t="s">
         <v>35</v>
@@ -4855,13 +4850,13 @@
     </row>
     <row r="201" spans="1:5" ht="15" customHeight="1">
       <c r="A201" s="6">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B201" s="7" t="s">
         <v>234</v>
       </c>
       <c r="C201" s="7">
-        <v>2947</v>
+        <v>2936</v>
       </c>
       <c r="D201" s="7" t="s">
         <v>35</v>
@@ -4870,13 +4865,13 @@
     </row>
     <row r="202" spans="1:5" ht="15" customHeight="1">
       <c r="A202" s="6">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B202" s="7" t="s">
         <v>235</v>
       </c>
       <c r="C202" s="7">
-        <v>2936</v>
+        <v>3277</v>
       </c>
       <c r="D202" s="7" t="s">
         <v>35</v>
@@ -4885,13 +4880,13 @@
     </row>
     <row r="203" spans="1:5" ht="15" customHeight="1">
       <c r="A203" s="6">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B203" s="7" t="s">
         <v>236</v>
       </c>
       <c r="C203" s="7">
-        <v>3277</v>
+        <v>4137</v>
       </c>
       <c r="D203" s="7" t="s">
         <v>35</v>
@@ -4900,13 +4895,13 @@
     </row>
     <row r="204" spans="1:5" ht="15" customHeight="1">
       <c r="A204" s="6">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B204" s="7" t="s">
         <v>237</v>
       </c>
       <c r="C204" s="7">
-        <v>4137</v>
+        <v>4141</v>
       </c>
       <c r="D204" s="7" t="s">
         <v>35</v>
@@ -4915,13 +4910,13 @@
     </row>
     <row r="205" spans="1:5" ht="15" customHeight="1">
       <c r="A205" s="6">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>238</v>
       </c>
       <c r="C205" s="7">
-        <v>4141</v>
+        <v>4139</v>
       </c>
       <c r="D205" s="7" t="s">
         <v>35</v>
@@ -4930,13 +4925,13 @@
     </row>
     <row r="206" spans="1:5" ht="15" customHeight="1">
       <c r="A206" s="6">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B206" s="7" t="s">
         <v>239</v>
       </c>
       <c r="C206" s="7">
-        <v>4139</v>
+        <v>2326</v>
       </c>
       <c r="D206" s="7" t="s">
         <v>35</v>
@@ -4945,13 +4940,13 @@
     </row>
     <row r="207" spans="1:5" ht="15" customHeight="1">
       <c r="A207" s="6">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B207" s="7" t="s">
         <v>240</v>
       </c>
       <c r="C207" s="7">
-        <v>2326</v>
+        <v>2080</v>
       </c>
       <c r="D207" s="7" t="s">
         <v>35</v>
@@ -4960,13 +4955,13 @@
     </row>
     <row r="208" spans="1:5" ht="15" customHeight="1">
       <c r="A208" s="6">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B208" s="7" t="s">
         <v>241</v>
       </c>
       <c r="C208" s="7">
-        <v>2080</v>
+        <v>3003</v>
       </c>
       <c r="D208" s="7" t="s">
         <v>35</v>
@@ -4975,13 +4970,13 @@
     </row>
     <row r="209" spans="1:5" ht="15" customHeight="1">
       <c r="A209" s="6">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>242</v>
       </c>
       <c r="C209" s="7">
-        <v>3003</v>
+        <v>2817</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>35</v>
@@ -4990,13 +4985,13 @@
     </row>
     <row r="210" spans="1:5" ht="15" customHeight="1">
       <c r="A210" s="6">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B210" s="7" t="s">
         <v>243</v>
       </c>
       <c r="C210" s="7">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D210" s="7" t="s">
         <v>35</v>
@@ -5005,13 +5000,13 @@
     </row>
     <row r="211" spans="1:5" ht="15" customHeight="1">
       <c r="A211" s="6">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B211" s="7" t="s">
         <v>244</v>
       </c>
       <c r="C211" s="7">
-        <v>2818</v>
+        <v>2962</v>
       </c>
       <c r="D211" s="7" t="s">
         <v>35</v>
@@ -5020,13 +5015,13 @@
     </row>
     <row r="212" spans="1:5" ht="15" customHeight="1">
       <c r="A212" s="6">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B212" s="7" t="s">
         <v>245</v>
       </c>
       <c r="C212" s="7">
-        <v>2962</v>
+        <v>3677</v>
       </c>
       <c r="D212" s="7" t="s">
         <v>35</v>
@@ -5035,13 +5030,13 @@
     </row>
     <row r="213" spans="1:5" ht="15" customHeight="1">
       <c r="A213" s="6">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B213" s="7" t="s">
         <v>246</v>
       </c>
       <c r="C213" s="7">
-        <v>3677</v>
+        <v>3679</v>
       </c>
       <c r="D213" s="7" t="s">
         <v>35</v>
@@ -5050,13 +5045,13 @@
     </row>
     <row r="214" spans="1:5" ht="15" customHeight="1">
       <c r="A214" s="6">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>247</v>
       </c>
       <c r="C214" s="7">
-        <v>3679</v>
+        <v>3363</v>
       </c>
       <c r="D214" s="7" t="s">
         <v>35</v>
@@ -5065,13 +5060,13 @@
     </row>
     <row r="215" spans="1:5" ht="15" customHeight="1">
       <c r="A215" s="6">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B215" s="7" t="s">
         <v>248</v>
       </c>
       <c r="C215" s="7">
-        <v>3363</v>
+        <v>3388</v>
       </c>
       <c r="D215" s="7" t="s">
         <v>35</v>
@@ -5080,13 +5075,13 @@
     </row>
     <row r="216" spans="1:5" ht="15" customHeight="1">
       <c r="A216" s="6">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B216" s="7" t="s">
         <v>249</v>
       </c>
       <c r="C216" s="7">
-        <v>3388</v>
+        <v>3390</v>
       </c>
       <c r="D216" s="7" t="s">
         <v>35</v>
@@ -5095,13 +5090,13 @@
     </row>
     <row r="217" spans="1:5" ht="15" customHeight="1">
       <c r="A217" s="6">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B217" s="7" t="s">
         <v>250</v>
       </c>
       <c r="C217" s="7">
-        <v>3390</v>
+        <v>3505</v>
       </c>
       <c r="D217" s="7" t="s">
         <v>35</v>
@@ -5110,13 +5105,13 @@
     </row>
     <row r="218" spans="1:5" ht="15" customHeight="1">
       <c r="A218" s="6">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B218" s="7" t="s">
         <v>251</v>
       </c>
       <c r="C218" s="7">
-        <v>3505</v>
+        <v>3506</v>
       </c>
       <c r="D218" s="7" t="s">
         <v>35</v>
@@ -5125,13 +5120,13 @@
     </row>
     <row r="219" spans="1:5" ht="15" customHeight="1">
       <c r="A219" s="6">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>252</v>
       </c>
       <c r="C219" s="7">
-        <v>3506</v>
+        <v>2978</v>
       </c>
       <c r="D219" s="7" t="s">
         <v>35</v>
@@ -5140,13 +5135,13 @@
     </row>
     <row r="220" spans="1:5" ht="15" customHeight="1">
       <c r="A220" s="6">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B220" s="7" t="s">
         <v>253</v>
       </c>
       <c r="C220" s="7">
-        <v>2978</v>
+        <v>2979</v>
       </c>
       <c r="D220" s="7" t="s">
         <v>35</v>
@@ -5155,13 +5150,13 @@
     </row>
     <row r="221" spans="1:5" ht="15" customHeight="1">
       <c r="A221" s="6">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>254</v>
       </c>
       <c r="C221" s="7">
-        <v>2979</v>
+        <v>2601</v>
       </c>
       <c r="D221" s="7" t="s">
         <v>35</v>
@@ -5170,13 +5165,13 @@
     </row>
     <row r="222" spans="1:5" ht="15" customHeight="1">
       <c r="A222" s="6">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>255</v>
       </c>
       <c r="C222" s="7">
-        <v>2601</v>
+        <v>2223</v>
       </c>
       <c r="D222" s="7" t="s">
         <v>35</v>
@@ -5185,178 +5180,178 @@
     </row>
     <row r="223" spans="1:5" ht="15" customHeight="1">
       <c r="A223" s="6">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B223" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C223" s="7">
-        <v>2223</v>
+      <c r="C223" s="21">
+        <v>1957</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>35</v>
+        <v>257</v>
       </c>
       <c r="E223" s="7"/>
     </row>
     <row r="224" spans="1:5" ht="15" customHeight="1">
       <c r="A224" s="6">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B224" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C224" s="21">
+        <v>2208</v>
+      </c>
+      <c r="D224" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="C224" s="21">
-        <v>1957</v>
-      </c>
-      <c r="D224" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="E224" s="7"/>
     </row>
     <row r="225" spans="1:5" ht="15" customHeight="1">
       <c r="A225" s="6">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B225" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C225" s="21">
-        <v>2208</v>
+      <c r="C225" s="22">
+        <v>2143</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E225" s="7"/>
     </row>
     <row r="226" spans="1:5" ht="15" customHeight="1">
       <c r="A226" s="6">
-        <v>201</v>
-      </c>
-      <c r="B226" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B226" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="C226" s="22">
-        <v>2143</v>
-      </c>
-      <c r="D226" s="7" t="s">
-        <v>258</v>
+      <c r="C226" s="23">
+        <v>2664</v>
+      </c>
+      <c r="D226" s="23" t="s">
+        <v>52</v>
       </c>
       <c r="E226" s="7"/>
     </row>
     <row r="227" spans="1:5" ht="15" customHeight="1">
       <c r="A227" s="6">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B227" s="23" t="s">
         <v>261</v>
       </c>
       <c r="C227" s="23">
-        <v>2664</v>
+        <v>2097</v>
       </c>
       <c r="D227" s="23" t="s">
-        <v>52</v>
+        <v>257</v>
       </c>
       <c r="E227" s="7"/>
     </row>
     <row r="228" spans="1:5" ht="15" customHeight="1">
       <c r="A228" s="6">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B228" s="23" t="s">
         <v>262</v>
       </c>
       <c r="C228" s="23">
-        <v>2097</v>
+        <v>2147</v>
       </c>
       <c r="D228" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E228" s="7"/>
     </row>
     <row r="229" spans="1:5" ht="15" customHeight="1">
       <c r="A229" s="6">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B229" s="23" t="s">
         <v>263</v>
       </c>
       <c r="C229" s="23">
-        <v>2147</v>
+        <v>2358</v>
       </c>
       <c r="D229" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E229" s="7"/>
     </row>
     <row r="230" spans="1:5" ht="15" customHeight="1">
       <c r="A230" s="6">
-        <v>205</v>
-      </c>
-      <c r="B230" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B230" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="C230" s="23">
-        <v>2358</v>
-      </c>
-      <c r="D230" s="23" t="s">
-        <v>258</v>
+      <c r="C230" s="7">
+        <v>2965</v>
+      </c>
+      <c r="D230" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="E230" s="7"/>
     </row>
     <row r="231" spans="1:5" ht="15" customHeight="1">
       <c r="A231" s="6">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B231" s="7" t="s">
         <v>265</v>
       </c>
       <c r="C231" s="7">
-        <v>2965</v>
+        <v>3239</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E231" s="7"/>
     </row>
     <row r="232" spans="1:5" ht="15" customHeight="1">
       <c r="A232" s="6">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B232" s="7" t="s">
         <v>266</v>
       </c>
       <c r="C232" s="7">
-        <v>3239</v>
+        <v>2833</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E232" s="7"/>
     </row>
     <row r="233" spans="1:5" ht="15" customHeight="1">
       <c r="A233" s="6">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B233" s="7" t="s">
         <v>267</v>
       </c>
       <c r="C233" s="7">
-        <v>2833</v>
+        <v>3066</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E233" s="7"/>
     </row>
     <row r="234" spans="1:5" ht="15" customHeight="1">
       <c r="A234" s="6">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B234" s="7" t="s">
         <v>268</v>
       </c>
       <c r="C234" s="7">
-        <v>3066</v>
+        <v>3265</v>
       </c>
       <c r="D234" s="7" t="s">
         <v>33</v>
@@ -5365,73 +5360,58 @@
     </row>
     <row r="235" spans="1:5" ht="15" customHeight="1">
       <c r="A235" s="6">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B235" s="7" t="s">
         <v>269</v>
       </c>
       <c r="C235" s="7">
-        <v>3265</v>
+        <v>3048</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="E235" s="7"/>
     </row>
     <row r="236" spans="1:5" ht="15" customHeight="1">
       <c r="A236" s="6">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B236" s="7" t="s">
         <v>270</v>
       </c>
       <c r="C236" s="7">
-        <v>3048</v>
+        <v>3491</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E236" s="7"/>
-    </row>
-    <row r="237" spans="1:5" ht="15" customHeight="1">
-      <c r="A237" s="6">
-        <v>212</v>
-      </c>
-      <c r="B237" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C237" s="7">
-        <v>3491</v>
-      </c>
-      <c r="D237" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E237" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="I11:L11"/>
   </mergeCells>
-  <conditionalFormatting sqref="C191">
+  <conditionalFormatting sqref="C190">
     <cfRule type="expression" dxfId="5" priority="4">
-      <formula>$A191</formula>
+      <formula>$A190</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C183:C184">
+  <conditionalFormatting sqref="C182:C183">
     <cfRule type="expression" dxfId="3" priority="6">
-      <formula>$A183</formula>
+      <formula>$A182</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="8">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C178 C194">
+  <conditionalFormatting sqref="C177 C193">
     <cfRule type="expression" dxfId="1" priority="9">
-      <formula>$A178</formula>
+      <formula>$A177</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="10">
       <formula>#REF!</formula>

--- a/manpower_log/HC03.xlsx
+++ b/manpower_log/HC03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\manpower_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5274F048-AC4F-4F93-B487-332CCB6A3CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7804AB2-958C-40F0-AF22-047F4C7F1CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1599,8 +1599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A195" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C206" sqref="C206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>

--- a/manpower_log/HC03.xlsx
+++ b/manpower_log/HC03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\manpower_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF96D8B-74EC-4AE9-B81A-699914843C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1151B200-199E-452A-90B8-A4D389C538AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="251">
   <si>
     <t>HC03</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Supervisor</t>
   </si>
   <si>
-    <t>Ahmed Zelzouli</t>
-  </si>
-  <si>
     <t>Foreman</t>
   </si>
   <si>
@@ -537,9 +534,6 @@
     <t>OM Prakash</t>
   </si>
   <si>
-    <t>Zafar Iqbal</t>
-  </si>
-  <si>
     <t>Noel Monzales</t>
   </si>
   <si>
@@ -591,9 +585,6 @@
     <t>Abbes Saken</t>
   </si>
   <si>
-    <t>Abdelghani Sbai</t>
-  </si>
-  <si>
     <t>Fath Ellah</t>
   </si>
   <si>
@@ -714,9 +705,6 @@
     <t>Nurul Hoque (Hashim)</t>
   </si>
   <si>
-    <t>Arif Abdur Razzak (Hashim)</t>
-  </si>
-  <si>
     <t>Sobhit Sah</t>
   </si>
   <si>
@@ -796,6 +784,9 @@
   </si>
   <si>
     <t>Abdul Danish</t>
+  </si>
+  <si>
+    <t>on leave</t>
   </si>
 </sst>
 </file>
@@ -1555,10 +1546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J220"/>
+  <dimension ref="A1:J216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -1602,7 +1593,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" thickBot="1">
@@ -1610,20 +1601,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3">
-        <v>3327</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>3187</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E3" s="3"/>
       <c r="G3" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" thickBot="1">
@@ -1631,17 +1622,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3">
-        <v>3187</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>3059</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E4" s="3"/>
       <c r="G4" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="10">
         <v>4</v>
@@ -1652,17 +1643,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3">
-        <v>3059</v>
+        <v>3739</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3"/>
       <c r="G5" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="10">
         <v>5</v>
@@ -1673,17 +1664,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3">
-        <v>3739</v>
+        <v>3869</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="3"/>
       <c r="G6" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="10">
         <v>1</v>
@@ -1694,17 +1685,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3870</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3869</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="G7" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="H7" s="10">
         <v>2</v>
@@ -1715,24 +1708,24 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3">
-        <v>3870</v>
+        <v>3004</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="10">
         <f>SUM(H2:H7)</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1">
@@ -1740,13 +1733,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3">
-        <v>3004</v>
+        <v>4510</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -1755,13 +1748,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3">
-        <v>4510</v>
-      </c>
-      <c r="D10" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2287</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -1770,17 +1763,17 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2287</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3289</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
@@ -1791,24 +1784,24 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3">
-        <v>3289</v>
+        <v>3275</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="3"/>
       <c r="G12" s="11"/>
       <c r="H12" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" thickBot="1">
@@ -1816,17 +1809,17 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="3">
-        <v>3275</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>10</v>
+        <v>2569</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="E13" s="3"/>
       <c r="G13" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="14">
         <f>SUM(I13:J13)</f>
@@ -1844,17 +1837,17 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3">
-        <v>2569</v>
+        <v>1599</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E14" s="3"/>
       <c r="G14" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14" s="14">
         <f>SUM(I14:J14)</f>
@@ -1872,23 +1865,23 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="3">
-        <v>1599</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>36</v>
+        <v>3782</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E15" s="3"/>
       <c r="G15" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15" s="14">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I15" s="16">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J15" s="16">
         <v>0</v>
@@ -1899,17 +1892,17 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3">
-        <v>3782</v>
+        <v>2940</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E16" s="3"/>
       <c r="G16" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16" s="14">
         <v>21</v>
@@ -1926,23 +1919,23 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="3">
-        <v>2940</v>
+        <v>3779</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="3"/>
       <c r="G17" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" s="14">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I17" s="16">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J17" s="16">
         <v>0</v>
@@ -1953,17 +1946,17 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3">
-        <v>3779</v>
+        <v>3842</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="3"/>
       <c r="G18" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H18" s="14">
         <v>39</v>
@@ -1980,17 +1973,17 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="3">
-        <v>3842</v>
+        <v>44</v>
+      </c>
+      <c r="C19" s="5">
+        <v>4240</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E19" s="3"/>
       <c r="G19" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19" s="14">
         <f>SUM(I19:J19)</f>
@@ -2008,17 +2001,17 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2981</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C20" s="5">
-        <v>4240</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="E20" s="3"/>
       <c r="G20" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" s="14">
         <f>SUM(I20:J20)</f>
@@ -2036,17 +2029,17 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="5">
-        <v>2981</v>
+        <v>49</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3378</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E21" s="3"/>
       <c r="G21" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H21" s="14">
         <v>0</v>
@@ -2063,17 +2056,17 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="3">
-        <v>3378</v>
+        <v>4444</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E22" s="3"/>
       <c r="G22" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H22" s="14">
         <v>7</v>
@@ -2082,7 +2075,7 @@
         <v>7</v>
       </c>
       <c r="J22" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" thickBot="1">
@@ -2090,17 +2083,17 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" s="3">
-        <v>4444</v>
+        <v>3069</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" s="3"/>
       <c r="G23" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H23" s="14">
         <f>SUM(I23:J23)</f>
@@ -2114,21 +2107,21 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="3">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="7">
+        <v>1</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="8">
+        <v>3182</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="G24" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="C24" s="3">
-        <v>3069</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="G24" s="18" t="s">
-        <v>55</v>
       </c>
       <c r="H24" s="14">
         <v>1</v>
@@ -2142,16 +2135,16 @@
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A25" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C25" s="8">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="8"/>
       <c r="G25" s="19"/>
@@ -2161,2968 +2154,2905 @@
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A26" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C26" s="8">
-        <v>3181</v>
+        <v>3307</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" s="8"/>
       <c r="G26" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H26" s="21">
         <f>SUM(H13:H25)</f>
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I26" s="20">
         <f>SUM(I13:I25)</f>
-        <v>198</v>
-      </c>
-      <c r="J26" s="20">
-        <f>SUM(J13:J25)</f>
-        <v>0</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="J26" s="20"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1">
       <c r="A27" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C27" s="8">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1">
       <c r="A28" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C28" s="8">
-        <v>3308</v>
+        <v>3304</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1">
       <c r="A29" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="8">
-        <v>3304</v>
+        <v>3305</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1">
       <c r="A30" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C30" s="8">
-        <v>3305</v>
+        <v>3306</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1">
       <c r="A31" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C31" s="8">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1">
       <c r="A32" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>63</v>
+        <v>209</v>
       </c>
       <c r="C32" s="8">
-        <v>3303</v>
+        <v>2885</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1">
       <c r="A33" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>212</v>
+        <v>63</v>
       </c>
       <c r="C33" s="8">
-        <v>2885</v>
+        <v>3088</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1">
       <c r="A34" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C34" s="8">
-        <v>3088</v>
+        <v>3183</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1">
       <c r="A35" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C35" s="8">
-        <v>3183</v>
+        <v>2369</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1">
       <c r="A36" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C36" s="8">
-        <v>2369</v>
+        <v>4151</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1">
       <c r="A37" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C37" s="8">
-        <v>4151</v>
+        <v>2219</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1">
       <c r="A38" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C38" s="8">
-        <v>2219</v>
+        <v>2875</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1">
       <c r="A39" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C39" s="8">
-        <v>2875</v>
+        <v>2878</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1">
       <c r="A40" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C40" s="8">
-        <v>2878</v>
+        <v>2335</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1">
       <c r="A41" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="8">
-        <v>2335</v>
+      <c r="C41" s="9">
+        <v>4262</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1">
       <c r="A42" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C42" s="9">
-        <v>4262</v>
+        <v>4263</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1">
       <c r="A43" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C43" s="9">
-        <v>4263</v>
+        <v>4264</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1">
       <c r="A44" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C44" s="9">
-        <v>4264</v>
+        <v>4265</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1">
       <c r="A45" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>75</v>
       </c>
       <c r="C45" s="9">
-        <v>4265</v>
+        <v>4266</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1">
       <c r="A46" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C46" s="9">
-        <v>4266</v>
+        <v>4267</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1">
       <c r="A47" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>77</v>
       </c>
       <c r="C47" s="9">
-        <v>4267</v>
+        <v>4268</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1">
       <c r="A48" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C48" s="9">
-        <v>4268</v>
+        <v>4269</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1">
       <c r="A49" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C49" s="9">
-        <v>4269</v>
+        <v>4270</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1">
       <c r="A50" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C50" s="9">
-        <v>4270</v>
+        <v>4271</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1">
       <c r="A51" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C51" s="9">
-        <v>4271</v>
+        <v>4272</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" ht="15" customHeight="1">
       <c r="A52" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>82</v>
       </c>
       <c r="C52" s="9">
-        <v>4272</v>
+        <v>4273</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" ht="15" customHeight="1">
       <c r="A53" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C53" s="9">
-        <v>4273</v>
+        <v>4274</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1">
       <c r="A54" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>84</v>
       </c>
       <c r="C54" s="9">
-        <v>4274</v>
+        <v>4275</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" ht="15" customHeight="1">
       <c r="A55" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C55" s="9">
-        <v>4275</v>
+        <v>4276</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:5" ht="15" customHeight="1">
       <c r="A56" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>86</v>
       </c>
       <c r="C56" s="9">
-        <v>4276</v>
+        <v>4277</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" ht="15" customHeight="1">
       <c r="A57" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C57" s="9">
-        <v>4277</v>
+      <c r="C57" s="8">
+        <v>2286</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" ht="15" customHeight="1">
       <c r="A58" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C58" s="8">
-        <v>2286</v>
+        <v>2314</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" ht="15" customHeight="1">
       <c r="A59" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>89</v>
       </c>
       <c r="C59" s="8">
-        <v>2314</v>
+        <v>2953</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" ht="15" customHeight="1">
       <c r="A60" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>90</v>
       </c>
       <c r="C60" s="8">
-        <v>2953</v>
+        <v>1917</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" ht="15" customHeight="1">
       <c r="A61" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>91</v>
       </c>
       <c r="C61" s="8">
-        <v>1917</v>
+        <v>2173</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" ht="15" customHeight="1">
       <c r="A62" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C62" s="8">
-        <v>2173</v>
+        <v>2794</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1">
       <c r="A63" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>93</v>
       </c>
       <c r="C63" s="8">
-        <v>2794</v>
+        <v>2905</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1">
       <c r="A64" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>94</v>
       </c>
       <c r="C64" s="8">
-        <v>2905</v>
+        <v>2950</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5" ht="15" customHeight="1">
       <c r="A65" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>95</v>
       </c>
       <c r="C65" s="8">
-        <v>2950</v>
+        <v>2790</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" ht="15" customHeight="1">
       <c r="A66" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C66" s="8">
-        <v>2790</v>
+        <v>4170</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" ht="15" customHeight="1">
       <c r="A67" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C67" s="8">
-        <v>4170</v>
+        <v>4159</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" ht="15" customHeight="1">
       <c r="A68" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>98</v>
       </c>
       <c r="C68" s="8">
-        <v>4159</v>
+        <v>4155</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" ht="15" customHeight="1">
       <c r="A69" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C69" s="8">
-        <v>4155</v>
+        <v>4171</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E69" s="8"/>
     </row>
     <row r="70" spans="1:5" ht="15" customHeight="1">
       <c r="A70" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C70" s="8">
-        <v>4171</v>
+        <v>4161</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E70" s="8"/>
     </row>
     <row r="71" spans="1:5" ht="15" customHeight="1">
       <c r="A71" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>101</v>
       </c>
       <c r="C71" s="8">
-        <v>4161</v>
+        <v>4168</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" ht="15" customHeight="1">
       <c r="A72" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>102</v>
       </c>
       <c r="C72" s="8">
-        <v>4168</v>
+        <v>4172</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" ht="15" customHeight="1">
       <c r="A73" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>103</v>
       </c>
       <c r="C73" s="8">
-        <v>4172</v>
+        <v>4154</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" ht="15" customHeight="1">
       <c r="A74" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C74" s="8">
-        <v>4154</v>
+      <c r="C74" s="9">
+        <v>4208</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1">
       <c r="A75" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>105</v>
       </c>
       <c r="C75" s="9">
-        <v>4208</v>
+        <v>4204</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" ht="15" customHeight="1">
       <c r="A76" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>106</v>
       </c>
       <c r="C76" s="9">
-        <v>4204</v>
+        <v>3076</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E76" s="8"/>
     </row>
     <row r="77" spans="1:5" ht="15" customHeight="1">
       <c r="A77" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C77" s="9">
-        <v>3076</v>
+        <v>4555</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E77" s="8"/>
     </row>
     <row r="78" spans="1:5" ht="15" customHeight="1">
       <c r="A78" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>108</v>
       </c>
       <c r="C78" s="9">
-        <v>4555</v>
+        <v>4556</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E78" s="8"/>
     </row>
     <row r="79" spans="1:5" ht="15" customHeight="1">
       <c r="A79" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>109</v>
       </c>
       <c r="C79" s="9">
-        <v>4556</v>
+        <v>4560</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E79" s="8"/>
     </row>
     <row r="80" spans="1:5" ht="15" customHeight="1">
       <c r="A80" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>110</v>
       </c>
       <c r="C80" s="9">
-        <v>4560</v>
+        <v>4563</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E80" s="8"/>
     </row>
     <row r="81" spans="1:5" ht="15" customHeight="1">
       <c r="A81" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>111</v>
       </c>
       <c r="C81" s="9">
-        <v>4563</v>
+        <v>4342</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E81" s="8"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1">
       <c r="A82" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>112</v>
       </c>
       <c r="C82" s="9">
-        <v>4342</v>
+        <v>4343</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="1:5" ht="15" customHeight="1">
       <c r="A83" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>113</v>
       </c>
       <c r="C83" s="9">
-        <v>4343</v>
+        <v>4345</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E83" s="8"/>
     </row>
     <row r="84" spans="1:5" ht="15" customHeight="1">
       <c r="A84" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>114</v>
       </c>
       <c r="C84" s="9">
-        <v>4345</v>
+        <v>2125</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" ht="15" customHeight="1">
       <c r="A85" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>115</v>
       </c>
       <c r="C85" s="9">
-        <v>2125</v>
+        <v>4571</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" ht="15" customHeight="1">
       <c r="A86" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>116</v>
       </c>
       <c r="C86" s="9">
-        <v>4571</v>
+        <v>3257</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" ht="15" customHeight="1">
       <c r="A87" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>117</v>
       </c>
       <c r="C87" s="9">
-        <v>3257</v>
+        <v>4550</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" ht="15" customHeight="1">
       <c r="A88" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>118</v>
       </c>
       <c r="C88" s="9">
-        <v>4550</v>
+        <v>4551</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" ht="15" customHeight="1">
       <c r="A89" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>119</v>
       </c>
       <c r="C89" s="9">
-        <v>4551</v>
+        <v>4565</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" ht="15" customHeight="1">
       <c r="A90" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>120</v>
       </c>
       <c r="C90" s="9">
-        <v>4565</v>
+        <v>2937</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E90" s="8"/>
     </row>
     <row r="91" spans="1:5" ht="15" customHeight="1">
       <c r="A91" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>121</v>
       </c>
       <c r="C91" s="9">
-        <v>2937</v>
+        <v>4776</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" ht="15" customHeight="1">
       <c r="A92" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>122</v>
       </c>
       <c r="C92" s="9">
-        <v>4776</v>
+        <v>4781</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" ht="15" customHeight="1">
       <c r="A93" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>123</v>
       </c>
       <c r="C93" s="9">
-        <v>4781</v>
+        <v>4784</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" ht="15" customHeight="1">
       <c r="A94" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>124</v>
       </c>
       <c r="C94" s="9">
-        <v>4784</v>
+        <v>4791</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" ht="15" customHeight="1">
       <c r="A95" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>125</v>
       </c>
       <c r="C95" s="9">
-        <v>4791</v>
+        <v>4792</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E95" s="8"/>
     </row>
     <row r="96" spans="1:5" ht="15" customHeight="1">
       <c r="A96" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>126</v>
       </c>
       <c r="C96" s="9">
-        <v>4792</v>
+        <v>4793</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" ht="15" customHeight="1">
       <c r="A97" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>127</v>
       </c>
       <c r="C97" s="9">
-        <v>4793</v>
+        <v>4794</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E97" s="8"/>
     </row>
     <row r="98" spans="1:5" ht="15" customHeight="1">
       <c r="A98" s="7">
-        <v>74</v>
-      </c>
-      <c r="B98" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B98" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="C98" s="9">
-        <v>4794</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>42</v>
+      <c r="C98" s="22">
+        <v>2867</v>
+      </c>
+      <c r="D98" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" ht="15" customHeight="1">
       <c r="A99" s="7">
-        <v>75</v>
-      </c>
-      <c r="B99" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B99" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C99" s="22">
-        <v>2867</v>
-      </c>
-      <c r="D99" s="22" t="s">
-        <v>42</v>
+      <c r="C99" s="9">
+        <v>2922</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" ht="15" customHeight="1">
       <c r="A100" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C100" s="9">
-        <v>2922</v>
+      <c r="C100" s="8">
+        <v>2921</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" ht="15" customHeight="1">
       <c r="A101" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>131</v>
       </c>
       <c r="C101" s="8">
-        <v>2921</v>
+        <v>2738</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" ht="15" customHeight="1">
       <c r="A102" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>132</v>
       </c>
       <c r="C102" s="8">
-        <v>2738</v>
+        <v>2109</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" ht="15" customHeight="1">
       <c r="A103" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>133</v>
       </c>
       <c r="C103" s="8">
-        <v>2109</v>
+        <v>2002</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" ht="15" customHeight="1">
       <c r="A104" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>134</v>
       </c>
       <c r="C104" s="8">
-        <v>2002</v>
+        <v>2996</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E104" s="8"/>
     </row>
     <row r="105" spans="1:5" ht="15" customHeight="1">
       <c r="A105" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>135</v>
       </c>
       <c r="C105" s="8">
-        <v>2996</v>
+        <v>3089</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" ht="15" customHeight="1">
       <c r="A106" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C106" s="8">
-        <v>3089</v>
+        <v>3325</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" ht="15" customHeight="1">
       <c r="A107" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>137</v>
       </c>
       <c r="C107" s="8">
-        <v>3325</v>
+        <v>2162</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" ht="15" customHeight="1">
       <c r="A108" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C108" s="8">
-        <v>2162</v>
+        <v>2215</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" ht="15" customHeight="1">
       <c r="A109" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>139</v>
       </c>
       <c r="C109" s="8">
-        <v>2215</v>
+        <v>3090</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" ht="15" customHeight="1">
       <c r="A110" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>140</v>
       </c>
       <c r="C110" s="8">
-        <v>3090</v>
+        <v>2552</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" ht="15" customHeight="1">
       <c r="A111" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C111" s="8">
-        <v>2552</v>
+        <v>2017</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E111" s="8"/>
     </row>
     <row r="112" spans="1:5" ht="15" customHeight="1">
       <c r="A112" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C112" s="8">
-        <v>2017</v>
+        <v>1922</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" ht="15" customHeight="1">
       <c r="A113" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>143</v>
       </c>
       <c r="C113" s="8">
-        <v>1922</v>
+        <v>2294</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" ht="15" customHeight="1">
       <c r="A114" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>144</v>
       </c>
       <c r="C114" s="8">
-        <v>2294</v>
+        <v>2158</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" ht="15" customHeight="1">
       <c r="A115" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>145</v>
       </c>
       <c r="C115" s="8">
-        <v>2158</v>
+        <v>4153</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" ht="15" customHeight="1">
       <c r="A116" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>146</v>
       </c>
       <c r="C116" s="8">
-        <v>4153</v>
+        <v>4152</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" ht="15" customHeight="1">
       <c r="A117" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>147</v>
       </c>
       <c r="C117" s="8">
-        <v>4152</v>
+        <v>2302</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" ht="15" customHeight="1">
       <c r="A118" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>148</v>
       </c>
       <c r="C118" s="8">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E118" s="8"/>
     </row>
     <row r="119" spans="1:5" ht="15" customHeight="1">
       <c r="A119" s="7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>149</v>
       </c>
       <c r="C119" s="8">
-        <v>2303</v>
+        <v>2814</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="E119" s="8"/>
     </row>
     <row r="120" spans="1:5" ht="15" customHeight="1">
       <c r="A120" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B120" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C120" s="8">
+        <v>3163</v>
+      </c>
+      <c r="D120" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="C120" s="8">
-        <v>2814</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="E120" s="8"/>
     </row>
     <row r="121" spans="1:5" ht="15" customHeight="1">
       <c r="A121" s="7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>152</v>
       </c>
       <c r="C121" s="8">
-        <v>3163</v>
+        <v>3196</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E121" s="8"/>
     </row>
     <row r="122" spans="1:5" ht="15" customHeight="1">
       <c r="A122" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>153</v>
       </c>
       <c r="C122" s="8">
-        <v>3196</v>
+        <v>3198</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E122" s="8"/>
     </row>
     <row r="123" spans="1:5" ht="15" customHeight="1">
       <c r="A123" s="7">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>154</v>
       </c>
       <c r="C123" s="8">
-        <v>3198</v>
+        <v>2791</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E123" s="8"/>
     </row>
     <row r="124" spans="1:5" ht="15" customHeight="1">
       <c r="A124" s="7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>155</v>
       </c>
       <c r="C124" s="8">
-        <v>2791</v>
+        <v>2792</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E124" s="8"/>
     </row>
     <row r="125" spans="1:5" ht="15" customHeight="1">
       <c r="A125" s="7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>156</v>
       </c>
       <c r="C125" s="8">
-        <v>2792</v>
+        <v>2795</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E125" s="8"/>
     </row>
     <row r="126" spans="1:5" ht="15" customHeight="1">
       <c r="A126" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C126" s="8">
-        <v>2795</v>
+        <v>2798</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E126" s="8"/>
     </row>
     <row r="127" spans="1:5" ht="15" customHeight="1">
       <c r="A127" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>158</v>
       </c>
       <c r="C127" s="8">
-        <v>2798</v>
+        <v>3104</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E127" s="8"/>
     </row>
     <row r="128" spans="1:5" ht="15" customHeight="1">
       <c r="A128" s="7">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>159</v>
       </c>
       <c r="C128" s="8">
-        <v>3104</v>
+        <v>3555</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E128" s="8"/>
     </row>
     <row r="129" spans="1:5" ht="15" customHeight="1">
       <c r="A129" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>160</v>
       </c>
       <c r="C129" s="8">
-        <v>3555</v>
+        <v>3283</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E129" s="8"/>
     </row>
     <row r="130" spans="1:5" ht="15" customHeight="1">
       <c r="A130" s="7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>161</v>
       </c>
       <c r="C130" s="8">
-        <v>3283</v>
+        <v>3157</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E130" s="8"/>
     </row>
     <row r="131" spans="1:5" ht="15" customHeight="1">
       <c r="A131" s="7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>162</v>
       </c>
       <c r="C131" s="8">
-        <v>3157</v>
+        <v>3281</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E131" s="8"/>
     </row>
     <row r="132" spans="1:5" ht="15" customHeight="1">
       <c r="A132" s="7">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>163</v>
       </c>
       <c r="C132" s="8">
-        <v>3281</v>
+        <v>2325</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E132" s="8"/>
     </row>
     <row r="133" spans="1:5" ht="15" customHeight="1">
       <c r="A133" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>164</v>
       </c>
       <c r="C133" s="8">
-        <v>2325</v>
+        <v>3010</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E133" s="8"/>
     </row>
     <row r="134" spans="1:5" ht="15" customHeight="1">
       <c r="A134" s="7">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>165</v>
       </c>
       <c r="C134" s="8">
-        <v>3010</v>
+        <v>3013</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E134" s="8"/>
     </row>
     <row r="135" spans="1:5" ht="15" customHeight="1">
       <c r="A135" s="7">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>166</v>
       </c>
       <c r="C135" s="8">
-        <v>3013</v>
+        <v>3234</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E135" s="8"/>
     </row>
     <row r="136" spans="1:5" ht="15" customHeight="1">
       <c r="A136" s="7">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>167</v>
       </c>
       <c r="C136" s="8">
-        <v>2822</v>
+        <v>3989</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E136" s="8"/>
     </row>
     <row r="137" spans="1:5" ht="15" customHeight="1">
       <c r="A137" s="7">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>168</v>
       </c>
       <c r="C137" s="8">
-        <v>3234</v>
+        <v>4119</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E137" s="8"/>
     </row>
     <row r="138" spans="1:5" ht="15" customHeight="1">
       <c r="A138" s="7">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>169</v>
       </c>
       <c r="C138" s="8">
-        <v>3989</v>
+        <v>4130</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E138" s="8"/>
     </row>
     <row r="139" spans="1:5" ht="15" customHeight="1">
       <c r="A139" s="7">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>170</v>
       </c>
       <c r="C139" s="8">
-        <v>4119</v>
+        <v>4120</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E139" s="8"/>
     </row>
     <row r="140" spans="1:5" ht="15" customHeight="1">
       <c r="A140" s="7">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>171</v>
       </c>
       <c r="C140" s="8">
-        <v>4130</v>
+        <v>4136</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E140" s="8"/>
     </row>
     <row r="141" spans="1:5" ht="15" customHeight="1">
       <c r="A141" s="7">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>172</v>
       </c>
       <c r="C141" s="8">
-        <v>4120</v>
+        <v>4131</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E141" s="8"/>
     </row>
     <row r="142" spans="1:5" ht="15" customHeight="1">
       <c r="A142" s="7">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>173</v>
       </c>
       <c r="C142" s="8">
-        <v>4136</v>
+        <v>4123</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E142" s="8"/>
     </row>
     <row r="143" spans="1:5" ht="15" customHeight="1">
       <c r="A143" s="7">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>174</v>
       </c>
       <c r="C143" s="8">
-        <v>4131</v>
+        <v>2809</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E143" s="8"/>
     </row>
     <row r="144" spans="1:5" ht="15" customHeight="1">
       <c r="A144" s="7">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>175</v>
       </c>
       <c r="C144" s="8">
-        <v>4123</v>
+        <v>2917</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E144" s="8"/>
     </row>
     <row r="145" spans="1:5" ht="15" customHeight="1">
       <c r="A145" s="7">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>176</v>
       </c>
       <c r="C145" s="8">
-        <v>2809</v>
+        <v>2918</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E145" s="8"/>
     </row>
     <row r="146" spans="1:5" ht="15" customHeight="1">
       <c r="A146" s="7">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>177</v>
       </c>
       <c r="C146" s="8">
-        <v>2917</v>
+        <v>2919</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E146" s="8"/>
     </row>
     <row r="147" spans="1:5" ht="15" customHeight="1">
       <c r="A147" s="7">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>178</v>
       </c>
       <c r="C147" s="8">
-        <v>2918</v>
+        <v>3167</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E147" s="8"/>
     </row>
     <row r="148" spans="1:5" ht="15" customHeight="1">
       <c r="A148" s="7">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>179</v>
       </c>
       <c r="C148" s="8">
-        <v>2919</v>
+        <v>3189</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E148" s="8"/>
     </row>
     <row r="149" spans="1:5" ht="15" customHeight="1">
       <c r="A149" s="7">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>180</v>
       </c>
       <c r="C149" s="8">
-        <v>3167</v>
+        <v>3040</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="E149" s="8"/>
     </row>
     <row r="150" spans="1:5" ht="15" customHeight="1">
       <c r="A150" s="7">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>181</v>
       </c>
       <c r="C150" s="8">
-        <v>3189</v>
+        <v>3833</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="E150" s="8"/>
     </row>
     <row r="151" spans="1:5" ht="15" customHeight="1">
       <c r="A151" s="7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>182</v>
       </c>
       <c r="C151" s="8">
-        <v>3040</v>
+        <v>4003</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E151" s="8"/>
     </row>
     <row r="152" spans="1:5" ht="15" customHeight="1">
       <c r="A152" s="7">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>183</v>
       </c>
       <c r="C152" s="8">
-        <v>3833</v>
+        <v>4005</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E152" s="8"/>
     </row>
     <row r="153" spans="1:5" ht="15" customHeight="1">
       <c r="A153" s="7">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>184</v>
       </c>
       <c r="C153" s="8">
-        <v>4003</v>
+        <v>4007</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E153" s="8"/>
     </row>
     <row r="154" spans="1:5" ht="15" customHeight="1">
       <c r="A154" s="7">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>185</v>
       </c>
       <c r="C154" s="8">
-        <v>4004</v>
+        <v>4073</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E154" s="8"/>
     </row>
     <row r="155" spans="1:5" ht="15" customHeight="1">
       <c r="A155" s="7">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>186</v>
       </c>
       <c r="C155" s="8">
-        <v>4005</v>
+        <v>4072</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E155" s="8"/>
     </row>
     <row r="156" spans="1:5" ht="15" customHeight="1">
       <c r="A156" s="7">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>187</v>
       </c>
       <c r="C156" s="8">
-        <v>4007</v>
+        <v>4071</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E156" s="8"/>
     </row>
     <row r="157" spans="1:5" ht="15" customHeight="1">
       <c r="A157" s="7">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>188</v>
       </c>
       <c r="C157" s="8">
-        <v>4073</v>
+        <v>4080</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E157" s="8"/>
     </row>
     <row r="158" spans="1:5" ht="15" customHeight="1">
       <c r="A158" s="7">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>189</v>
       </c>
       <c r="C158" s="8">
-        <v>4072</v>
+        <v>4066</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E158" s="8"/>
     </row>
     <row r="159" spans="1:5" ht="15" customHeight="1">
       <c r="A159" s="7">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>190</v>
       </c>
       <c r="C159" s="8">
-        <v>4071</v>
+        <v>4070</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E159" s="8"/>
     </row>
     <row r="160" spans="1:5" ht="15" customHeight="1">
       <c r="A160" s="7">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>191</v>
       </c>
       <c r="C160" s="8">
-        <v>4080</v>
+        <v>4065</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E160" s="8"/>
     </row>
     <row r="161" spans="1:5" ht="15" customHeight="1">
       <c r="A161" s="7">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>192</v>
       </c>
       <c r="C161" s="8">
-        <v>4066</v>
+        <v>4068</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E161" s="8"/>
     </row>
     <row r="162" spans="1:5" ht="15" customHeight="1">
       <c r="A162" s="7">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>193</v>
       </c>
       <c r="C162" s="8">
-        <v>4070</v>
+        <v>4067</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E162" s="8"/>
     </row>
     <row r="163" spans="1:5" ht="15" customHeight="1">
       <c r="A163" s="7">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>194</v>
       </c>
       <c r="C163" s="8">
-        <v>4065</v>
+        <v>4061</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E163" s="8"/>
     </row>
     <row r="164" spans="1:5" ht="15" customHeight="1">
       <c r="A164" s="7">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>195</v>
       </c>
       <c r="C164" s="8">
-        <v>4068</v>
+        <v>4081</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E164" s="8"/>
     </row>
     <row r="165" spans="1:5" ht="15" customHeight="1">
       <c r="A165" s="7">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>196</v>
       </c>
       <c r="C165" s="8">
-        <v>4067</v>
+        <v>4075</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E165" s="8"/>
     </row>
     <row r="166" spans="1:5" ht="15" customHeight="1">
       <c r="A166" s="7">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>197</v>
       </c>
       <c r="C166" s="8">
-        <v>4061</v>
+        <v>4082</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E166" s="8"/>
     </row>
     <row r="167" spans="1:5" ht="15" customHeight="1">
       <c r="A167" s="7">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B167" s="8" t="s">
         <v>198</v>
       </c>
       <c r="C167" s="8">
-        <v>4081</v>
+        <v>4063</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E167" s="8"/>
     </row>
     <row r="168" spans="1:5" ht="15" customHeight="1">
       <c r="A168" s="7">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>199</v>
       </c>
       <c r="C168" s="8">
-        <v>4075</v>
+        <v>4212</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E168" s="8"/>
     </row>
     <row r="169" spans="1:5" ht="15" customHeight="1">
       <c r="A169" s="7">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>200</v>
       </c>
       <c r="C169" s="8">
-        <v>4082</v>
+        <v>4495</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E169" s="8"/>
     </row>
     <row r="170" spans="1:5" ht="15" customHeight="1">
       <c r="A170" s="7">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>201</v>
       </c>
       <c r="C170" s="8">
-        <v>4063</v>
+        <v>4496</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E170" s="8"/>
     </row>
     <row r="171" spans="1:5" ht="15" customHeight="1">
       <c r="A171" s="7">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>202</v>
       </c>
       <c r="C171" s="8">
-        <v>4212</v>
+        <v>4537</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E171" s="8"/>
     </row>
     <row r="172" spans="1:5" ht="15" customHeight="1">
       <c r="A172" s="7">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B172" s="8" t="s">
         <v>203</v>
       </c>
       <c r="C172" s="8">
-        <v>4495</v>
+        <v>4052</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E172" s="8"/>
     </row>
     <row r="173" spans="1:5" ht="15" customHeight="1">
       <c r="A173" s="7">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B173" s="8" t="s">
         <v>204</v>
       </c>
       <c r="C173" s="8">
-        <v>4496</v>
+        <v>4062</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E173" s="8"/>
     </row>
     <row r="174" spans="1:5" ht="15" customHeight="1">
       <c r="A174" s="7">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B174" s="8" t="s">
         <v>205</v>
       </c>
       <c r="C174" s="8">
-        <v>4537</v>
+        <v>3834</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E174" s="8"/>
     </row>
     <row r="175" spans="1:5" ht="15" customHeight="1">
       <c r="A175" s="7">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B175" s="8" t="s">
         <v>206</v>
       </c>
       <c r="C175" s="8">
-        <v>4052</v>
+        <v>4050</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E175" s="8"/>
     </row>
     <row r="176" spans="1:5" ht="15" customHeight="1">
       <c r="A176" s="7">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B176" s="8" t="s">
         <v>207</v>
       </c>
       <c r="C176" s="8">
-        <v>4062</v>
+        <v>3043</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E176" s="8"/>
     </row>
     <row r="177" spans="1:5" ht="15" customHeight="1">
       <c r="A177" s="7">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>208</v>
       </c>
       <c r="C177" s="8">
-        <v>3834</v>
+        <v>4703</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E177" s="8"/>
     </row>
     <row r="178" spans="1:5" ht="15" customHeight="1">
       <c r="A178" s="7">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C178" s="8">
-        <v>4050</v>
+        <v>2920</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E178" s="8"/>
     </row>
     <row r="179" spans="1:5" ht="15" customHeight="1">
       <c r="A179" s="7">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C179" s="8">
-        <v>3043</v>
+        <v>2820</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E179" s="8"/>
     </row>
     <row r="180" spans="1:5" ht="15" customHeight="1">
       <c r="A180" s="7">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C180" s="8">
-        <v>4703</v>
+        <v>3276</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E180" s="8"/>
     </row>
     <row r="181" spans="1:5" ht="15" customHeight="1">
       <c r="A181" s="7">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B181" s="8" t="s">
         <v>213</v>
       </c>
       <c r="C181" s="8">
-        <v>2920</v>
+        <v>2947</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E181" s="8"/>
     </row>
     <row r="182" spans="1:5" ht="15" customHeight="1">
       <c r="A182" s="7">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B182" s="8" t="s">
         <v>214</v>
       </c>
       <c r="C182" s="8">
-        <v>2820</v>
+        <v>2936</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E182" s="8"/>
     </row>
     <row r="183" spans="1:5" ht="15" customHeight="1">
       <c r="A183" s="7">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B183" s="8" t="s">
         <v>215</v>
       </c>
       <c r="C183" s="8">
-        <v>3276</v>
+        <v>3277</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E183" s="8"/>
     </row>
     <row r="184" spans="1:5" ht="15" customHeight="1">
       <c r="A184" s="7">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B184" s="8" t="s">
         <v>216</v>
       </c>
       <c r="C184" s="8">
-        <v>2947</v>
+        <v>4137</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E184" s="8"/>
     </row>
     <row r="185" spans="1:5" ht="15" customHeight="1">
       <c r="A185" s="7">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B185" s="8" t="s">
         <v>217</v>
       </c>
       <c r="C185" s="8">
-        <v>2936</v>
+        <v>4141</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E185" s="8"/>
     </row>
     <row r="186" spans="1:5" ht="15" customHeight="1">
       <c r="A186" s="7">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B186" s="8" t="s">
         <v>218</v>
       </c>
       <c r="C186" s="8">
-        <v>3277</v>
+        <v>4139</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E186" s="8"/>
     </row>
     <row r="187" spans="1:5" ht="15" customHeight="1">
       <c r="A187" s="7">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B187" s="8" t="s">
         <v>219</v>
       </c>
       <c r="C187" s="8">
-        <v>4137</v>
+        <v>2326</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E187" s="8"/>
     </row>
     <row r="188" spans="1:5" ht="15" customHeight="1">
       <c r="A188" s="7">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B188" s="8" t="s">
         <v>220</v>
       </c>
       <c r="C188" s="8">
-        <v>4141</v>
+        <v>2080</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E188" s="8"/>
     </row>
     <row r="189" spans="1:5" ht="15" customHeight="1">
       <c r="A189" s="7">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>221</v>
       </c>
       <c r="C189" s="8">
-        <v>4139</v>
+        <v>3003</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E189" s="8"/>
     </row>
     <row r="190" spans="1:5" ht="15" customHeight="1">
       <c r="A190" s="7">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B190" s="8" t="s">
         <v>222</v>
       </c>
       <c r="C190" s="8">
-        <v>2326</v>
+        <v>2817</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E190" s="8"/>
     </row>
     <row r="191" spans="1:5" ht="15" customHeight="1">
       <c r="A191" s="7">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B191" s="8" t="s">
         <v>223</v>
       </c>
       <c r="C191" s="8">
-        <v>2080</v>
+        <v>2962</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E191" s="8"/>
     </row>
     <row r="192" spans="1:5" ht="15" customHeight="1">
       <c r="A192" s="7">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B192" s="8" t="s">
         <v>224</v>
       </c>
       <c r="C192" s="8">
-        <v>3003</v>
+        <v>3677</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E192" s="8"/>
     </row>
     <row r="193" spans="1:5" ht="15" customHeight="1">
       <c r="A193" s="7">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B193" s="8" t="s">
         <v>225</v>
       </c>
       <c r="C193" s="8">
-        <v>2817</v>
+        <v>3679</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E193" s="8"/>
     </row>
     <row r="194" spans="1:5" ht="15" customHeight="1">
       <c r="A194" s="7">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B194" s="8" t="s">
         <v>226</v>
       </c>
       <c r="C194" s="8">
-        <v>2818</v>
+        <v>3363</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E194" s="8"/>
     </row>
     <row r="195" spans="1:5" ht="15" customHeight="1">
       <c r="A195" s="7">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B195" s="8" t="s">
         <v>227</v>
       </c>
       <c r="C195" s="8">
-        <v>2962</v>
+        <v>3388</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E195" s="8"/>
     </row>
     <row r="196" spans="1:5" ht="15" customHeight="1">
       <c r="A196" s="7">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B196" s="8" t="s">
         <v>228</v>
       </c>
       <c r="C196" s="8">
-        <v>3677</v>
+        <v>3390</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E196" s="8"/>
     </row>
     <row r="197" spans="1:5" ht="15" customHeight="1">
       <c r="A197" s="7">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B197" s="8" t="s">
         <v>229</v>
       </c>
       <c r="C197" s="8">
-        <v>3679</v>
+        <v>3505</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E197" s="8"/>
     </row>
     <row r="198" spans="1:5" ht="15" customHeight="1">
       <c r="A198" s="7">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>230</v>
       </c>
       <c r="C198" s="8">
-        <v>3363</v>
+        <v>3506</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E198" s="8"/>
     </row>
     <row r="199" spans="1:5" ht="15" customHeight="1">
       <c r="A199" s="7">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B199" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C199" s="8">
-        <v>3388</v>
+        <v>2978</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E199" s="8"/>
     </row>
     <row r="200" spans="1:5" ht="15" customHeight="1">
       <c r="A200" s="7">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B200" s="8" t="s">
         <v>232</v>
       </c>
       <c r="C200" s="8">
-        <v>3390</v>
+        <v>2979</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E200" s="8"/>
     </row>
     <row r="201" spans="1:5" ht="15" customHeight="1">
       <c r="A201" s="7">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>233</v>
       </c>
       <c r="C201" s="8">
-        <v>3505</v>
+        <v>2601</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E201" s="8"/>
     </row>
     <row r="202" spans="1:5" ht="15" customHeight="1">
       <c r="A202" s="7">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B202" s="8" t="s">
         <v>234</v>
       </c>
       <c r="C202" s="8">
-        <v>3506</v>
+        <v>2223</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E202" s="8"/>
     </row>
     <row r="203" spans="1:5" ht="15" customHeight="1">
       <c r="A203" s="7">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B203" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C203" s="8">
-        <v>2978</v>
+      <c r="C203" s="23">
+        <v>1957</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="E203" s="8"/>
     </row>
     <row r="204" spans="1:5" ht="15" customHeight="1">
       <c r="A204" s="7">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B204" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C204" s="23">
+        <v>2208</v>
+      </c>
+      <c r="D204" s="8" t="s">
         <v>236</v>
-      </c>
-      <c r="C204" s="8">
-        <v>2979</v>
-      </c>
-      <c r="D204" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="E204" s="8"/>
     </row>
     <row r="205" spans="1:5" ht="15" customHeight="1">
       <c r="A205" s="7">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C205" s="8">
-        <v>2601</v>
+        <v>238</v>
+      </c>
+      <c r="C205" s="24">
+        <v>2143</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="E205" s="8"/>
     </row>
     <row r="206" spans="1:5" ht="15" customHeight="1">
       <c r="A206" s="7">
-        <v>182</v>
-      </c>
-      <c r="B206" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C206" s="8">
-        <v>2223</v>
-      </c>
-      <c r="D206" s="8" t="s">
-        <v>33</v>
+        <v>184</v>
+      </c>
+      <c r="B206" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="C206" s="22">
+        <v>2664</v>
+      </c>
+      <c r="D206" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="E206" s="8"/>
     </row>
     <row r="207" spans="1:5" ht="15" customHeight="1">
       <c r="A207" s="7">
-        <v>183</v>
-      </c>
-      <c r="B207" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C207" s="23">
-        <v>1957</v>
-      </c>
-      <c r="D207" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B207" s="22" t="s">
         <v>240</v>
+      </c>
+      <c r="C207" s="22">
+        <v>2097</v>
+      </c>
+      <c r="D207" s="22" t="s">
+        <v>236</v>
       </c>
       <c r="E207" s="8"/>
     </row>
     <row r="208" spans="1:5" ht="15" customHeight="1">
       <c r="A208" s="7">
-        <v>184</v>
-      </c>
-      <c r="B208" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B208" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="C208" s="23">
-        <v>2208</v>
-      </c>
-      <c r="D208" s="8" t="s">
-        <v>240</v>
+      <c r="C208" s="22">
+        <v>2147</v>
+      </c>
+      <c r="D208" s="22" t="s">
+        <v>236</v>
       </c>
       <c r="E208" s="8"/>
     </row>
     <row r="209" spans="1:5" ht="15" customHeight="1">
       <c r="A209" s="7">
-        <v>185</v>
-      </c>
-      <c r="B209" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B209" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="C209" s="24">
-        <v>2143</v>
-      </c>
-      <c r="D209" s="8" t="s">
-        <v>240</v>
+      <c r="C209" s="22">
+        <v>2358</v>
+      </c>
+      <c r="D209" s="22" t="s">
+        <v>236</v>
       </c>
       <c r="E209" s="8"/>
     </row>
     <row r="210" spans="1:5" ht="15" customHeight="1">
       <c r="A210" s="7">
-        <v>186</v>
-      </c>
-      <c r="B210" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="B210" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C210" s="22">
-        <v>2664</v>
-      </c>
-      <c r="D210" s="22" t="s">
-        <v>51</v>
+      <c r="C210" s="8">
+        <v>2965</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E210" s="8"/>
     </row>
     <row r="211" spans="1:5" ht="15" customHeight="1">
       <c r="A211" s="7">
-        <v>187</v>
-      </c>
-      <c r="B211" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B211" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C211" s="22">
-        <v>2097</v>
-      </c>
-      <c r="D211" s="22" t="s">
-        <v>240</v>
+      <c r="C211" s="8">
+        <v>3239</v>
+      </c>
+      <c r="D211" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="E211" s="8"/>
     </row>
     <row r="212" spans="1:5" ht="15" customHeight="1">
       <c r="A212" s="7">
-        <v>188</v>
-      </c>
-      <c r="B212" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B212" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C212" s="22">
-        <v>2147</v>
-      </c>
-      <c r="D212" s="22" t="s">
-        <v>240</v>
+      <c r="C212" s="8">
+        <v>2833</v>
+      </c>
+      <c r="D212" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="E212" s="8"/>
     </row>
     <row r="213" spans="1:5" ht="15" customHeight="1">
       <c r="A213" s="7">
-        <v>189</v>
-      </c>
-      <c r="B213" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="B213" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C213" s="22">
-        <v>2358</v>
-      </c>
-      <c r="D213" s="22" t="s">
-        <v>240</v>
+      <c r="C213" s="8">
+        <v>3066</v>
+      </c>
+      <c r="D213" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="E213" s="8"/>
     </row>
     <row r="214" spans="1:5" ht="15" customHeight="1">
       <c r="A214" s="7">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B214" s="8" t="s">
         <v>247</v>
       </c>
       <c r="C214" s="8">
-        <v>2965</v>
+        <v>3265</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E214" s="8"/>
     </row>
     <row r="215" spans="1:5" ht="15" customHeight="1">
       <c r="A215" s="7">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B215" s="8" t="s">
         <v>248</v>
       </c>
       <c r="C215" s="8">
-        <v>3239</v>
+        <v>3048</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E215" s="8"/>
     </row>
     <row r="216" spans="1:5" ht="15" customHeight="1">
       <c r="A216" s="7">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B216" s="8" t="s">
         <v>249</v>
       </c>
       <c r="C216" s="8">
-        <v>2833</v>
+        <v>3491</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E216" s="8"/>
-    </row>
-    <row r="217" spans="1:5" ht="15" customHeight="1">
-      <c r="A217" s="7">
-        <v>193</v>
-      </c>
-      <c r="B217" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C217" s="8">
-        <v>3066</v>
-      </c>
-      <c r="D217" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E217" s="8"/>
-    </row>
-    <row r="218" spans="1:5" ht="15" customHeight="1">
-      <c r="A218" s="7">
-        <v>194</v>
-      </c>
-      <c r="B218" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C218" s="8">
-        <v>3265</v>
-      </c>
-      <c r="D218" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E218" s="8"/>
-    </row>
-    <row r="219" spans="1:5" ht="15" customHeight="1">
-      <c r="A219" s="7">
-        <v>195</v>
-      </c>
-      <c r="B219" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C219" s="8">
-        <v>3048</v>
-      </c>
-      <c r="D219" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E219" s="8"/>
-    </row>
-    <row r="220" spans="1:5" ht="15" customHeight="1">
-      <c r="A220" s="7">
-        <v>196</v>
-      </c>
-      <c r="B220" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C220" s="8">
-        <v>3491</v>
-      </c>
-      <c r="D220" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E220" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G11:J11"/>
   </mergeCells>
-  <conditionalFormatting sqref="C175">
+  <conditionalFormatting sqref="C172">
     <cfRule type="expression" dxfId="5" priority="4">
-      <formula>$A175</formula>
+      <formula>$A172</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C167:C168">
+  <conditionalFormatting sqref="C164:C165">
     <cfRule type="expression" dxfId="3" priority="6">
-      <formula>$A167</formula>
+      <formula>$A164</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="8">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C162 C178">
+  <conditionalFormatting sqref="C159 C175">
     <cfRule type="expression" dxfId="1" priority="9">
-      <formula>$A162</formula>
+      <formula>$A159</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="10">
       <formula>#REF!</formula>

--- a/manpower_log/HC03.xlsx
+++ b/manpower_log/HC03.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\manpower_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F50095-B61E-43C2-B11B-755542CB0B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7013B094-C0C6-449D-B6A4-0C8912B50569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="720" windowWidth="18672" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HC03" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'HC03'!$M$1:$M$191</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'HC03'!$M$1:$M$187</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="219">
   <si>
     <t>HC03</t>
   </si>
@@ -318,9 +318,6 @@
     <t>Dileep Sah</t>
   </si>
   <si>
-    <t>Shamraiz Hussain</t>
-  </si>
-  <si>
     <t>BHARAT SAHANI</t>
   </si>
   <si>
@@ -423,9 +420,6 @@
     <t>Mohammad Shariph</t>
   </si>
   <si>
-    <t>Mohammad Suzon</t>
-  </si>
-  <si>
     <t>Mizanur Rahman</t>
   </si>
   <si>
@@ -567,9 +561,6 @@
     <t>Abdelhalim Halim</t>
   </si>
   <si>
-    <t>Abdullha Mabrouk</t>
-  </si>
-  <si>
     <t>Mustafa Ait Ba</t>
   </si>
   <si>
@@ -618,9 +609,6 @@
     <t>Redouane Fetnassi</t>
   </si>
   <si>
-    <t>Akkas Ali </t>
-  </si>
-  <si>
     <t>Mohammad Abdulla</t>
   </si>
   <si>
@@ -633,9 +621,6 @@
     <t>Taupheer Khan</t>
   </si>
   <si>
-    <t>Nurul Hoque (Hashim)</t>
-  </si>
-  <si>
     <t>MD Enamul Haque Sharif</t>
   </si>
   <si>
@@ -675,9 +660,6 @@
     <t>Mohammad Ramzan</t>
   </si>
   <si>
-    <t>Jamaluddin Ansari</t>
-  </si>
-  <si>
     <t>Jahid Ali</t>
   </si>
   <si>
@@ -703,6 +685,12 @@
   </si>
   <si>
     <t>Abdul Danish</t>
+  </si>
+  <si>
+    <t>Ahmad Zelzuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Said dendoum </t>
   </si>
 </sst>
 </file>
@@ -1434,10 +1422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J189"/>
+  <dimension ref="A1:J185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -1453,7 +1441,7 @@
     <col min="10" max="10" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1">
+    <row r="1" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1462,7 +1450,7 @@
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1">
+    <row r="2" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1478,14 +1466,8 @@
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1">
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1500,405 +1482,398 @@
       </c>
       <c r="E3" s="6"/>
       <c r="G3" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H3" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>217</v>
       </c>
       <c r="C4" s="6">
-        <v>3059</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
+        <v>3327</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6">
-        <v>3739</v>
+        <v>3059</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="6"/>
       <c r="G5" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H5" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1">
+    <row r="6" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="6">
-        <v>3869</v>
+        <v>3739</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="6"/>
       <c r="G6" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="6">
-        <v>3870</v>
+        <v>3869</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E7" s="6"/>
       <c r="G7" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H7" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="6">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="6">
-        <v>4510</v>
+        <v>3870</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8" s="6"/>
       <c r="G8" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H8" s="5">
-        <f>SUM(H2:H7)</f>
-        <v>17</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A9" s="6">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="8">
-        <v>2287</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="C9" s="6">
+        <v>4510</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E9" s="6"/>
+      <c r="G9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="5">
+        <f>SUM(H3:H8)</f>
+        <v>18</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1">
       <c r="A10" s="6">
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="6">
-        <v>3289</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="C10" s="8">
+        <v>2287</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1">
+    <row r="11" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A11" s="6">
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="6">
-        <v>3275</v>
+        <v>3289</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="G11" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="29"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1">
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="6">
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="6">
-        <v>3782</v>
+        <v>3275</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1">
+      <c r="G12" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="29"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A13" s="6">
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C13" s="6">
-        <v>2940</v>
+        <v>3782</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E13" s="6"/>
-      <c r="G13" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="12">
-        <f>SUM(I13:J13)</f>
-        <v>38</v>
-      </c>
-      <c r="I13" s="18">
-        <v>38</v>
-      </c>
-      <c r="J13" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1">
+      <c r="G13" s="9"/>
+      <c r="H13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A14" s="6">
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="6">
-        <v>3779</v>
+        <v>2940</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="6"/>
       <c r="G14" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H14" s="12">
         <f>SUM(I14:J14)</f>
-        <v>2</v>
-      </c>
-      <c r="I14" s="19">
-        <v>2</v>
-      </c>
-      <c r="J14" s="19">
+        <v>38</v>
+      </c>
+      <c r="I14" s="18">
+        <v>38</v>
+      </c>
+      <c r="J14" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1">
+    <row r="15" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A15" s="6">
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="6">
-        <v>3842</v>
+        <v>3779</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="6"/>
       <c r="G15" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H15" s="12">
-        <v>36</v>
+        <f>SUM(I15:J15)</f>
+        <v>2</v>
       </c>
       <c r="I15" s="19">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="J15" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1">
+    <row r="16" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A16" s="6">
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="8">
-        <v>4240</v>
+        <v>35</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3842</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E16" s="6"/>
       <c r="G16" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H16" s="12">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I16" s="19">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J16" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1">
+    <row r="17" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="6">
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="6">
-        <v>3378</v>
+        <v>37</v>
+      </c>
+      <c r="C17" s="8">
+        <v>4240</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E17" s="6"/>
       <c r="G17" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H17" s="12">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I17" s="19">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J17" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1">
+    <row r="18" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A18" s="6">
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="6">
-        <v>4444</v>
+        <v>3378</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E18" s="6"/>
       <c r="G18" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H18" s="12">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I18" s="19">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="J18" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1">
+    <row r="19" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A19" s="6">
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19" s="6">
-        <v>3069</v>
+        <v>4444</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="6"/>
       <c r="G19" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H19" s="12">
-        <f>SUM(I19:J19)</f>
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="I19" s="19">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="J19" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1">
-      <c r="A20" s="13">
-        <v>1</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="14">
-        <v>3182</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="14"/>
+    <row r="20" spans="1:10" ht="15" customHeight="1" thickBot="1">
+      <c r="A20" s="6">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="6">
+        <v>3069</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="6"/>
       <c r="G20" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H20" s="12">
         <f>SUM(I20:J20)</f>
@@ -1911,185 +1886,198 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1">
-      <c r="A21" s="13">
-        <v>2</v>
+    <row r="21" spans="1:10" ht="15" customHeight="1" thickBot="1">
+      <c r="A21" s="6">
+        <v>19</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" s="14">
-        <v>3181</v>
+        <v>3182</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="14"/>
       <c r="G21" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H21" s="12">
-        <v>0</v>
+        <f>SUM(I21:J21)</f>
+        <v>1</v>
       </c>
       <c r="I21" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1">
-      <c r="A22" s="13">
-        <v>3</v>
+    <row r="22" spans="1:10" ht="15" customHeight="1" thickBot="1">
+      <c r="A22" s="6">
+        <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" s="14">
-        <v>3307</v>
+        <v>3181</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="14"/>
       <c r="G22" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H22" s="12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I22" s="19">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J22" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1">
-      <c r="A23" s="13">
-        <v>4</v>
+    <row r="23" spans="1:10" ht="15" customHeight="1" thickBot="1">
+      <c r="A23" s="6">
+        <v>21</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23" s="14">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E23" s="14"/>
       <c r="G23" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H23" s="12">
-        <f>SUM(I23:J23)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I23" s="19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J23" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1">
-      <c r="A24" s="13">
-        <v>5</v>
+    <row r="24" spans="1:10" ht="15" customHeight="1" thickBot="1">
+      <c r="A24" s="6">
+        <v>22</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24" s="14">
-        <v>3304</v>
+        <v>3308</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E24" s="14"/>
       <c r="G24" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H24" s="12">
-        <v>1</v>
+        <f>SUM(I24:J24)</f>
+        <v>2</v>
       </c>
       <c r="I24" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1">
-      <c r="A25" s="13">
-        <v>6</v>
+    <row r="25" spans="1:10" ht="15" customHeight="1" thickBot="1">
+      <c r="A25" s="6">
+        <v>23</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" s="14">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E25" s="14"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1">
-      <c r="A26" s="13">
-        <v>7</v>
+      <c r="G25" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="12">
+        <v>1</v>
+      </c>
+      <c r="I25" s="19">
+        <v>1</v>
+      </c>
+      <c r="J25" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" thickBot="1">
+      <c r="A26" s="6">
+        <v>24</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="14">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E26" s="14"/>
-      <c r="G26" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="16">
-        <f>SUM(H13:H24)</f>
-        <v>170</v>
-      </c>
-      <c r="I26" s="15">
-        <f>SUM(I13:I24)</f>
-        <v>170</v>
-      </c>
-      <c r="J26" s="15"/>
-    </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1">
-      <c r="A27" s="13">
-        <v>8</v>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" thickBot="1">
+      <c r="A27" s="6">
+        <v>25</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="14">
-        <v>3303</v>
+        <v>3306</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E27" s="14"/>
+      <c r="G27" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="16">
+        <f>SUM(H14:H25)</f>
+        <v>165</v>
+      </c>
+      <c r="I27" s="15">
+        <f>SUM(I14:I25)</f>
+        <v>165</v>
+      </c>
+      <c r="J27" s="15"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1">
-      <c r="A28" s="13">
-        <v>9</v>
+      <c r="A28" s="6">
+        <v>26</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="14">
-        <v>2885</v>
+        <v>3303</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>32</v>
@@ -2097,14 +2085,14 @@
       <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1">
-      <c r="A29" s="13">
-        <v>10</v>
+      <c r="A29" s="6">
+        <v>27</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="14">
-        <v>3088</v>
+        <v>2885</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>32</v>
@@ -2112,14 +2100,14 @@
       <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1">
-      <c r="A30" s="13">
-        <v>11</v>
+      <c r="A30" s="6">
+        <v>28</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="14">
-        <v>3183</v>
+        <v>3088</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>32</v>
@@ -2127,14 +2115,14 @@
       <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1">
-      <c r="A31" s="13">
-        <v>12</v>
+      <c r="A31" s="6">
+        <v>29</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="14">
-        <v>2325</v>
+        <v>3183</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>32</v>
@@ -2142,14 +2130,14 @@
       <c r="E31" s="14"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1">
-      <c r="A32" s="13">
-        <v>13</v>
+      <c r="A32" s="6">
+        <v>30</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" s="14">
-        <v>3989</v>
+        <v>2325</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>32</v>
@@ -2157,14 +2145,14 @@
       <c r="E32" s="14"/>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1">
-      <c r="A33" s="13">
-        <v>14</v>
+      <c r="A33" s="6">
+        <v>31</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="14">
-        <v>2369</v>
+        <v>3989</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>32</v>
@@ -2172,14 +2160,14 @@
       <c r="E33" s="14"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1">
-      <c r="A34" s="13">
-        <v>15</v>
+      <c r="A34" s="6">
+        <v>32</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="14">
-        <v>4151</v>
+        <v>2369</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>32</v>
@@ -2187,14 +2175,14 @@
       <c r="E34" s="14"/>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1">
-      <c r="A35" s="13">
-        <v>16</v>
+      <c r="A35" s="6">
+        <v>33</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="14">
-        <v>2219</v>
+        <v>4151</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>32</v>
@@ -2202,14 +2190,14 @@
       <c r="E35" s="14"/>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1">
-      <c r="A36" s="13">
-        <v>17</v>
+      <c r="A36" s="6">
+        <v>34</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C36" s="14">
-        <v>2875</v>
+        <v>2219</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>32</v>
@@ -2217,14 +2205,14 @@
       <c r="E36" s="14"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1">
-      <c r="A37" s="13">
-        <v>18</v>
+      <c r="A37" s="6">
+        <v>35</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C37" s="14">
-        <v>2878</v>
+        <v>2875</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>32</v>
@@ -2232,14 +2220,14 @@
       <c r="E37" s="14"/>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1">
-      <c r="A38" s="13">
-        <v>19</v>
+      <c r="A38" s="6">
+        <v>36</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" s="14">
-        <v>2335</v>
+        <v>2878</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>32</v>
@@ -2247,14 +2235,14 @@
       <c r="E38" s="14"/>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1">
-      <c r="A39" s="13">
-        <v>20</v>
+      <c r="A39" s="6">
+        <v>37</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="17">
-        <v>4262</v>
+        <v>69</v>
+      </c>
+      <c r="C39" s="14">
+        <v>2335</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>32</v>
@@ -2262,14 +2250,14 @@
       <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1">
-      <c r="A40" s="13">
-        <v>21</v>
+      <c r="A40" s="6">
+        <v>38</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="17">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>32</v>
@@ -2277,14 +2265,14 @@
       <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1">
-      <c r="A41" s="13">
-        <v>22</v>
+      <c r="A41" s="6">
+        <v>39</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" s="17">
-        <v>4264</v>
+        <v>4263</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>32</v>
@@ -2292,14 +2280,14 @@
       <c r="E41" s="14"/>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1">
-      <c r="A42" s="13">
-        <v>23</v>
+      <c r="A42" s="6">
+        <v>40</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="17">
-        <v>4265</v>
+        <v>4264</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>32</v>
@@ -2307,14 +2295,14 @@
       <c r="E42" s="14"/>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1">
-      <c r="A43" s="13">
-        <v>24</v>
+      <c r="A43" s="6">
+        <v>41</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C43" s="17">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>32</v>
@@ -2322,14 +2310,14 @@
       <c r="E43" s="14"/>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1">
-      <c r="A44" s="13">
-        <v>25</v>
+      <c r="A44" s="6">
+        <v>42</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C44" s="17">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>32</v>
@@ -2337,14 +2325,14 @@
       <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1">
-      <c r="A45" s="13">
-        <v>26</v>
+      <c r="A45" s="6">
+        <v>43</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45" s="17">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>32</v>
@@ -2352,14 +2340,14 @@
       <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1">
-      <c r="A46" s="13">
-        <v>27</v>
+      <c r="A46" s="6">
+        <v>44</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="17">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>32</v>
@@ -2367,14 +2355,14 @@
       <c r="E46" s="14"/>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1">
-      <c r="A47" s="13">
-        <v>28</v>
+      <c r="A47" s="6">
+        <v>45</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="17">
-        <v>4270</v>
+        <v>4269</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>32</v>
@@ -2382,14 +2370,14 @@
       <c r="E47" s="14"/>
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1">
-      <c r="A48" s="13">
-        <v>29</v>
+      <c r="A48" s="6">
+        <v>46</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C48" s="17">
-        <v>4271</v>
+        <v>4270</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>32</v>
@@ -2397,14 +2385,14 @@
       <c r="E48" s="14"/>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1">
-      <c r="A49" s="13">
-        <v>30</v>
+      <c r="A49" s="6">
+        <v>47</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C49" s="17">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>32</v>
@@ -2412,14 +2400,14 @@
       <c r="E49" s="14"/>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1">
-      <c r="A50" s="13">
-        <v>31</v>
+      <c r="A50" s="6">
+        <v>48</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50" s="17">
-        <v>4273</v>
+        <v>4272</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>32</v>
@@ -2427,14 +2415,14 @@
       <c r="E50" s="14"/>
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1">
-      <c r="A51" s="13">
-        <v>32</v>
+      <c r="A51" s="6">
+        <v>49</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" s="17">
-        <v>4274</v>
+        <v>4273</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>32</v>
@@ -2442,14 +2430,14 @@
       <c r="E51" s="14"/>
     </row>
     <row r="52" spans="1:5" ht="15" customHeight="1">
-      <c r="A52" s="13">
-        <v>33</v>
+      <c r="A52" s="6">
+        <v>50</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C52" s="17">
-        <v>4275</v>
+        <v>4274</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>32</v>
@@ -2457,14 +2445,14 @@
       <c r="E52" s="14"/>
     </row>
     <row r="53" spans="1:5" ht="15" customHeight="1">
-      <c r="A53" s="13">
-        <v>34</v>
+      <c r="A53" s="6">
+        <v>51</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53" s="17">
-        <v>4276</v>
+        <v>4275</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>32</v>
@@ -2472,14 +2460,14 @@
       <c r="E53" s="14"/>
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1">
-      <c r="A54" s="13">
-        <v>35</v>
+      <c r="A54" s="6">
+        <v>52</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C54" s="17">
-        <v>4277</v>
+        <v>4276</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>32</v>
@@ -2487,14 +2475,14 @@
       <c r="E54" s="14"/>
     </row>
     <row r="55" spans="1:5" ht="15" customHeight="1">
-      <c r="A55" s="13">
-        <v>36</v>
+      <c r="A55" s="6">
+        <v>53</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="14">
-        <v>2286</v>
+        <v>85</v>
+      </c>
+      <c r="C55" s="17">
+        <v>4277</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>32</v>
@@ -2502,14 +2490,14 @@
       <c r="E55" s="14"/>
     </row>
     <row r="56" spans="1:5" ht="15" customHeight="1">
-      <c r="A56" s="13">
-        <v>37</v>
+      <c r="A56" s="6">
+        <v>54</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C56" s="14">
-        <v>2314</v>
+        <v>2286</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>32</v>
@@ -2517,14 +2505,14 @@
       <c r="E56" s="14"/>
     </row>
     <row r="57" spans="1:5" ht="15" customHeight="1">
-      <c r="A57" s="13">
-        <v>38</v>
+      <c r="A57" s="6">
+        <v>55</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C57" s="14">
-        <v>2953</v>
+        <v>2314</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>32</v>
@@ -2532,29 +2520,29 @@
       <c r="E57" s="14"/>
     </row>
     <row r="58" spans="1:5" ht="15" customHeight="1">
-      <c r="A58" s="13">
-        <v>39</v>
+      <c r="A58" s="6">
+        <v>56</v>
       </c>
       <c r="B58" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="14">
+        <v>2953</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:5" ht="15" customHeight="1">
+      <c r="A59" s="6">
+        <v>57</v>
+      </c>
+      <c r="B59" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="14">
+      <c r="C59" s="14">
         <v>1917</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E58" s="14"/>
-    </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1">
-      <c r="A59" s="13">
-        <v>40</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="14">
-        <v>2173</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>43</v>
@@ -2562,14 +2550,14 @@
       <c r="E59" s="14"/>
     </row>
     <row r="60" spans="1:5" ht="15" customHeight="1">
-      <c r="A60" s="13">
-        <v>41</v>
+      <c r="A60" s="6">
+        <v>58</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C60" s="14">
-        <v>2794</v>
+        <v>2173</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>43</v>
@@ -2577,14 +2565,14 @@
       <c r="E60" s="14"/>
     </row>
     <row r="61" spans="1:5" ht="15" customHeight="1">
-      <c r="A61" s="13">
-        <v>42</v>
+      <c r="A61" s="6">
+        <v>59</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="14">
-        <v>2905</v>
+        <v>2794</v>
       </c>
       <c r="D61" s="14" t="s">
         <v>43</v>
@@ -2592,14 +2580,14 @@
       <c r="E61" s="14"/>
     </row>
     <row r="62" spans="1:5" ht="15" customHeight="1">
-      <c r="A62" s="13">
-        <v>43</v>
+      <c r="A62" s="6">
+        <v>60</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C62" s="14">
-        <v>2950</v>
+        <v>2905</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>43</v>
@@ -2607,14 +2595,14 @@
       <c r="E62" s="14"/>
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1">
-      <c r="A63" s="13">
-        <v>44</v>
+      <c r="A63" s="6">
+        <v>61</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C63" s="14">
-        <v>2790</v>
+        <v>2950</v>
       </c>
       <c r="D63" s="14" t="s">
         <v>43</v>
@@ -2622,11 +2610,11 @@
       <c r="E63" s="14"/>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1">
-      <c r="A64" s="13">
-        <v>45</v>
+      <c r="A64" s="6">
+        <v>62</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C64" s="14">
         <v>4170</v>
@@ -2637,11 +2625,11 @@
       <c r="E64" s="14"/>
     </row>
     <row r="65" spans="1:5" ht="15" customHeight="1">
-      <c r="A65" s="13">
-        <v>46</v>
+      <c r="A65" s="6">
+        <v>63</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C65" s="14">
         <v>4159</v>
@@ -2652,11 +2640,11 @@
       <c r="E65" s="14"/>
     </row>
     <row r="66" spans="1:5" ht="15" customHeight="1">
-      <c r="A66" s="13">
-        <v>47</v>
+      <c r="A66" s="6">
+        <v>64</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C66" s="14">
         <v>4155</v>
@@ -2667,11 +2655,11 @@
       <c r="E66" s="14"/>
     </row>
     <row r="67" spans="1:5" ht="15" customHeight="1">
-      <c r="A67" s="13">
-        <v>48</v>
+      <c r="A67" s="6">
+        <v>65</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C67" s="14">
         <v>4171</v>
@@ -2682,11 +2670,11 @@
       <c r="E67" s="14"/>
     </row>
     <row r="68" spans="1:5" ht="15" customHeight="1">
-      <c r="A68" s="13">
-        <v>49</v>
+      <c r="A68" s="6">
+        <v>66</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C68" s="14">
         <v>4161</v>
@@ -2697,11 +2685,11 @@
       <c r="E68" s="14"/>
     </row>
     <row r="69" spans="1:5" ht="15" customHeight="1">
-      <c r="A69" s="13">
-        <v>50</v>
+      <c r="A69" s="6">
+        <v>67</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C69" s="14">
         <v>4168</v>
@@ -2712,11 +2700,11 @@
       <c r="E69" s="14"/>
     </row>
     <row r="70" spans="1:5" ht="15" customHeight="1">
-      <c r="A70" s="13">
-        <v>51</v>
+      <c r="A70" s="6">
+        <v>68</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C70" s="14">
         <v>4172</v>
@@ -2727,11 +2715,11 @@
       <c r="E70" s="14"/>
     </row>
     <row r="71" spans="1:5" ht="15" customHeight="1">
-      <c r="A71" s="13">
-        <v>52</v>
+      <c r="A71" s="6">
+        <v>69</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C71" s="14">
         <v>4154</v>
@@ -2742,11 +2730,11 @@
       <c r="E71" s="14"/>
     </row>
     <row r="72" spans="1:5" ht="15" customHeight="1">
-      <c r="A72" s="13">
-        <v>53</v>
+      <c r="A72" s="6">
+        <v>70</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C72" s="17">
         <v>4208</v>
@@ -2757,11 +2745,11 @@
       <c r="E72" s="14"/>
     </row>
     <row r="73" spans="1:5" ht="15" customHeight="1">
-      <c r="A73" s="13">
-        <v>54</v>
+      <c r="A73" s="6">
+        <v>71</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C73" s="17">
         <v>4204</v>
@@ -2772,11 +2760,11 @@
       <c r="E73" s="14"/>
     </row>
     <row r="74" spans="1:5" ht="15" customHeight="1">
-      <c r="A74" s="13">
-        <v>55</v>
+      <c r="A74" s="6">
+        <v>72</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C74" s="17">
         <v>3076</v>
@@ -2787,11 +2775,11 @@
       <c r="E74" s="14"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1">
-      <c r="A75" s="13">
-        <v>56</v>
+      <c r="A75" s="6">
+        <v>73</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="17">
         <v>4555</v>
@@ -2802,11 +2790,11 @@
       <c r="E75" s="14"/>
     </row>
     <row r="76" spans="1:5" ht="15" customHeight="1">
-      <c r="A76" s="13">
-        <v>57</v>
+      <c r="A76" s="6">
+        <v>74</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C76" s="17">
         <v>4556</v>
@@ -2817,11 +2805,11 @@
       <c r="E76" s="14"/>
     </row>
     <row r="77" spans="1:5" ht="15" customHeight="1">
-      <c r="A77" s="13">
-        <v>58</v>
+      <c r="A77" s="6">
+        <v>75</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C77" s="17">
         <v>4560</v>
@@ -2832,11 +2820,11 @@
       <c r="E77" s="14"/>
     </row>
     <row r="78" spans="1:5" ht="15" customHeight="1">
-      <c r="A78" s="13">
-        <v>59</v>
+      <c r="A78" s="6">
+        <v>76</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C78" s="17">
         <v>4563</v>
@@ -2847,11 +2835,11 @@
       <c r="E78" s="14"/>
     </row>
     <row r="79" spans="1:5" ht="15" customHeight="1">
-      <c r="A79" s="13">
-        <v>60</v>
+      <c r="A79" s="6">
+        <v>77</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C79" s="17">
         <v>4342</v>
@@ -2862,11 +2850,11 @@
       <c r="E79" s="14"/>
     </row>
     <row r="80" spans="1:5" ht="15" customHeight="1">
-      <c r="A80" s="13">
-        <v>61</v>
+      <c r="A80" s="6">
+        <v>78</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C80" s="17">
         <v>4343</v>
@@ -2877,11 +2865,11 @@
       <c r="E80" s="14"/>
     </row>
     <row r="81" spans="1:5" ht="15" customHeight="1">
-      <c r="A81" s="13">
-        <v>62</v>
+      <c r="A81" s="6">
+        <v>79</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C81" s="17">
         <v>4345</v>
@@ -2892,11 +2880,11 @@
       <c r="E81" s="14"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1">
-      <c r="A82" s="13">
-        <v>63</v>
+      <c r="A82" s="6">
+        <v>80</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C82" s="17">
         <v>2125</v>
@@ -2907,11 +2895,11 @@
       <c r="E82" s="14"/>
     </row>
     <row r="83" spans="1:5" ht="15" customHeight="1">
-      <c r="A83" s="13">
-        <v>64</v>
+      <c r="A83" s="6">
+        <v>81</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C83" s="17">
         <v>4571</v>
@@ -2922,11 +2910,11 @@
       <c r="E83" s="14"/>
     </row>
     <row r="84" spans="1:5" ht="15" customHeight="1">
-      <c r="A84" s="13">
-        <v>65</v>
+      <c r="A84" s="6">
+        <v>82</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C84" s="17">
         <v>3257</v>
@@ -2937,11 +2925,11 @@
       <c r="E84" s="14"/>
     </row>
     <row r="85" spans="1:5" ht="15" customHeight="1">
-      <c r="A85" s="13">
-        <v>66</v>
+      <c r="A85" s="6">
+        <v>83</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C85" s="17">
         <v>4550</v>
@@ -2952,11 +2940,11 @@
       <c r="E85" s="14"/>
     </row>
     <row r="86" spans="1:5" ht="15" customHeight="1">
-      <c r="A86" s="13">
-        <v>67</v>
+      <c r="A86" s="6">
+        <v>84</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C86" s="17">
         <v>4551</v>
@@ -2967,11 +2955,11 @@
       <c r="E86" s="14"/>
     </row>
     <row r="87" spans="1:5" ht="15" customHeight="1">
-      <c r="A87" s="13">
-        <v>68</v>
+      <c r="A87" s="6">
+        <v>85</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C87" s="17">
         <v>4565</v>
@@ -2982,11 +2970,11 @@
       <c r="E87" s="14"/>
     </row>
     <row r="88" spans="1:5" ht="15" customHeight="1">
-      <c r="A88" s="13">
-        <v>69</v>
+      <c r="A88" s="6">
+        <v>86</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C88" s="17">
         <v>2937</v>
@@ -2997,11 +2985,11 @@
       <c r="E88" s="14"/>
     </row>
     <row r="89" spans="1:5" ht="15" customHeight="1">
-      <c r="A89" s="13">
-        <v>70</v>
+      <c r="A89" s="6">
+        <v>87</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C89" s="17">
         <v>4776</v>
@@ -3012,11 +3000,11 @@
       <c r="E89" s="14"/>
     </row>
     <row r="90" spans="1:5" ht="15" customHeight="1">
-      <c r="A90" s="13">
-        <v>71</v>
+      <c r="A90" s="6">
+        <v>88</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C90" s="17">
         <v>4781</v>
@@ -3027,11 +3015,11 @@
       <c r="E90" s="14"/>
     </row>
     <row r="91" spans="1:5" ht="15" customHeight="1">
-      <c r="A91" s="13">
-        <v>72</v>
+      <c r="A91" s="6">
+        <v>89</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="17">
         <v>4784</v>
@@ -3042,11 +3030,11 @@
       <c r="E91" s="14"/>
     </row>
     <row r="92" spans="1:5" ht="15" customHeight="1">
-      <c r="A92" s="13">
-        <v>73</v>
+      <c r="A92" s="6">
+        <v>90</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C92" s="17">
         <v>4791</v>
@@ -3057,11 +3045,11 @@
       <c r="E92" s="14"/>
     </row>
     <row r="93" spans="1:5" ht="15" customHeight="1">
-      <c r="A93" s="13">
-        <v>74</v>
+      <c r="A93" s="6">
+        <v>91</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C93" s="17">
         <v>4792</v>
@@ -3072,11 +3060,11 @@
       <c r="E93" s="14"/>
     </row>
     <row r="94" spans="1:5" ht="15" customHeight="1">
-      <c r="A94" s="13">
-        <v>75</v>
+      <c r="A94" s="6">
+        <v>92</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C94" s="17">
         <v>4793</v>
@@ -3087,11 +3075,11 @@
       <c r="E94" s="14"/>
     </row>
     <row r="95" spans="1:5" ht="15" customHeight="1">
-      <c r="A95" s="13">
-        <v>76</v>
+      <c r="A95" s="6">
+        <v>93</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C95" s="17">
         <v>4794</v>
@@ -3102,11 +3090,11 @@
       <c r="E95" s="14"/>
     </row>
     <row r="96" spans="1:5" ht="15" customHeight="1">
-      <c r="A96" s="13">
-        <v>77</v>
+      <c r="A96" s="6">
+        <v>94</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C96" s="20">
         <v>2867</v>
@@ -3117,11 +3105,11 @@
       <c r="E96" s="14"/>
     </row>
     <row r="97" spans="1:5" ht="15" customHeight="1">
-      <c r="A97" s="13">
-        <v>78</v>
+      <c r="A97" s="6">
+        <v>95</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C97" s="17">
         <v>2922</v>
@@ -3132,14 +3120,14 @@
       <c r="E97" s="14"/>
     </row>
     <row r="98" spans="1:5" ht="15" customHeight="1">
-      <c r="A98" s="13">
-        <v>79</v>
+      <c r="A98" s="6">
+        <v>96</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C98" s="14">
-        <v>2738</v>
+        <v>2109</v>
       </c>
       <c r="D98" s="14" t="s">
         <v>39</v>
@@ -3147,14 +3135,14 @@
       <c r="E98" s="14"/>
     </row>
     <row r="99" spans="1:5" ht="15" customHeight="1">
-      <c r="A99" s="13">
-        <v>80</v>
+      <c r="A99" s="6">
+        <v>97</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C99" s="14">
-        <v>2109</v>
+        <v>2002</v>
       </c>
       <c r="D99" s="14" t="s">
         <v>39</v>
@@ -3162,14 +3150,14 @@
       <c r="E99" s="14"/>
     </row>
     <row r="100" spans="1:5" ht="15" customHeight="1">
-      <c r="A100" s="13">
-        <v>81</v>
+      <c r="A100" s="6">
+        <v>98</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C100" s="14">
-        <v>2002</v>
+        <v>2996</v>
       </c>
       <c r="D100" s="14" t="s">
         <v>39</v>
@@ -3177,14 +3165,14 @@
       <c r="E100" s="14"/>
     </row>
     <row r="101" spans="1:5" ht="15" customHeight="1">
-      <c r="A101" s="13">
-        <v>82</v>
+      <c r="A101" s="6">
+        <v>99</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C101" s="14">
-        <v>2996</v>
+        <v>3089</v>
       </c>
       <c r="D101" s="14" t="s">
         <v>39</v>
@@ -3192,14 +3180,14 @@
       <c r="E101" s="14"/>
     </row>
     <row r="102" spans="1:5" ht="15" customHeight="1">
-      <c r="A102" s="13">
-        <v>83</v>
+      <c r="A102" s="6">
+        <v>100</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C102" s="14">
-        <v>3089</v>
+        <v>3325</v>
       </c>
       <c r="D102" s="14" t="s">
         <v>39</v>
@@ -3207,14 +3195,14 @@
       <c r="E102" s="14"/>
     </row>
     <row r="103" spans="1:5" ht="15" customHeight="1">
-      <c r="A103" s="13">
-        <v>84</v>
+      <c r="A103" s="6">
+        <v>101</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C103" s="14">
-        <v>3325</v>
+        <v>2162</v>
       </c>
       <c r="D103" s="14" t="s">
         <v>39</v>
@@ -3222,14 +3210,14 @@
       <c r="E103" s="14"/>
     </row>
     <row r="104" spans="1:5" ht="15" customHeight="1">
-      <c r="A104" s="13">
-        <v>85</v>
+      <c r="A104" s="6">
+        <v>102</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C104" s="14">
-        <v>2162</v>
+        <v>2294</v>
       </c>
       <c r="D104" s="14" t="s">
         <v>39</v>
@@ -3237,14 +3225,14 @@
       <c r="E104" s="14"/>
     </row>
     <row r="105" spans="1:5" ht="15" customHeight="1">
-      <c r="A105" s="13">
-        <v>86</v>
+      <c r="A105" s="6">
+        <v>103</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C105" s="14">
-        <v>2294</v>
+        <v>2215</v>
       </c>
       <c r="D105" s="14" t="s">
         <v>39</v>
@@ -3252,14 +3240,14 @@
       <c r="E105" s="14"/>
     </row>
     <row r="106" spans="1:5" ht="15" customHeight="1">
-      <c r="A106" s="13">
-        <v>87</v>
+      <c r="A106" s="6">
+        <v>104</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C106" s="14">
-        <v>2215</v>
+        <v>3090</v>
       </c>
       <c r="D106" s="14" t="s">
         <v>39</v>
@@ -3267,14 +3255,14 @@
       <c r="E106" s="14"/>
     </row>
     <row r="107" spans="1:5" ht="15" customHeight="1">
-      <c r="A107" s="13">
-        <v>88</v>
+      <c r="A107" s="6">
+        <v>105</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C107" s="14">
-        <v>3090</v>
+        <v>2017</v>
       </c>
       <c r="D107" s="14" t="s">
         <v>39</v>
@@ -3282,14 +3270,14 @@
       <c r="E107" s="14"/>
     </row>
     <row r="108" spans="1:5" ht="15" customHeight="1">
-      <c r="A108" s="13">
-        <v>89</v>
+      <c r="A108" s="6">
+        <v>106</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C108" s="14">
-        <v>2017</v>
+        <v>2165</v>
       </c>
       <c r="D108" s="14" t="s">
         <v>39</v>
@@ -3297,12 +3285,14 @@
       <c r="E108" s="14"/>
     </row>
     <row r="109" spans="1:5" ht="15" customHeight="1">
-      <c r="A109" s="13"/>
+      <c r="A109" s="6">
+        <v>107</v>
+      </c>
       <c r="B109" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C109" s="14">
-        <v>2165</v>
+        <v>1922</v>
       </c>
       <c r="D109" s="14" t="s">
         <v>39</v>
@@ -3310,44 +3300,44 @@
       <c r="E109" s="14"/>
     </row>
     <row r="110" spans="1:5" ht="15" customHeight="1">
-      <c r="A110" s="13">
-        <v>90</v>
-      </c>
-      <c r="B110" s="14" t="s">
+      <c r="A110" s="6">
+        <v>108</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C110" s="6">
+        <v>1599</v>
+      </c>
+      <c r="D110" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E110" s="6"/>
+    </row>
+    <row r="111" spans="1:5" ht="15" customHeight="1">
+      <c r="A111" s="6">
+        <v>109</v>
+      </c>
+      <c r="B111" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C110" s="14">
-        <v>1922</v>
-      </c>
-      <c r="D110" s="14" t="s">
+      <c r="C111" s="14">
+        <v>2158</v>
+      </c>
+      <c r="D111" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E110" s="14"/>
-    </row>
-    <row r="111" spans="1:5" ht="15" customHeight="1">
-      <c r="A111" s="13">
-        <v>91</v>
-      </c>
-      <c r="B111" s="6" t="s">
+      <c r="E111" s="14"/>
+    </row>
+    <row r="112" spans="1:5" ht="15" customHeight="1">
+      <c r="A112" s="6">
+        <v>110</v>
+      </c>
+      <c r="B112" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C111" s="6">
-        <v>1599</v>
-      </c>
-      <c r="D111" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E111" s="6"/>
-    </row>
-    <row r="112" spans="1:5" ht="15" customHeight="1">
-      <c r="A112" s="13">
-        <v>92</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>143</v>
-      </c>
       <c r="C112" s="14">
-        <v>2158</v>
+        <v>4153</v>
       </c>
       <c r="D112" s="14" t="s">
         <v>39</v>
@@ -3355,14 +3345,14 @@
       <c r="E112" s="14"/>
     </row>
     <row r="113" spans="1:5" ht="15" customHeight="1">
-      <c r="A113" s="13">
-        <v>93</v>
+      <c r="A113" s="6">
+        <v>111</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C113" s="14">
-        <v>4153</v>
+        <v>4152</v>
       </c>
       <c r="D113" s="14" t="s">
         <v>39</v>
@@ -3370,14 +3360,14 @@
       <c r="E113" s="14"/>
     </row>
     <row r="114" spans="1:5" ht="15" customHeight="1">
-      <c r="A114" s="13">
-        <v>94</v>
+      <c r="A114" s="6">
+        <v>112</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C114" s="14">
-        <v>4152</v>
+        <v>2302</v>
       </c>
       <c r="D114" s="14" t="s">
         <v>39</v>
@@ -3385,14 +3375,14 @@
       <c r="E114" s="14"/>
     </row>
     <row r="115" spans="1:5" ht="15" customHeight="1">
-      <c r="A115" s="13">
-        <v>95</v>
+      <c r="A115" s="6">
+        <v>113</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C115" s="14">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="D115" s="14" t="s">
         <v>39</v>
@@ -3400,374 +3390,374 @@
       <c r="E115" s="14"/>
     </row>
     <row r="116" spans="1:5" ht="15" customHeight="1">
-      <c r="A116" s="13">
-        <v>96</v>
-      </c>
-      <c r="B116" s="14" t="s">
+      <c r="A116" s="6">
+        <v>114</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C116" s="13">
+        <v>2815</v>
+      </c>
+      <c r="D116" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C116" s="14">
-        <v>2303</v>
-      </c>
-      <c r="D116" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E116" s="14"/>
+      <c r="E116" s="13"/>
     </row>
     <row r="117" spans="1:5" ht="15" customHeight="1">
-      <c r="A117" s="13">
-        <v>97</v>
-      </c>
-      <c r="B117" s="13" t="s">
+      <c r="A117" s="6">
+        <v>115</v>
+      </c>
+      <c r="B117" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C117" s="13">
-        <v>2815</v>
-      </c>
-      <c r="D117" s="13" t="s">
+      <c r="C117" s="14">
+        <v>2814</v>
+      </c>
+      <c r="D117" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E117" s="14"/>
+    </row>
+    <row r="118" spans="1:5" ht="15" customHeight="1">
+      <c r="A118" s="6">
+        <v>116</v>
+      </c>
+      <c r="B118" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="E117" s="13"/>
-    </row>
-    <row r="118" spans="1:5" ht="15" customHeight="1">
-      <c r="A118" s="13">
-        <v>98</v>
-      </c>
-      <c r="B118" s="14" t="s">
+      <c r="C118" s="14">
+        <v>3163</v>
+      </c>
+      <c r="D118" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E118" s="14"/>
+    </row>
+    <row r="119" spans="1:5" ht="15" customHeight="1">
+      <c r="A119" s="6">
+        <v>117</v>
+      </c>
+      <c r="B119" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C118" s="14">
-        <v>2814</v>
-      </c>
-      <c r="D118" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E118" s="14"/>
-    </row>
-    <row r="119" spans="1:5" ht="15" customHeight="1">
-      <c r="A119" s="13">
-        <v>99</v>
-      </c>
-      <c r="B119" s="14" t="s">
+      <c r="C119" s="14">
+        <v>3196</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E119" s="14"/>
+    </row>
+    <row r="120" spans="1:5" ht="15" customHeight="1">
+      <c r="A120" s="6">
+        <v>118</v>
+      </c>
+      <c r="B120" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C119" s="14">
-        <v>3163</v>
-      </c>
-      <c r="D119" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E119" s="14"/>
-    </row>
-    <row r="120" spans="1:5" ht="15" customHeight="1">
-      <c r="A120" s="13">
-        <v>100</v>
-      </c>
-      <c r="B120" s="14" t="s">
+      <c r="C120" s="14">
+        <v>3198</v>
+      </c>
+      <c r="D120" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E120" s="14"/>
+    </row>
+    <row r="121" spans="1:5" ht="15" customHeight="1">
+      <c r="A121" s="6">
+        <v>119</v>
+      </c>
+      <c r="B121" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C120" s="14">
-        <v>3196</v>
-      </c>
-      <c r="D120" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E120" s="14"/>
-    </row>
-    <row r="121" spans="1:5" ht="15" customHeight="1">
-      <c r="A121" s="13">
-        <v>101</v>
-      </c>
-      <c r="B121" s="14" t="s">
+      <c r="C121" s="14">
+        <v>3104</v>
+      </c>
+      <c r="D121" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E121" s="14"/>
+    </row>
+    <row r="122" spans="1:5" ht="15" customHeight="1">
+      <c r="A122" s="6">
+        <v>120</v>
+      </c>
+      <c r="B122" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C121" s="14">
-        <v>3198</v>
-      </c>
-      <c r="D121" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E121" s="14"/>
-    </row>
-    <row r="122" spans="1:5" ht="15" customHeight="1">
-      <c r="A122" s="13">
-        <v>102</v>
-      </c>
-      <c r="B122" s="14" t="s">
+      <c r="C122" s="14">
+        <v>3555</v>
+      </c>
+      <c r="D122" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E122" s="14"/>
+    </row>
+    <row r="123" spans="1:5" ht="15" customHeight="1">
+      <c r="A123" s="6">
+        <v>121</v>
+      </c>
+      <c r="B123" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C122" s="14">
-        <v>3104</v>
-      </c>
-      <c r="D122" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E122" s="14"/>
-    </row>
-    <row r="123" spans="1:5" ht="15" customHeight="1">
-      <c r="A123" s="13">
-        <v>103</v>
-      </c>
-      <c r="B123" s="14" t="s">
+      <c r="C123" s="14">
+        <v>3283</v>
+      </c>
+      <c r="D123" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E123" s="14"/>
+    </row>
+    <row r="124" spans="1:5" ht="15" customHeight="1">
+      <c r="A124" s="6">
+        <v>122</v>
+      </c>
+      <c r="B124" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C123" s="14">
-        <v>3555</v>
-      </c>
-      <c r="D123" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E123" s="14"/>
-    </row>
-    <row r="124" spans="1:5" ht="15" customHeight="1">
-      <c r="A124" s="13">
-        <v>104</v>
-      </c>
-      <c r="B124" s="14" t="s">
+      <c r="C124" s="14">
+        <v>3157</v>
+      </c>
+      <c r="D124" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E124" s="14"/>
+    </row>
+    <row r="125" spans="1:5" ht="15" customHeight="1">
+      <c r="A125" s="6">
+        <v>123</v>
+      </c>
+      <c r="B125" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C124" s="14">
-        <v>3283</v>
-      </c>
-      <c r="D124" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E124" s="14"/>
-    </row>
-    <row r="125" spans="1:5" ht="15" customHeight="1">
-      <c r="A125" s="13">
-        <v>105</v>
-      </c>
-      <c r="B125" s="14" t="s">
+      <c r="C125" s="14">
+        <v>3281</v>
+      </c>
+      <c r="D125" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E125" s="14"/>
+    </row>
+    <row r="126" spans="1:5" ht="15" customHeight="1">
+      <c r="A126" s="6">
+        <v>124</v>
+      </c>
+      <c r="B126" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C125" s="14">
-        <v>3157</v>
-      </c>
-      <c r="D125" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E125" s="14"/>
-    </row>
-    <row r="126" spans="1:5" ht="15" customHeight="1">
-      <c r="A126" s="13">
-        <v>106</v>
-      </c>
-      <c r="B126" s="14" t="s">
+      <c r="C126" s="14">
+        <v>3010</v>
+      </c>
+      <c r="D126" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E126" s="14"/>
+    </row>
+    <row r="127" spans="1:5" ht="15" customHeight="1">
+      <c r="A127" s="6">
+        <v>125</v>
+      </c>
+      <c r="B127" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C126" s="14">
-        <v>3281</v>
-      </c>
-      <c r="D126" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E126" s="14"/>
-    </row>
-    <row r="127" spans="1:5" ht="15" customHeight="1">
-      <c r="A127" s="13">
-        <v>107</v>
-      </c>
-      <c r="B127" s="14" t="s">
+      <c r="C127" s="14">
+        <v>3234</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E127" s="14"/>
+    </row>
+    <row r="128" spans="1:5" ht="15" customHeight="1">
+      <c r="A128" s="6">
+        <v>126</v>
+      </c>
+      <c r="B128" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C127" s="14">
-        <v>3010</v>
-      </c>
-      <c r="D127" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E127" s="14"/>
-    </row>
-    <row r="128" spans="1:5" ht="15" customHeight="1">
-      <c r="A128" s="13">
-        <v>108</v>
-      </c>
-      <c r="B128" s="14" t="s">
+      <c r="C128" s="14">
+        <v>4119</v>
+      </c>
+      <c r="D128" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E128" s="14"/>
+    </row>
+    <row r="129" spans="1:5" ht="15" customHeight="1">
+      <c r="A129" s="6">
+        <v>127</v>
+      </c>
+      <c r="B129" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C128" s="14">
-        <v>3234</v>
-      </c>
-      <c r="D128" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E128" s="14"/>
-    </row>
-    <row r="129" spans="1:5" ht="15" customHeight="1">
-      <c r="A129" s="13">
-        <v>109</v>
-      </c>
-      <c r="B129" s="14" t="s">
+      <c r="C129" s="14">
+        <v>4130</v>
+      </c>
+      <c r="D129" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E129" s="14"/>
+    </row>
+    <row r="130" spans="1:5" ht="15" customHeight="1">
+      <c r="A130" s="6">
+        <v>128</v>
+      </c>
+      <c r="B130" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C129" s="14">
-        <v>4119</v>
-      </c>
-      <c r="D129" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E129" s="14"/>
-    </row>
-    <row r="130" spans="1:5" ht="15" customHeight="1">
-      <c r="A130" s="13">
-        <v>110</v>
-      </c>
-      <c r="B130" s="14" t="s">
+      <c r="C130" s="14">
+        <v>4120</v>
+      </c>
+      <c r="D130" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E130" s="14"/>
+    </row>
+    <row r="131" spans="1:5" ht="15" customHeight="1">
+      <c r="A131" s="6">
+        <v>129</v>
+      </c>
+      <c r="B131" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C130" s="14">
-        <v>4130</v>
-      </c>
-      <c r="D130" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E130" s="14"/>
-    </row>
-    <row r="131" spans="1:5" ht="15" customHeight="1">
-      <c r="A131" s="13">
-        <v>111</v>
-      </c>
-      <c r="B131" s="14" t="s">
+      <c r="C131" s="14">
+        <v>4136</v>
+      </c>
+      <c r="D131" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E131" s="14"/>
+    </row>
+    <row r="132" spans="1:5" ht="15" customHeight="1">
+      <c r="A132" s="6">
+        <v>130</v>
+      </c>
+      <c r="B132" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C131" s="14">
-        <v>4120</v>
-      </c>
-      <c r="D131" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E131" s="14"/>
-    </row>
-    <row r="132" spans="1:5" ht="15" customHeight="1">
-      <c r="A132" s="13">
-        <v>112</v>
-      </c>
-      <c r="B132" s="14" t="s">
+      <c r="C132" s="14">
+        <v>4131</v>
+      </c>
+      <c r="D132" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E132" s="14"/>
+    </row>
+    <row r="133" spans="1:5" ht="15" customHeight="1">
+      <c r="A133" s="6">
+        <v>131</v>
+      </c>
+      <c r="B133" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C132" s="14">
-        <v>4136</v>
-      </c>
-      <c r="D132" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E132" s="14"/>
-    </row>
-    <row r="133" spans="1:5" ht="15" customHeight="1">
-      <c r="A133" s="13">
-        <v>113</v>
-      </c>
-      <c r="B133" s="14" t="s">
+      <c r="C133" s="14">
+        <v>4123</v>
+      </c>
+      <c r="D133" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E133" s="14"/>
+    </row>
+    <row r="134" spans="1:5" ht="15" customHeight="1">
+      <c r="A134" s="6">
+        <v>132</v>
+      </c>
+      <c r="B134" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C133" s="14">
-        <v>4131</v>
-      </c>
-      <c r="D133" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E133" s="14"/>
-    </row>
-    <row r="134" spans="1:5" ht="15" customHeight="1">
-      <c r="A134" s="13">
-        <v>114</v>
-      </c>
-      <c r="B134" s="14" t="s">
+      <c r="C134" s="14">
+        <v>2809</v>
+      </c>
+      <c r="D134" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E134" s="14"/>
+    </row>
+    <row r="135" spans="1:5" ht="15" customHeight="1">
+      <c r="A135" s="6">
+        <v>133</v>
+      </c>
+      <c r="B135" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C134" s="14">
-        <v>4123</v>
-      </c>
-      <c r="D134" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E134" s="14"/>
-    </row>
-    <row r="135" spans="1:5" ht="15" customHeight="1">
-      <c r="A135" s="13">
-        <v>115</v>
-      </c>
-      <c r="B135" s="14" t="s">
+      <c r="C135" s="14">
+        <v>2917</v>
+      </c>
+      <c r="D135" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E135" s="14"/>
+    </row>
+    <row r="136" spans="1:5" ht="15" customHeight="1">
+      <c r="A136" s="6">
+        <v>134</v>
+      </c>
+      <c r="B136" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="C135" s="14">
-        <v>2809</v>
-      </c>
-      <c r="D135" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E135" s="14"/>
-    </row>
-    <row r="136" spans="1:5" ht="15" customHeight="1">
-      <c r="A136" s="13">
-        <v>116</v>
-      </c>
-      <c r="B136" s="14" t="s">
+      <c r="C136" s="14">
+        <v>2918</v>
+      </c>
+      <c r="D136" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E136" s="14"/>
+    </row>
+    <row r="137" spans="1:5" ht="15" customHeight="1">
+      <c r="A137" s="6">
+        <v>135</v>
+      </c>
+      <c r="B137" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C136" s="14">
-        <v>2917</v>
-      </c>
-      <c r="D136" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E136" s="14"/>
-    </row>
-    <row r="137" spans="1:5" ht="15" customHeight="1">
-      <c r="A137" s="13">
-        <v>117</v>
-      </c>
-      <c r="B137" s="14" t="s">
+      <c r="C137" s="14">
+        <v>2919</v>
+      </c>
+      <c r="D137" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E137" s="14"/>
+    </row>
+    <row r="138" spans="1:5" ht="15" customHeight="1">
+      <c r="A138" s="6">
+        <v>136</v>
+      </c>
+      <c r="B138" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C137" s="14">
-        <v>2918</v>
-      </c>
-      <c r="D137" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E137" s="14"/>
-    </row>
-    <row r="138" spans="1:5" ht="15" customHeight="1">
-      <c r="A138" s="13">
-        <v>118</v>
-      </c>
-      <c r="B138" s="14" t="s">
+      <c r="C138" s="14">
+        <v>3189</v>
+      </c>
+      <c r="D138" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E138" s="14"/>
+    </row>
+    <row r="139" spans="1:5" ht="15" customHeight="1">
+      <c r="A139" s="6">
+        <v>137</v>
+      </c>
+      <c r="B139" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C138" s="14">
-        <v>2919</v>
-      </c>
-      <c r="D138" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E138" s="14"/>
-    </row>
-    <row r="139" spans="1:5" ht="15" customHeight="1">
-      <c r="A139" s="13">
-        <v>119</v>
-      </c>
-      <c r="B139" s="14" t="s">
+      <c r="C139" s="14">
+        <v>4073</v>
+      </c>
+      <c r="D139" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E139" s="14"/>
+    </row>
+    <row r="140" spans="1:5" ht="15" customHeight="1">
+      <c r="A140" s="6">
+        <v>138</v>
+      </c>
+      <c r="B140" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C139" s="14">
-        <v>3189</v>
-      </c>
-      <c r="D139" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E139" s="14"/>
-    </row>
-    <row r="140" spans="1:5" ht="15" customHeight="1">
-      <c r="A140" s="13">
-        <v>120</v>
-      </c>
-      <c r="B140" s="14" t="s">
-        <v>172</v>
-      </c>
       <c r="C140" s="14">
-        <v>4073</v>
+        <v>4072</v>
       </c>
       <c r="D140" s="14" t="s">
         <v>36</v>
@@ -3775,14 +3765,14 @@
       <c r="E140" s="14"/>
     </row>
     <row r="141" spans="1:5" ht="15" customHeight="1">
-      <c r="A141" s="13">
-        <v>121</v>
+      <c r="A141" s="6">
+        <v>139</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C141" s="14">
-        <v>4072</v>
+        <v>4080</v>
       </c>
       <c r="D141" s="14" t="s">
         <v>36</v>
@@ -3790,14 +3780,14 @@
       <c r="E141" s="14"/>
     </row>
     <row r="142" spans="1:5" ht="15" customHeight="1">
-      <c r="A142" s="13">
-        <v>122</v>
+      <c r="A142" s="6">
+        <v>140</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C142" s="14">
-        <v>4080</v>
+        <v>4070</v>
       </c>
       <c r="D142" s="14" t="s">
         <v>36</v>
@@ -3805,14 +3795,14 @@
       <c r="E142" s="14"/>
     </row>
     <row r="143" spans="1:5" ht="15" customHeight="1">
-      <c r="A143" s="13">
-        <v>123</v>
+      <c r="A143" s="6">
+        <v>141</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C143" s="14">
-        <v>4070</v>
+        <v>4065</v>
       </c>
       <c r="D143" s="14" t="s">
         <v>36</v>
@@ -3820,14 +3810,14 @@
       <c r="E143" s="14"/>
     </row>
     <row r="144" spans="1:5" ht="15" customHeight="1">
-      <c r="A144" s="13">
-        <v>124</v>
+      <c r="A144" s="6">
+        <v>143</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C144" s="14">
-        <v>4065</v>
+        <v>4212</v>
       </c>
       <c r="D144" s="14" t="s">
         <v>36</v>
@@ -3835,14 +3825,14 @@
       <c r="E144" s="14"/>
     </row>
     <row r="145" spans="1:5" ht="15" customHeight="1">
-      <c r="A145" s="13">
-        <v>125</v>
+      <c r="A145" s="6">
+        <v>144</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C145" s="14">
-        <v>2326</v>
+        <v>4071</v>
       </c>
       <c r="D145" s="14" t="s">
         <v>36</v>
@@ -3850,14 +3840,14 @@
       <c r="E145" s="14"/>
     </row>
     <row r="146" spans="1:5" ht="15" customHeight="1">
-      <c r="A146" s="13">
-        <v>126</v>
+      <c r="A146" s="6">
+        <v>145</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C146" s="14">
-        <v>4212</v>
+        <v>4703</v>
       </c>
       <c r="D146" s="14" t="s">
         <v>36</v>
@@ -3865,14 +3855,14 @@
       <c r="E146" s="14"/>
     </row>
     <row r="147" spans="1:5" ht="15" customHeight="1">
-      <c r="A147" s="13">
-        <v>127</v>
+      <c r="A147" s="6">
+        <v>146</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C147" s="14">
-        <v>4071</v>
+        <v>4066</v>
       </c>
       <c r="D147" s="14" t="s">
         <v>36</v>
@@ -3880,14 +3870,14 @@
       <c r="E147" s="14"/>
     </row>
     <row r="148" spans="1:5" ht="15" customHeight="1">
-      <c r="A148" s="13">
-        <v>128</v>
+      <c r="A148" s="6">
+        <v>147</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C148" s="14">
-        <v>4703</v>
+        <v>2962</v>
       </c>
       <c r="D148" s="14" t="s">
         <v>36</v>
@@ -3895,59 +3885,57 @@
       <c r="E148" s="14"/>
     </row>
     <row r="149" spans="1:5" ht="15" customHeight="1">
-      <c r="A149" s="13">
-        <v>129</v>
-      </c>
-      <c r="B149" s="14" t="s">
+      <c r="A149" s="6">
+        <v>148</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C149" s="6">
+        <v>2569</v>
+      </c>
+      <c r="D149" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E149" s="6"/>
+    </row>
+    <row r="150" spans="1:5" ht="15" customHeight="1">
+      <c r="A150" s="6"/>
+      <c r="B150" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C150" s="6">
+        <v>4495</v>
+      </c>
+      <c r="D150" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E150" s="6"/>
+    </row>
+    <row r="151" spans="1:5" ht="15" customHeight="1">
+      <c r="A151" s="6">
+        <v>149</v>
+      </c>
+      <c r="B151" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C149" s="14">
-        <v>4066</v>
-      </c>
-      <c r="D149" s="14" t="s">
+      <c r="C151" s="14">
+        <v>4067</v>
+      </c>
+      <c r="D151" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E149" s="14"/>
-    </row>
-    <row r="150" spans="1:5" ht="15" customHeight="1">
-      <c r="A150" s="13">
-        <v>130</v>
-      </c>
-      <c r="B150" s="14" t="s">
+      <c r="E151" s="14"/>
+    </row>
+    <row r="152" spans="1:5" ht="15" customHeight="1">
+      <c r="A152" s="6">
+        <v>150</v>
+      </c>
+      <c r="B152" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="C150" s="14">
-        <v>2962</v>
-      </c>
-      <c r="D150" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E150" s="14"/>
-    </row>
-    <row r="151" spans="1:5" ht="15" customHeight="1">
-      <c r="A151" s="13">
-        <v>131</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C151" s="6">
-        <v>2569</v>
-      </c>
-      <c r="D151" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E151" s="6"/>
-    </row>
-    <row r="152" spans="1:5" ht="15" customHeight="1">
-      <c r="A152" s="13">
-        <v>132</v>
-      </c>
-      <c r="B152" s="14" t="s">
-        <v>184</v>
-      </c>
       <c r="C152" s="14">
-        <v>4067</v>
+        <v>4061</v>
       </c>
       <c r="D152" s="14" t="s">
         <v>36</v>
@@ -3955,14 +3943,14 @@
       <c r="E152" s="14"/>
     </row>
     <row r="153" spans="1:5" ht="15" customHeight="1">
-      <c r="A153" s="13">
-        <v>133</v>
+      <c r="A153" s="6">
+        <v>151</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C153" s="14">
-        <v>4061</v>
+        <v>4081</v>
       </c>
       <c r="D153" s="14" t="s">
         <v>36</v>
@@ -3970,14 +3958,14 @@
       <c r="E153" s="14"/>
     </row>
     <row r="154" spans="1:5" ht="15" customHeight="1">
-      <c r="A154" s="13">
-        <v>134</v>
+      <c r="A154" s="6">
+        <v>152</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C154" s="14">
-        <v>4081</v>
+        <v>4075</v>
       </c>
       <c r="D154" s="14" t="s">
         <v>36</v>
@@ -3985,14 +3973,14 @@
       <c r="E154" s="14"/>
     </row>
     <row r="155" spans="1:5" ht="15" customHeight="1">
-      <c r="A155" s="13">
-        <v>135</v>
+      <c r="A155" s="6">
+        <v>153</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C155" s="14">
-        <v>4075</v>
+        <v>4082</v>
       </c>
       <c r="D155" s="14" t="s">
         <v>36</v>
@@ -4000,14 +3988,14 @@
       <c r="E155" s="14"/>
     </row>
     <row r="156" spans="1:5" ht="15" customHeight="1">
-      <c r="A156" s="13">
-        <v>136</v>
+      <c r="A156" s="6">
+        <v>154</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C156" s="14">
-        <v>4082</v>
+        <v>4063</v>
       </c>
       <c r="D156" s="14" t="s">
         <v>36</v>
@@ -4015,14 +4003,14 @@
       <c r="E156" s="14"/>
     </row>
     <row r="157" spans="1:5" ht="15" customHeight="1">
-      <c r="A157" s="13">
-        <v>137</v>
+      <c r="A157" s="6">
+        <v>155</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C157" s="14">
-        <v>4063</v>
+        <v>4496</v>
       </c>
       <c r="D157" s="14" t="s">
         <v>36</v>
@@ -4030,14 +4018,14 @@
       <c r="E157" s="14"/>
     </row>
     <row r="158" spans="1:5" ht="15" customHeight="1">
-      <c r="A158" s="13">
-        <v>138</v>
+      <c r="A158" s="6">
+        <v>156</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C158" s="14">
-        <v>4496</v>
+        <v>4537</v>
       </c>
       <c r="D158" s="14" t="s">
         <v>36</v>
@@ -4045,14 +4033,14 @@
       <c r="E158" s="14"/>
     </row>
     <row r="159" spans="1:5" ht="15" customHeight="1">
-      <c r="A159" s="13">
-        <v>139</v>
+      <c r="A159" s="6">
+        <v>157</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C159" s="14">
-        <v>4537</v>
+        <v>4062</v>
       </c>
       <c r="D159" s="14" t="s">
         <v>36</v>
@@ -4060,14 +4048,14 @@
       <c r="E159" s="14"/>
     </row>
     <row r="160" spans="1:5" ht="15" customHeight="1">
-      <c r="A160" s="13">
-        <v>140</v>
+      <c r="A160" s="6">
+        <v>158</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C160" s="14">
-        <v>4062</v>
+        <v>3043</v>
       </c>
       <c r="D160" s="14" t="s">
         <v>36</v>
@@ -4075,92 +4063,92 @@
       <c r="E160" s="14"/>
     </row>
     <row r="161" spans="1:10" ht="15" customHeight="1">
-      <c r="A161" s="13">
-        <v>141</v>
+      <c r="A161" s="6">
+        <v>160</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C161" s="14">
-        <v>3043</v>
+        <v>3276</v>
       </c>
       <c r="D161" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E161" s="14"/>
-    </row>
-    <row r="162" spans="1:10" ht="15" customHeight="1">
-      <c r="A162" s="13">
-        <v>142</v>
+      <c r="G161" s="22"/>
+    </row>
+    <row r="162" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A162" s="6">
+        <v>161</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C162" s="14">
-        <v>2820</v>
+        <v>2947</v>
       </c>
       <c r="D162" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E162" s="14"/>
+      <c r="I162" s="25"/>
+      <c r="J162" s="25"/>
     </row>
     <row r="163" spans="1:10" ht="15" customHeight="1">
-      <c r="A163" s="13">
-        <v>143</v>
-      </c>
-      <c r="B163" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="C163" s="14">
-        <v>3276</v>
-      </c>
-      <c r="D163" s="14" t="s">
+      <c r="A163" s="6">
+        <v>162</v>
+      </c>
+      <c r="B163" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C163" s="13">
+        <v>3277</v>
+      </c>
+      <c r="D163" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E163" s="14"/>
-      <c r="G163" s="22"/>
-    </row>
-    <row r="164" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A164" s="13">
-        <v>144</v>
+      <c r="E163" s="13"/>
+    </row>
+    <row r="164" spans="1:10" ht="15" customHeight="1">
+      <c r="A164" s="6">
+        <v>163</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C164" s="14">
-        <v>2947</v>
+        <v>4139</v>
       </c>
       <c r="D164" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E164" s="14"/>
-      <c r="I164" s="25"/>
-      <c r="J164" s="25"/>
     </row>
     <row r="165" spans="1:10" ht="15" customHeight="1">
-      <c r="A165" s="13">
-        <v>145</v>
-      </c>
-      <c r="B165" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="C165" s="13">
-        <v>3277</v>
-      </c>
-      <c r="D165" s="13" t="s">
+      <c r="A165" s="6">
+        <v>165</v>
+      </c>
+      <c r="B165" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C165" s="14">
+        <v>3677</v>
+      </c>
+      <c r="D165" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E165" s="13"/>
+      <c r="E165" s="14"/>
     </row>
     <row r="166" spans="1:10" ht="15" customHeight="1">
-      <c r="A166" s="13">
-        <v>146</v>
+      <c r="A166" s="6">
+        <v>166</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C166" s="14">
-        <v>4139</v>
+        <v>3679</v>
       </c>
       <c r="D166" s="14" t="s">
         <v>36</v>
@@ -4168,14 +4156,14 @@
       <c r="E166" s="14"/>
     </row>
     <row r="167" spans="1:10" ht="15" customHeight="1">
-      <c r="A167" s="13">
-        <v>147</v>
+      <c r="A167" s="6">
+        <v>167</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C167" s="14">
-        <v>2817</v>
+        <v>3388</v>
       </c>
       <c r="D167" s="14" t="s">
         <v>36</v>
@@ -4183,14 +4171,14 @@
       <c r="E167" s="14"/>
     </row>
     <row r="168" spans="1:10" ht="15" customHeight="1">
-      <c r="A168" s="13">
-        <v>148</v>
+      <c r="A168" s="6">
+        <v>168</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C168" s="14">
-        <v>3677</v>
+        <v>3003</v>
       </c>
       <c r="D168" s="14" t="s">
         <v>36</v>
@@ -4198,14 +4186,14 @@
       <c r="E168" s="14"/>
     </row>
     <row r="169" spans="1:10" ht="15" customHeight="1">
-      <c r="A169" s="13">
-        <v>149</v>
+      <c r="A169" s="6">
+        <v>169</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C169" s="14">
-        <v>3679</v>
+        <v>2978</v>
       </c>
       <c r="D169" s="14" t="s">
         <v>36</v>
@@ -4213,14 +4201,14 @@
       <c r="E169" s="14"/>
     </row>
     <row r="170" spans="1:10" ht="15" customHeight="1">
-      <c r="A170" s="13">
-        <v>150</v>
+      <c r="A170" s="6">
+        <v>170</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C170" s="14">
-        <v>3388</v>
+        <v>2601</v>
       </c>
       <c r="D170" s="14" t="s">
         <v>36</v>
@@ -4228,14 +4216,14 @@
       <c r="E170" s="14"/>
     </row>
     <row r="171" spans="1:10" ht="15" customHeight="1">
-      <c r="A171" s="13">
-        <v>151</v>
+      <c r="A171" s="6">
+        <v>171</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C171" s="14">
-        <v>3003</v>
+        <v>2223</v>
       </c>
       <c r="D171" s="14" t="s">
         <v>36</v>
@@ -4243,14 +4231,14 @@
       <c r="E171" s="14"/>
     </row>
     <row r="172" spans="1:10" ht="15" customHeight="1">
-      <c r="A172" s="13">
-        <v>152</v>
+      <c r="A172" s="6">
+        <v>172</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C172" s="14">
-        <v>2978</v>
+        <v>2080</v>
       </c>
       <c r="D172" s="14" t="s">
         <v>36</v>
@@ -4258,276 +4246,216 @@
       <c r="E172" s="14"/>
     </row>
     <row r="173" spans="1:10" ht="15" customHeight="1">
-      <c r="A173" s="13">
-        <v>153</v>
+      <c r="A173" s="6">
+        <v>173</v>
       </c>
       <c r="B173" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="C173" s="23">
+        <v>1957</v>
+      </c>
+      <c r="D173" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E173" s="14"/>
+    </row>
+    <row r="174" spans="1:10" ht="15" customHeight="1">
+      <c r="A174" s="6">
+        <v>174</v>
+      </c>
+      <c r="B174" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="C173" s="14">
-        <v>2601</v>
-      </c>
-      <c r="D173" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E173" s="14"/>
-    </row>
-    <row r="174" spans="1:10" ht="15" customHeight="1">
-      <c r="A174" s="13">
-        <v>154</v>
-      </c>
-      <c r="B174" s="14" t="s">
+      <c r="C174" s="23">
+        <v>2208</v>
+      </c>
+      <c r="D174" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E174" s="14"/>
+    </row>
+    <row r="175" spans="1:10" ht="15" customHeight="1">
+      <c r="A175" s="6">
+        <v>175</v>
+      </c>
+      <c r="B175" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="C174" s="14">
-        <v>2223</v>
-      </c>
-      <c r="D174" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E174" s="14"/>
-    </row>
-    <row r="175" spans="1:10" ht="15" customHeight="1">
-      <c r="A175" s="13">
-        <v>155</v>
-      </c>
-      <c r="B175" s="14" t="s">
+      <c r="C175" s="24">
+        <v>2143</v>
+      </c>
+      <c r="D175" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E175" s="14"/>
+    </row>
+    <row r="176" spans="1:10" ht="15" customHeight="1">
+      <c r="A176" s="6">
+        <v>176</v>
+      </c>
+      <c r="B176" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="C175" s="14">
-        <v>2080</v>
-      </c>
-      <c r="D175" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E175" s="14"/>
-    </row>
-    <row r="176" spans="1:10" ht="15" customHeight="1">
-      <c r="A176" s="13">
-        <v>156</v>
-      </c>
-      <c r="B176" s="14" t="s">
+      <c r="C176" s="20">
+        <v>2664</v>
+      </c>
+      <c r="D176" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E176" s="14"/>
+    </row>
+    <row r="177" spans="1:5" ht="15" customHeight="1">
+      <c r="A177" s="6">
+        <v>177</v>
+      </c>
+      <c r="B177" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="C176" s="23">
-        <v>1957</v>
-      </c>
-      <c r="D176" s="14" t="s">
+      <c r="C177" s="20">
+        <v>2147</v>
+      </c>
+      <c r="D177" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="E177" s="14"/>
+    </row>
+    <row r="178" spans="1:5" ht="15" customHeight="1">
+      <c r="A178" s="6">
+        <v>178</v>
+      </c>
+      <c r="B178" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="E176" s="14"/>
-    </row>
-    <row r="177" spans="1:5" ht="15" customHeight="1">
-      <c r="A177" s="13">
-        <v>157</v>
-      </c>
-      <c r="B177" s="14" t="s">
+      <c r="C178" s="20">
+        <v>2358</v>
+      </c>
+      <c r="D178" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="E178" s="14"/>
+    </row>
+    <row r="179" spans="1:5" ht="15" customHeight="1">
+      <c r="A179" s="6">
+        <v>179</v>
+      </c>
+      <c r="B179" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="C177" s="23">
-        <v>2208</v>
-      </c>
-      <c r="D177" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="E177" s="14"/>
-    </row>
-    <row r="178" spans="1:5" ht="15" customHeight="1">
-      <c r="A178" s="13">
-        <v>158</v>
-      </c>
-      <c r="B178" s="14" t="s">
+      <c r="C179" s="14">
+        <v>2965</v>
+      </c>
+      <c r="D179" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E179" s="14"/>
+    </row>
+    <row r="180" spans="1:5" ht="15" customHeight="1">
+      <c r="A180" s="6">
+        <v>180</v>
+      </c>
+      <c r="B180" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C178" s="24">
-        <v>2143</v>
-      </c>
-      <c r="D178" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="E178" s="14"/>
-    </row>
-    <row r="179" spans="1:5" ht="15" customHeight="1">
-      <c r="A179" s="13">
-        <v>159</v>
-      </c>
-      <c r="B179" s="20" t="s">
+      <c r="C180" s="14">
+        <v>3239</v>
+      </c>
+      <c r="D180" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E180" s="14"/>
+    </row>
+    <row r="181" spans="1:5" ht="15" customHeight="1">
+      <c r="A181" s="6">
+        <v>181</v>
+      </c>
+      <c r="B181" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="C179" s="20">
-        <v>2664</v>
-      </c>
-      <c r="D179" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E179" s="14"/>
-    </row>
-    <row r="180" spans="1:5" ht="15" customHeight="1">
-      <c r="A180" s="13">
-        <v>160</v>
-      </c>
-      <c r="B180" s="20" t="s">
+      <c r="C181" s="14">
+        <v>2833</v>
+      </c>
+      <c r="D181" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E181" s="14"/>
+    </row>
+    <row r="182" spans="1:5" ht="15" customHeight="1">
+      <c r="A182" s="6">
+        <v>182</v>
+      </c>
+      <c r="B182" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C180" s="20">
-        <v>2097</v>
-      </c>
-      <c r="D180" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E180" s="14"/>
-    </row>
-    <row r="181" spans="1:5" ht="15" customHeight="1">
-      <c r="A181" s="13">
-        <v>161</v>
-      </c>
-      <c r="B181" s="20" t="s">
+      <c r="C182" s="14">
+        <v>3066</v>
+      </c>
+      <c r="D182" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E182" s="14"/>
+    </row>
+    <row r="183" spans="1:5" ht="15" customHeight="1">
+      <c r="A183" s="6">
+        <v>183</v>
+      </c>
+      <c r="B183" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="C181" s="20">
-        <v>2147</v>
-      </c>
-      <c r="D181" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E181" s="14"/>
-    </row>
-    <row r="182" spans="1:5" ht="15" customHeight="1">
-      <c r="A182" s="13">
-        <v>162</v>
-      </c>
-      <c r="B182" s="20" t="s">
+      <c r="C183" s="14">
+        <v>3265</v>
+      </c>
+      <c r="D183" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E183" s="14"/>
+    </row>
+    <row r="184" spans="1:5" ht="15" customHeight="1">
+      <c r="A184" s="6">
+        <v>184</v>
+      </c>
+      <c r="B184" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="C182" s="20">
-        <v>2358</v>
-      </c>
-      <c r="D182" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E182" s="14"/>
-    </row>
-    <row r="183" spans="1:5" ht="15" customHeight="1">
-      <c r="A183" s="13">
-        <v>163</v>
-      </c>
-      <c r="B183" s="14" t="s">
+      <c r="C184" s="14">
+        <v>3048</v>
+      </c>
+      <c r="D184" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E184" s="14"/>
+    </row>
+    <row r="185" spans="1:5" ht="15" customHeight="1">
+      <c r="A185" s="6">
+        <v>185</v>
+      </c>
+      <c r="B185" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="C183" s="14">
-        <v>2965</v>
-      </c>
-      <c r="D183" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E183" s="14"/>
-    </row>
-    <row r="184" spans="1:5" ht="15" customHeight="1">
-      <c r="A184" s="13">
-        <v>164</v>
-      </c>
-      <c r="B184" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="C184" s="14">
-        <v>3239</v>
-      </c>
-      <c r="D184" s="14" t="s">
+      <c r="C185" s="14">
+        <v>3491</v>
+      </c>
+      <c r="D185" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E184" s="14"/>
-    </row>
-    <row r="185" spans="1:5" ht="15" customHeight="1">
-      <c r="A185" s="13">
-        <v>165</v>
-      </c>
-      <c r="B185" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="C185" s="14">
-        <v>2833</v>
-      </c>
-      <c r="D185" s="14" t="s">
-        <v>45</v>
-      </c>
       <c r="E185" s="14"/>
-    </row>
-    <row r="186" spans="1:5" ht="15" customHeight="1">
-      <c r="A186" s="13">
-        <v>166</v>
-      </c>
-      <c r="B186" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="C186" s="14">
-        <v>3066</v>
-      </c>
-      <c r="D186" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E186" s="14"/>
-    </row>
-    <row r="187" spans="1:5" ht="15" customHeight="1">
-      <c r="A187" s="13">
-        <v>167</v>
-      </c>
-      <c r="B187" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="C187" s="14">
-        <v>3265</v>
-      </c>
-      <c r="D187" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E187" s="14"/>
-    </row>
-    <row r="188" spans="1:5" ht="15" customHeight="1">
-      <c r="A188" s="13">
-        <v>168</v>
-      </c>
-      <c r="B188" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C188" s="14">
-        <v>3048</v>
-      </c>
-      <c r="D188" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E188" s="14"/>
-    </row>
-    <row r="189" spans="1:5" ht="15" customHeight="1">
-      <c r="A189" s="13">
-        <v>169</v>
-      </c>
-      <c r="B189" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="C189" s="14">
-        <v>3491</v>
-      </c>
-      <c r="D189" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E189" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
   </mergeCells>
-  <conditionalFormatting sqref="C143">
+  <conditionalFormatting sqref="C142">
     <cfRule type="expression" dxfId="3" priority="9">
-      <formula>$A152</formula>
+      <formula>$A151</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="10">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C154:C155">
+  <conditionalFormatting sqref="C153:C154">
     <cfRule type="expression" dxfId="1" priority="6">
-      <formula>$A156</formula>
+      <formula>$A155</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="8">
       <formula>#REF!</formula>
